--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="826">
   <si>
     <t>Model number</t>
   </si>
@@ -2550,6 +2550,9 @@
   </si>
   <si>
     <t>Each row has a unique ID in the first column. This has to be filled.</t>
+  </si>
+  <si>
+    <t>Template version 1.0</t>
   </si>
 </sst>
 </file>
@@ -3066,14 +3069,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>825</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>821</v>

--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -758,18 +758,6 @@
     <t>The fluorescence quantum yield of the acceptor</t>
   </si>
   <si>
-    <t>The alpha calibration parameter</t>
-  </si>
-  <si>
-    <t>The beta calibration parameter</t>
-  </si>
-  <si>
-    <t>The gamma calibration parameter</t>
-  </si>
-  <si>
-    <t>The delta calibration parameter</t>
-  </si>
-  <si>
     <t>The gG/gR ratio</t>
   </si>
   <si>
@@ -2042,9 +2030,6 @@
     <t>Sample ID</t>
   </si>
   <si>
-    <t>The fraction of bright molecules</t>
-  </si>
-  <si>
     <t>Journal abbreviation</t>
   </si>
   <si>
@@ -2553,6 +2538,21 @@
   </si>
   <si>
     <t>Template version 1.0</t>
+  </si>
+  <si>
+    <t>The alpha calibration parameter (cf. Hellenkamp et al. DOI: 10.1038/s41592-018-0085-0 )</t>
+  </si>
+  <si>
+    <t>The beta calibration parameter (cf. Hellenkamp et al. DOI: 10.1038/s41592-018-0085-0 )</t>
+  </si>
+  <si>
+    <t>The gamma calibration parameter (cf. Hellenkamp et al. DOI: 10.1038/s41592-018-0085-0 )</t>
+  </si>
+  <si>
+    <t>The delta calibration parameter (cf. Hellenkamp et al. DOI: 10.1038/s41592-018-0085-0 )</t>
+  </si>
+  <si>
+    <t>The fraction of bright molecules (cf. Hellenkamp et al. DOI: 10.1038/s41592-018-0085-0 )</t>
   </si>
 </sst>
 </file>
@@ -3072,19 +3072,19 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -3168,121 +3168,121 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="22" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>781</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>710</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>782</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>783</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>711</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>712</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>713</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>714</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>715</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G3" t="s">
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="J3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="K3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="L3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="J4" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>565</v>
-      </c>
       <c r="L4" s="9" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -3330,36 +3330,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>717</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>718</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>785</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>719</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>720</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>721</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>786</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -3393,31 +3393,31 @@
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>433</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -3445,42 +3445,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -3515,42 +3515,42 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>424</v>
-      </c>
       <c r="K4" s="9" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3611,103 +3611,103 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="22" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>723</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>790</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>728</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>794</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>795</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>729</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>731</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>732</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>733</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>593</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -3736,8 +3736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+    <sheetView topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BS3" sqref="BS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3764,7 +3764,7 @@
   <sheetData>
     <row r="1" spans="1:114" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B1" s="26"/>
       <c r="E1" s="26"/>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="2" spans="1:114" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>147</v>
@@ -3927,20 +3927,20 @@
       <c r="CZ2" s="18"/>
       <c r="DA2" s="18"/>
       <c r="DB2" s="21" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="DJ2" s="21"/>
     </row>
     <row r="3" spans="1:114" s="23" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>165</v>
@@ -3950,16 +3950,16 @@
         <v>166</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>167</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="L3" s="25" t="s">
         <v>168</v>
@@ -4139,467 +4139,467 @@
         <v>226</v>
       </c>
       <c r="BS3" s="24" t="s">
-        <v>227</v>
+        <v>821</v>
       </c>
       <c r="BT3" s="24"/>
       <c r="BU3" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="BV3" s="24" t="s">
+        <v>823</v>
+      </c>
+      <c r="BW3" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="BX3" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="BY3" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="BZ3" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="BV3" s="24" t="s">
+      <c r="CA3" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="BW3" s="24" t="s">
+      <c r="CB3" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="BX3" s="24" t="s">
+      <c r="CC3" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="BY3" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="BZ3" s="25" t="s">
+      <c r="CD3" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="CE3" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="CA3" s="24" t="s">
+      <c r="CF3" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="CB3" s="25" t="s">
+      <c r="CG3" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="CC3" s="24" t="s">
+      <c r="CH3" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="CD3" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="CE3" s="24" t="s">
+      <c r="CI3" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="CF3" s="24" t="s">
+      <c r="CJ3" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="CG3" s="24" t="s">
+      <c r="CK3" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="CH3" s="24" t="s">
+      <c r="CL3" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="CM3" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="CN3" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="CP3" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="CI3" s="24" t="s">
+      <c r="CQ3" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="CJ3" s="24" t="s">
+      <c r="CR3" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="CK3" s="24" t="s">
+      <c r="CS3" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="CL3" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="CM3" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="CN3" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="CP3" s="25" t="s">
+      <c r="CT3" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="CQ3" s="24" t="s">
+      <c r="CU3" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="CR3" s="24" t="s">
+      <c r="CV3" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="CS3" s="24" t="s">
+      <c r="CW3" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="CT3" s="24" t="s">
+      <c r="CX3" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="CU3" s="24" t="s">
+      <c r="CY3" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="CV3" s="25" t="s">
+      <c r="CZ3" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="CW3" s="24" t="s">
+      <c r="DA3" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="CX3" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="CY3" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="CZ3" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="DA3" s="24" t="s">
-        <v>254</v>
-      </c>
       <c r="DB3" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="DC3" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="DD3" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="DE3" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="DF3" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="DC3" s="24" t="s">
+      <c r="DG3" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="DD3" s="24" t="s">
+      <c r="DH3" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="DE3" s="24" t="s">
+      <c r="DI3" s="24" t="s">
         <v>626</v>
-      </c>
-      <c r="DF3" s="24" t="s">
-        <v>627</v>
-      </c>
-      <c r="DG3" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="DH3" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="DI3" s="24" t="s">
-        <v>630</v>
       </c>
       <c r="DJ3" s="26"/>
     </row>
     <row r="4" spans="1:114" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="H4" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="L4" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="I4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="P4" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="R4" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="V4" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="W4" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="X4" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="Y4" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="Z4" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="AA4" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="AB4" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="AC4" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AD4" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AE4" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AF4" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AG4" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AH4" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AI4" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="AF4" s="16" t="s">
+      <c r="AJ4" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AK4" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AL4" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AM4" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="AJ4" s="16" t="s">
+      <c r="AN4" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="AK4" s="15" t="s">
+      <c r="AO4" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="AL4" s="15" t="s">
+      <c r="AP4" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AQ4" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="AN4" s="15" t="s">
+      <c r="AR4" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="AO4" s="15" t="s">
+      <c r="AS4" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AP4" s="16" t="s">
+      <c r="AT4" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="AQ4" s="15" t="s">
+      <c r="AU4" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="AR4" s="15" t="s">
+      <c r="AV4" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="AS4" s="15" t="s">
+      <c r="AW4" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="AT4" s="15" t="s">
+      <c r="AX4" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="AU4" s="15" t="s">
+      <c r="AY4" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="AV4" s="15" t="s">
+      <c r="AZ4" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="AW4" s="15" t="s">
+      <c r="BA4" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="AX4" s="15" t="s">
+      <c r="BB4" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="AY4" s="15" t="s">
+      <c r="BC4" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="AZ4" s="15" t="s">
+      <c r="BD4" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="BA4" s="15" t="s">
+      <c r="BE4" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="BB4" s="15" t="s">
+      <c r="BF4" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="BC4" s="15" t="s">
+      <c r="BG4" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="BD4" s="16" t="s">
+      <c r="BH4" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="BE4" s="15" t="s">
+      <c r="BI4" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="BF4" s="16" t="s">
+      <c r="BJ4" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="BG4" s="15" t="s">
+      <c r="BK4" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="BH4" s="15" t="s">
+      <c r="BL4" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="BI4" s="15" t="s">
+      <c r="BM4" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="BJ4" s="15" t="s">
+      <c r="BN4" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="BK4" s="15" t="s">
+      <c r="BO4" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="BL4" s="15" t="s">
+      <c r="BP4" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="BM4" s="15" t="s">
+      <c r="BQ4" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="BN4" s="15" t="s">
+      <c r="BR4" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="BO4" s="15" t="s">
+      <c r="BS4" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="BP4" s="16" t="s">
+      <c r="BT4" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="BQ4" s="15" t="s">
+      <c r="BU4" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="BR4" s="16" t="s">
+      <c r="BV4" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="BS4" s="15" t="s">
+      <c r="BW4" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="BT4" s="15" t="s">
+      <c r="BX4" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="BU4" s="15" t="s">
+      <c r="BY4" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="BV4" s="15" t="s">
+      <c r="BZ4" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="BW4" s="15" t="s">
+      <c r="CA4" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="BX4" s="15" t="s">
+      <c r="CB4" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="BY4" s="15" t="s">
+      <c r="CC4" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="BZ4" s="16" t="s">
+      <c r="CD4" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="CE4" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="CF4" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="CG4" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="CH4" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="CI4" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="CJ4" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="CK4" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="CL4" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="CM4" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="CN4" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="CP4" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="CA4" s="15" t="s">
+      <c r="CQ4" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="CB4" s="16" t="s">
+      <c r="CR4" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="CC4" s="15" t="s">
+      <c r="CS4" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="CD4" s="16" t="s">
-        <v>800</v>
-      </c>
-      <c r="CE4" s="15" t="s">
-        <v>801</v>
-      </c>
-      <c r="CF4" s="15" t="s">
-        <v>802</v>
-      </c>
-      <c r="CG4" s="15" t="s">
-        <v>803</v>
-      </c>
-      <c r="CH4" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="CI4" s="15" t="s">
-        <v>805</v>
-      </c>
-      <c r="CJ4" s="15" t="s">
-        <v>806</v>
-      </c>
-      <c r="CK4" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="CL4" s="15" t="s">
-        <v>808</v>
-      </c>
-      <c r="CM4" s="15" t="s">
-        <v>809</v>
-      </c>
-      <c r="CN4" s="9" t="s">
-        <v>810</v>
-      </c>
-      <c r="CP4" s="16" t="s">
+      <c r="CT4" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="CQ4" s="15" t="s">
+      <c r="CU4" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="CR4" s="15" t="s">
+      <c r="CV4" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="CS4" s="15" t="s">
+      <c r="CW4" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="CT4" s="15" t="s">
+      <c r="CX4" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="CU4" s="15" t="s">
+      <c r="CY4" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="CV4" s="16" t="s">
+      <c r="CZ4" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="CW4" s="15" t="s">
+      <c r="DA4" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="CX4" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="CY4" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="CZ4" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="DA4" s="15" t="s">
-        <v>346</v>
-      </c>
       <c r="DB4" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="DC4" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="DD4" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="DE4" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="DF4" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="DC4" s="9" t="s">
+      <c r="DG4" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="DD4" s="9" t="s">
+      <c r="DH4" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="DE4" s="9" t="s">
+      <c r="DI4" s="9" t="s">
         <v>634</v>
-      </c>
-      <c r="DF4" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="DG4" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="DH4" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="DI4" s="9" t="s">
-        <v>638</v>
       </c>
       <c r="DJ4" s="21"/>
     </row>
@@ -4980,7 +4980,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="22" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4988,64 +4988,64 @@
         <v>21</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>605</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>608</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>609</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>618</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -5070,157 +5070,157 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="22" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H3" t="s">
+        <v>480</v>
+      </c>
+      <c r="I3" t="s">
         <v>481</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>482</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>483</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>484</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>485</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>486</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>487</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>488</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>489</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>490</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
         <v>491</v>
       </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
         <v>492</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>493</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>494</v>
-      </c>
-      <c r="S3" t="s">
-        <v>495</v>
-      </c>
-      <c r="T3" t="s">
-        <v>496</v>
-      </c>
-      <c r="U3" t="s">
-        <v>497</v>
-      </c>
-      <c r="V3" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>811</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="M4" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="R4" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="N4" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="R4" s="12" t="s">
+      <c r="V4" s="12" t="s">
         <v>476</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -5278,49 +5278,49 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="22" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>739</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>743</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -5348,44 +5348,44 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="22" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" t="s">
         <v>438</v>
       </c>
-      <c r="B3" t="s">
-        <v>442</v>
-      </c>
       <c r="C3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F3" t="s">
         <v>84</v>
@@ -5393,22 +5393,22 @@
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>447</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5520,16 +5520,16 @@
         <v>139</v>
       </c>
       <c r="G1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5572,7 +5572,7 @@
         <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5595,7 +5595,7 @@
         <v>68</v>
       </c>
       <c r="Q4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5612,7 +5612,7 @@
         <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -5629,7 +5629,7 @@
         <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -5646,7 +5646,7 @@
         <v>71</v>
       </c>
       <c r="Q7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5663,7 +5663,7 @@
         <v>72</v>
       </c>
       <c r="Q8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
@@ -5680,7 +5680,7 @@
         <v>73</v>
       </c>
       <c r="Q9" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -5697,7 +5697,7 @@
         <v>74</v>
       </c>
       <c r="Q10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -5837,103 +5837,103 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="22" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E3" t="s">
         <v>517</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>518</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>519</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>520</v>
-      </c>
-      <c r="E3" t="s">
-        <v>521</v>
-      </c>
-      <c r="F3" t="s">
-        <v>522</v>
-      </c>
-      <c r="G3" t="s">
-        <v>523</v>
-      </c>
-      <c r="H3" t="s">
-        <v>524</v>
       </c>
       <c r="I3" t="s">
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>530</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5973,48 +5973,48 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="22" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>673</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>674</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>675</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>676</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>677</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>680</v>
-      </c>
       <c r="L2" s="22" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -6022,7 +6022,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C3" t="s">
         <v>102</v>
@@ -6046,7 +6046,7 @@
         <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>127</v>
@@ -6060,43 +6060,43 @@
     </row>
     <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>355</v>
-      </c>
       <c r="J4" s="9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P4" s="9"/>
     </row>
@@ -6160,54 +6160,54 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="22" customFormat="1" ht="189.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="N2" s="22" t="s">
         <v>660</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="O2" s="22" t="s">
         <v>661</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>750</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>662</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>751</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>753</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>754</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>755</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>664</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>665</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6224,13 +6224,13 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
@@ -6262,49 +6262,49 @@
     </row>
     <row r="4" spans="1:18" s="9" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="L4" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6374,30 +6374,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -6425,25 +6425,25 @@
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6508,54 +6508,54 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>503</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -6586,66 +6586,66 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="22" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>764</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>765</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>766</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>767</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>768</v>
-      </c>
-      <c r="J2" s="22" t="s">
+      <c r="P2" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q2" s="22" t="s">
         <v>687</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="R2" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="S2" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>690</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>691</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>769</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>695</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>692</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>693</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -6718,61 +6718,61 @@
     </row>
     <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>393</v>
-      </c>
       <c r="S4" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -6827,121 +6827,121 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="22" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>773</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>774</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>775</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>776</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>777</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>108</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="F4" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>578</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -6976,54 +6976,54 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="22" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>693</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>697</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>696</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>779</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>780</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>699</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="M2" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="N2" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="O2" s="22" t="s">
         <v>702</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>703</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>704</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>705</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -7070,54 +7070,54 @@
         <v>124</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="G4" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="K4" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="M4" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>416</v>
-      </c>
       <c r="O4" s="13" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">

--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git_directory\excel2mmcif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tmp_excel2mmcif_working_directory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3072,7 +3072,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6572,9 +6572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6820,7 +6818,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6945,7 +6943,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1048576">
       <formula1>"Length of the shorter sequence, Number of aligned positions (including gaps), Number of aligned residue pairs (not including gaps), Arithmetic mean sequence length, Other"</formula1>
     </dataValidation>
@@ -6954,6 +6952,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576">
       <formula1>external_file_id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576">
+      <formula1>starting_model_id</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tmp_excel2mmcif_working_directory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git_directory\excel2mmcif\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2051,9 +2051,6 @@
     <t>Is the data deposited in a database? (yes/no)</t>
   </si>
   <si>
-    <t>An identifier used to connect to the external files given in the 'External_files' tab. Please give unique identifier here.</t>
-  </si>
-  <si>
     <t>What does the reference refer to? Please select.</t>
   </si>
   <si>
@@ -2147,9 +2144,6 @@
     <t>The dataset list ID (Tab 'Dataset')</t>
   </si>
   <si>
-    <t>How was the starting model obtained? (In case of 'comparative model', referes to Tab 'Starting_comparative_model')</t>
-  </si>
-  <si>
     <t>An ID for the step in the modeling protocol</t>
   </si>
   <si>
@@ -2553,6 +2547,12 @@
   </si>
   <si>
     <t>The fraction of bright molecules (cf. Hellenkamp et al. DOI: 10.1038/s41592-018-0085-0 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An identifier used to connect to the external files given in the 'External_files' tab. </t>
+  </si>
+  <si>
+    <t>How was the starting model obtained? (In case of 'comparative model', refers to Tab 'Starting_comparative_model')</t>
   </si>
 </sst>
 </file>
@@ -3072,19 +3072,19 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -3168,7 +3168,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="22" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
@@ -3176,37 +3176,37 @@
         <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>704</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>776</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>705</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>777</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>778</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>708</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>709</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>710</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -3330,7 +3330,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -3338,28 +3338,28 @@
         <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>712</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>713</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>780</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>714</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>715</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>716</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>781</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -3445,7 +3445,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
@@ -3453,34 +3453,34 @@
         <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>717</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>718</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E2" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>719</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>720</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>783</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>784</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>785</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>786</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>787</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>721</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -3611,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="22" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -3619,31 +3619,31 @@
         <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>787</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>788</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>723</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>789</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>790</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>724</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>725</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>726</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>727</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>728</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
   <sheetData>
     <row r="1" spans="1:114" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B1" s="26"/>
       <c r="E1" s="26"/>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="2" spans="1:114" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>147</v>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>165</v>
@@ -3956,10 +3956,10 @@
         <v>167</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L3" s="25" t="s">
         <v>168</v>
@@ -4139,23 +4139,23 @@
         <v>226</v>
       </c>
       <c r="BS3" s="24" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="BT3" s="24"/>
       <c r="BU3" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="BV3" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="BW3" s="24" t="s">
         <v>822</v>
-      </c>
-      <c r="BV3" s="24" t="s">
-        <v>823</v>
-      </c>
-      <c r="BW3" s="24" t="s">
-        <v>824</v>
       </c>
       <c r="BX3" s="24" t="s">
         <v>227</v>
       </c>
       <c r="BY3" s="24" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="BZ3" s="25" t="s">
         <v>228</v>
@@ -4509,37 +4509,37 @@
         <v>330</v>
       </c>
       <c r="CD4" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="CE4" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="CF4" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="CE4" s="15" t="s">
+      <c r="CG4" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="CF4" s="15" t="s">
+      <c r="CH4" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="CG4" s="15" t="s">
+      <c r="CI4" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="CH4" s="15" t="s">
+      <c r="CJ4" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="CI4" s="15" t="s">
+      <c r="CK4" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="CJ4" s="15" t="s">
+      <c r="CL4" s="15" t="s">
         <v>801</v>
       </c>
-      <c r="CK4" s="15" t="s">
+      <c r="CM4" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="CL4" s="15" t="s">
+      <c r="CN4" s="9" t="s">
         <v>803</v>
-      </c>
-      <c r="CM4" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="CN4" s="9" t="s">
-        <v>805</v>
       </c>
       <c r="CP4" s="16" t="s">
         <v>331</v>
@@ -5070,7 +5070,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="22" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
@@ -5078,13 +5078,13 @@
         <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>731</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>732</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -5166,7 +5166,7 @@
         <v>460</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>459</v>
@@ -5278,7 +5278,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="22" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -5286,13 +5286,13 @@
         <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5348,7 +5348,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="22" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -5356,19 +5356,19 @@
         <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>734</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>735</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>794</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>736</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -5837,7 +5837,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="22" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -5845,7 +5845,7 @@
         <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>651</v>
@@ -5973,7 +5973,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="22" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
@@ -5981,40 +5981,40 @@
         <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>668</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>670</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="M2" s="22" t="s">
         <v>755</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>671</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>672</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>674</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>675</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -6145,7 +6145,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6160,10 +6160,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="22" customFormat="1" ht="189.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="22" customFormat="1" ht="174" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>655</v>
       </c>
@@ -6171,43 +6171,43 @@
         <v>656</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>657</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>747</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>748</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="L2" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="M2" s="22" t="s">
         <v>658</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>750</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>751</v>
-      </c>
-      <c r="M2" s="22" t="s">
+      <c r="N2" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="O2" s="22" t="s">
         <v>660</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6374,7 +6374,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
@@ -6382,22 +6382,22 @@
         <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>662</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>758</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>664</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>665</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -6508,7 +6508,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -6572,7 +6572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6584,7 +6586,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="22" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -6592,58 +6594,58 @@
         <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>677</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>759</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="F2" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="H2" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>761</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="J2" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>762</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>763</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="N2" s="22" t="s">
+      <c r="P2" s="22" t="s">
+        <v>825</v>
+      </c>
+      <c r="Q2" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="O2" s="22" t="s">
-        <v>764</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>690</v>
-      </c>
-      <c r="Q2" s="22" t="s">
+      <c r="R2" s="22" t="s">
         <v>687</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="S2" s="22" t="s">
         <v>688</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -6833,37 +6835,37 @@
         <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>676</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>677</v>
-      </c>
       <c r="D2" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>768</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>771</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>772</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -6977,7 +6979,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="22" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
@@ -6985,46 +6987,46 @@
         <v>655</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>691</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>774</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>775</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>697</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="M2" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="N2" s="22" t="s">
         <v>699</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="O2" s="22" t="s">
         <v>700</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>701</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">

--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\HankeC\work\for_PDB\excel2mmcif\20191031_excel2mmcif_addition_of_lifetime_based_analysis\20191106_preparation_of_T4L_files\raw_files_for_excel2mmcif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\excel2mmcif_working_directory\tmp_directory_for_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="730" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="19" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="943">
   <si>
     <t>Model number</t>
   </si>
@@ -2896,6 +2896,15 @@
   </si>
   <si>
     <t>IHM_Dataset_top_directory</t>
+  </si>
+  <si>
+    <t>The external file ID (Tab 'External_files') if available</t>
+  </si>
+  <si>
+    <t>starting model external file id</t>
+  </si>
+  <si>
+    <t>IHM_Instance_Starting_model_external_file_id</t>
   </si>
 </sst>
 </file>
@@ -3714,7 +3723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -32418,9 +32427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33275,8 +33282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33350,6 +33357,9 @@
       <c r="S2" s="20" t="s">
         <v>687</v>
       </c>
+      <c r="T2" s="76" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="3" spans="1:28" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -33409,7 +33419,9 @@
       <c r="S3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>941</v>
+      </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -33477,6 +33489,9 @@
       <c r="S4" s="7" t="s">
         <v>393</v>
       </c>
+      <c r="T4" s="71" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D5" s="67"/>
@@ -33528,7 +33543,7 @@
       <c r="B13" s="66"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P1048576">
       <formula1>"comparative model, experimental model, integrative model, ab initio model, other"</formula1>
     </dataValidation>
@@ -33546,6 +33561,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576">
       <formula1>entity_id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T1048576">
+      <formula1>external_file_id</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -9,33 +9,34 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="730" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="19" r:id="rId1"/>
-    <sheet name="Citation" sheetId="14" r:id="rId2"/>
-    <sheet name="Entity" sheetId="1" r:id="rId3"/>
-    <sheet name="Dataset" sheetId="4" r:id="rId4"/>
-    <sheet name="External_files" sheetId="5" r:id="rId5"/>
-    <sheet name="Software" sheetId="13" r:id="rId6"/>
-    <sheet name="Instance" sheetId="3" r:id="rId7"/>
-    <sheet name="Starting_comparative_model" sheetId="16" r:id="rId8"/>
-    <sheet name="Modeling_protocol" sheetId="6" r:id="rId9"/>
-    <sheet name="Modeling_post_process" sheetId="15" r:id="rId10"/>
-    <sheet name="Multi-state modeling" sheetId="7" r:id="rId11"/>
-    <sheet name="Models" sheetId="2" r:id="rId12"/>
-    <sheet name="Ensemble Info" sheetId="17" r:id="rId13"/>
-    <sheet name="Reference_measurements" sheetId="20" r:id="rId14"/>
-    <sheet name="FLR" sheetId="8" r:id="rId15"/>
-    <sheet name="FLR_FPS_MPP_group" sheetId="18" r:id="rId16"/>
-    <sheet name="FLR_FPS_global_parameters" sheetId="12" r:id="rId17"/>
-    <sheet name="FLR_FRET_Model_distances" sheetId="10" r:id="rId18"/>
-    <sheet name="FLR_FRET_Model_quality" sheetId="11" r:id="rId19"/>
-    <sheet name="for_internal_use_only" sheetId="9" state="hidden" r:id="rId20"/>
+    <sheet name="General" sheetId="21" r:id="rId2"/>
+    <sheet name="Citation" sheetId="14" r:id="rId3"/>
+    <sheet name="Entity" sheetId="1" r:id="rId4"/>
+    <sheet name="Dataset" sheetId="4" r:id="rId5"/>
+    <sheet name="External_files" sheetId="5" r:id="rId6"/>
+    <sheet name="Software" sheetId="13" r:id="rId7"/>
+    <sheet name="Instance" sheetId="3" r:id="rId8"/>
+    <sheet name="Starting_comparative_model" sheetId="16" r:id="rId9"/>
+    <sheet name="Modeling_protocol" sheetId="6" r:id="rId10"/>
+    <sheet name="Modeling_post_process" sheetId="15" r:id="rId11"/>
+    <sheet name="Multi-state modeling" sheetId="7" r:id="rId12"/>
+    <sheet name="Models" sheetId="2" r:id="rId13"/>
+    <sheet name="Ensemble Info" sheetId="17" r:id="rId14"/>
+    <sheet name="Reference_measurements" sheetId="20" r:id="rId15"/>
+    <sheet name="FLR" sheetId="8" r:id="rId16"/>
+    <sheet name="FLR_FPS_MPP_group" sheetId="18" r:id="rId17"/>
+    <sheet name="FLR_FPS_global_parameters" sheetId="12" r:id="rId18"/>
+    <sheet name="FLR_FRET_Model_distances" sheetId="10" r:id="rId19"/>
+    <sheet name="FLR_FRET_Model_quality" sheetId="11" r:id="rId20"/>
+    <sheet name="for_internal_use_only" sheetId="9" state="hidden" r:id="rId21"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <definedNames>
     <definedName name="citation_id">Citation!$A$5:$A$1048576</definedName>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="947">
   <si>
     <t>Model number</t>
   </si>
@@ -2905,6 +2906,18 @@
   </si>
   <si>
     <t>IHM_Instance_Starting_model_external_file_id</t>
+  </si>
+  <si>
+    <t>Description the entry</t>
+  </si>
+  <si>
+    <t>Title of the entry</t>
+  </si>
+  <si>
+    <t>IHM_Struct_id</t>
+  </si>
+  <si>
+    <t>IHM_Struct_title</t>
   </si>
 </sst>
 </file>
@@ -3723,8 +3736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3809,6 +3822,185 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="20" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576">
+      <formula1>Software_id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576">
+      <formula1>Dataset_group_id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576">
+      <formula1>structure_assembly_id</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -3962,7 +4154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -4100,7 +4292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -4257,7 +4449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -4399,7 +4591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR82"/>
   <sheetViews>
@@ -7254,7 +7446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DR204"/>
   <sheetViews>
@@ -30857,7 +31049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -30947,7 +31139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
@@ -31179,7 +31371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -31249,7 +31441,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="B1" s="66"/>
+    </row>
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="66"/>
+      <c r="B3" s="66" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>945</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -31412,7 +31651,330 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -31535,330 +32097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" t="s">
-        <v>389</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K16" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K19" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K20" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K21" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
@@ -32177,7 +32416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
@@ -32423,7 +32662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H202"/>
   <sheetViews>
@@ -33105,7 +33344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
@@ -33278,11 +33517,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -33570,7 +33809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -33780,183 +34019,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="20" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>689</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>688</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>772</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>690</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>691</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>692</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>693</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>697</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>698</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O8" s="2"/>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576">
-      <formula1>Software_id</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576">
-      <formula1>Dataset_group_id</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576">
-      <formula1>structure_assembly_id</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\excel2mmcif_working_directory\excel2mmcif_20200227\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git_directory\excel2mmcif\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3760,7 +3760,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4618,8 +4618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT82"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4640,7 +4640,9 @@
     <col min="32" max="32" width="11" style="18" customWidth="1"/>
     <col min="33" max="35" width="11" customWidth="1"/>
     <col min="36" max="36" width="11" style="74" customWidth="1"/>
-    <col min="37" max="43" width="11" style="65" customWidth="1"/>
+    <col min="37" max="39" width="11" style="65" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="11" style="65" customWidth="1"/>
+    <col min="41" max="43" width="11" style="65" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="11" style="18" customWidth="1"/>
     <col min="45" max="57" width="11" customWidth="1"/>
     <col min="58" max="58" width="11" style="74" customWidth="1"/>
@@ -7398,8 +7400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DT204"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BD3" sqref="BD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7420,7 +7422,9 @@
     <col min="33" max="33" width="11" style="18" customWidth="1"/>
     <col min="34" max="36" width="11" customWidth="1"/>
     <col min="37" max="37" width="11" style="74" customWidth="1"/>
-    <col min="38" max="44" width="11" style="65" customWidth="1"/>
+    <col min="38" max="40" width="11" style="65" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="11" style="65" customWidth="1"/>
+    <col min="42" max="44" width="11" style="65" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="11" style="18" customWidth="1"/>
     <col min="46" max="58" width="11" customWidth="1"/>
     <col min="59" max="59" width="11" style="18" customWidth="1"/>

--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" tabRatio="730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" tabRatio="730" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="19" r:id="rId1"/>
@@ -3784,7 +3784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -32604,8 +32604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -32923,8 +32923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -33113,8 +33113,11 @@
       <c r="Q5" s="82"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R6" s="2"/>
+    <row r="6" spans="1:21" s="65" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="8"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="66"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F7" s="1"/>
@@ -33123,16 +33126,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L1048576 L5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576">
       <formula1>"Zenodo, Figshare, Crossref"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M1048576 M5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M1048576">
       <formula1>"DOI, Supplementary Files"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:O1048576 O5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576">
       <formula1>"File, Archive, Publication, Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G1048576 G5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1048576">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -33145,13 +33148,13 @@
           <x14:formula1>
             <xm:f>for_internal_use_only!$K$3:$K$22</xm:f>
           </x14:formula1>
-          <xm:sqref>F7:F1048576 F5</xm:sqref>
+          <xm:sqref>F5:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>for_internal_use_only!$L$3:$L$14</xm:f>
           </x14:formula1>
-          <xm:sqref>H5 H8:H1048576</xm:sqref>
+          <xm:sqref>H5:H6 H8:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\excel2mmcif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\excel2mmcif\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4D3A52-4E2D-49D5-B20F-A16C8CD6B750}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" tabRatio="730" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="10770" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="19" r:id="rId1"/>
@@ -1562,9 +1563,6 @@
     <t>IHM_Software_classification</t>
   </si>
   <si>
-    <t>IHM_software_description</t>
-  </si>
-  <si>
     <t>IHM_Software_location</t>
   </si>
   <si>
@@ -2966,13 +2964,16 @@
     <t>FLR_Poly_probe_position_acceptor_AsymUnit</t>
   </si>
   <si>
-    <t>Template version 1.5</t>
+    <t>IHM_Software_description</t>
+  </si>
+  <si>
+    <t>Template version 1.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3408,8 +3409,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3781,87 +3782,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -3870,72 +3871,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="17.19921875" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="20" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="20" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>677</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>676</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>759</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>678</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>679</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>680</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>681</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>682</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>683</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="20" t="s">
         <v>684</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="N2" s="20" t="s">
         <v>685</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>686</v>
       </c>
-      <c r="O2" s="20" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>387</v>
       </c>
@@ -4029,18 +4030,18 @@
         <v>439</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O8" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>Software_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>Dataset_group_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>structure_assembly_id</formula1>
     </dataValidation>
   </dataValidations>
@@ -4049,152 +4050,152 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="20" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" ht="156" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
+        <v>760</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>689</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>761</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>690</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>762</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>763</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>691</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>692</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>693</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>695</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B3" t="s">
         <v>529</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>530</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>531</v>
-      </c>
-      <c r="D3" t="s">
-        <v>532</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G3" t="s">
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1048576" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"cluster, filter, rescore, validation, other, none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"RMSD, dRMSD, energy/score, other, none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>Software_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576" xr:uid="{00000000-0002-0000-0A00-000003000000}">
       <formula1>Protocol_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0A00-000004000000}">
       <formula1>Dataset_group_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576" xr:uid="{00000000-0002-0000-0A00-000005000000}">
       <formula1>structure_assembly_id</formula1>
     </dataValidation>
   </dataValidations>
@@ -4203,61 +4204,61 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="21.69921875" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="9" max="9" width="13.69921875" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>697</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>698</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>905</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>699</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>701</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>906</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>766</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I3" t="s">
         <v>135</v>
@@ -4289,7 +4290,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>412</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>418</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>419</v>
@@ -4321,18 +4322,18 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" s="65"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" s="65"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>model_group_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>"Single molecule, Fraction of bulk"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4341,56 +4342,56 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="20" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>704</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="20" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>704</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>705</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>768</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>772</v>
-      </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>706</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4422,10 +4423,10 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>401</v>
       </c>
@@ -4457,39 +4458,39 @@
         <v>407</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1048576" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>structure_assembly_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>model_representation_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576" xr:uid="{00000000-0002-0000-0C00-000002000000}">
       <formula1>Protocol_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0C00-000003000000}">
       <formula1>model_selection_criteria</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0C00-000004000000}">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576" xr:uid="{00000000-0002-0000-0C00-000005000000}">
       <formula1>State_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0C00-000006000000}">
       <formula1>State_name</formula1>
     </dataValidation>
   </dataValidations>
@@ -4498,140 +4499,140 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
+        <v>774</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>708</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>774</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>709</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>710</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>711</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>712</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>713</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="109.2" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3" t="s">
         <v>581</v>
       </c>
-      <c r="B3" t="s">
-        <v>582</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>580</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1048576 H7:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1048576 H7:H1048576" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>external_file_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576" xr:uid="{00000000-0002-0000-0D00-000001000000}">
       <formula1>Post_process_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{00000000-0002-0000-0D00-000002000000}">
       <formula1>model_group_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576" xr:uid="{00000000-0002-0000-0D00-000003000000}">
       <formula1>"Hierarchical, Other, Partitioning (k-means)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0D00-000004000000}">
       <formula1>"RMSD, dRMSD, other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4640,16 +4641,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:BV82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="12" customWidth="1"/>
-    <col min="4" max="5" width="23.19921875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="12" customWidth="1"/>
+    <col min="4" max="5" width="23.25" style="12" customWidth="1"/>
     <col min="6" max="6" width="11" style="18" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11" style="18" customWidth="1"/>
@@ -4678,9 +4679,9 @@
     <col min="72" max="72" width="11" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="83" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:74" s="83" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F1" s="84"/>
       <c r="H1" s="84"/>
@@ -4693,12 +4694,12 @@
       <c r="BH1" s="84"/>
       <c r="BJ1" s="84"/>
       <c r="BT1" s="84" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="2" spans="1:74" s="16" customFormat="1" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" s="16" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>148</v>
@@ -4735,33 +4736,33 @@
       </c>
       <c r="BT2" s="17"/>
     </row>
-    <row r="3" spans="1:74" s="33" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:74" s="33" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>822</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>823</v>
-      </c>
       <c r="E3" s="77" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H3" s="77" t="s">
         <v>165</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>166</v>
@@ -4842,34 +4843,34 @@
         <v>191</v>
       </c>
       <c r="AJ3" s="77" t="s">
+        <v>927</v>
+      </c>
+      <c r="AK3" s="31" t="s">
         <v>928</v>
       </c>
-      <c r="AK3" s="31" t="s">
+      <c r="AL3" s="31" t="s">
         <v>929</v>
       </c>
-      <c r="AL3" s="31" t="s">
+      <c r="AM3" s="31" t="s">
         <v>930</v>
       </c>
-      <c r="AM3" s="31" t="s">
+      <c r="AN3" s="77" t="s">
         <v>931</v>
       </c>
-      <c r="AN3" s="77" t="s">
+      <c r="AO3" s="31" t="s">
         <v>932</v>
       </c>
-      <c r="AO3" s="31" t="s">
+      <c r="AP3" s="31" t="s">
         <v>933</v>
       </c>
-      <c r="AP3" s="31" t="s">
+      <c r="AQ3" s="31" t="s">
         <v>934</v>
-      </c>
-      <c r="AQ3" s="31" t="s">
-        <v>935</v>
       </c>
       <c r="AR3" s="77" t="s">
         <v>192</v>
       </c>
       <c r="AS3" s="31" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AT3" s="31" t="s">
         <v>193</v>
@@ -4893,7 +4894,7 @@
         <v>199</v>
       </c>
       <c r="BA3" s="31" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="BB3" s="31" t="s">
         <v>200</v>
@@ -4950,240 +4951,240 @@
         <v>217</v>
       </c>
       <c r="BT3" s="77" t="s">
+        <v>889</v>
+      </c>
+      <c r="BU3" s="31" t="s">
         <v>890</v>
       </c>
-      <c r="BU3" s="31" t="s">
+      <c r="BV3" s="33" t="s">
         <v>891</v>
       </c>
-      <c r="BV3" s="33" t="s">
+    </row>
+    <row r="4" spans="1:74" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="AB4" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="AH4" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="AI4" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="AJ4" s="72" t="s">
+        <v>943</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="AL4" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="AM4" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="AN4" s="72" t="s">
+        <v>947</v>
+      </c>
+      <c r="AO4" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="AP4" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="AQ4" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="AR4" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="AS4" s="72" t="s">
+        <v>954</v>
+      </c>
+      <c r="AT4" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="AU4" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="AV4" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="AW4" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="AX4" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="AY4" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="AZ4" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="BA4" s="72" t="s">
+        <v>956</v>
+      </c>
+      <c r="BB4" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="BC4" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="BD4" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="BE4" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="BF4" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="BG4" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="BH4" s="72" t="s">
+        <v>875</v>
+      </c>
+      <c r="BI4" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="BJ4" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="BK4" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="BL4" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="BM4" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="BN4" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="BO4" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="BP4" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="BQ4" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="BR4" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="BS4" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="BT4" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="BU4" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="BV4" s="13" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="4" spans="1:74" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>830</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>895</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>828</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>829</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>903</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>827</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>833</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>835</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>836</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>837</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>840</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>841</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>842</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>843</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>844</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>847</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>848</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>850</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>851</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>852</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>853</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>854</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>855</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>856</v>
-      </c>
-      <c r="AE4" s="13" t="s">
-        <v>857</v>
-      </c>
-      <c r="AF4" s="14" t="s">
-        <v>858</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>859</v>
-      </c>
-      <c r="AH4" s="13" t="s">
-        <v>860</v>
-      </c>
-      <c r="AI4" s="13" t="s">
-        <v>861</v>
-      </c>
-      <c r="AJ4" s="72" t="s">
-        <v>944</v>
-      </c>
-      <c r="AK4" s="13" t="s">
-        <v>945</v>
-      </c>
-      <c r="AL4" s="13" t="s">
-        <v>946</v>
-      </c>
-      <c r="AM4" s="13" t="s">
-        <v>947</v>
-      </c>
-      <c r="AN4" s="72" t="s">
-        <v>948</v>
-      </c>
-      <c r="AO4" s="13" t="s">
-        <v>949</v>
-      </c>
-      <c r="AP4" s="13" t="s">
-        <v>950</v>
-      </c>
-      <c r="AQ4" s="13" t="s">
-        <v>951</v>
-      </c>
-      <c r="AR4" s="14" t="s">
-        <v>862</v>
-      </c>
-      <c r="AS4" s="72" t="s">
-        <v>955</v>
-      </c>
-      <c r="AT4" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="AU4" s="13" t="s">
-        <v>864</v>
-      </c>
-      <c r="AV4" s="13" t="s">
-        <v>865</v>
-      </c>
-      <c r="AW4" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="AX4" s="13" t="s">
-        <v>867</v>
-      </c>
-      <c r="AY4" s="13" t="s">
-        <v>868</v>
-      </c>
-      <c r="AZ4" s="13" t="s">
-        <v>869</v>
-      </c>
-      <c r="BA4" s="72" t="s">
-        <v>957</v>
-      </c>
-      <c r="BB4" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="BC4" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="BD4" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="BE4" s="13" t="s">
-        <v>873</v>
-      </c>
-      <c r="BF4" s="13" t="s">
-        <v>874</v>
-      </c>
-      <c r="BG4" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="BH4" s="72" t="s">
-        <v>876</v>
-      </c>
-      <c r="BI4" s="13" t="s">
-        <v>877</v>
-      </c>
-      <c r="BJ4" s="14" t="s">
-        <v>878</v>
-      </c>
-      <c r="BK4" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="BL4" s="13" t="s">
-        <v>880</v>
-      </c>
-      <c r="BM4" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="BN4" s="13" t="s">
-        <v>882</v>
-      </c>
-      <c r="BO4" s="13" t="s">
-        <v>883</v>
-      </c>
-      <c r="BP4" s="13" t="s">
-        <v>884</v>
-      </c>
-      <c r="BQ4" s="13" t="s">
-        <v>885</v>
-      </c>
-      <c r="BR4" s="13" t="s">
-        <v>886</v>
-      </c>
-      <c r="BS4" s="13" t="s">
-        <v>887</v>
-      </c>
-      <c r="BT4" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="BU4" s="14" t="s">
-        <v>889</v>
-      </c>
-      <c r="BV4" s="13" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B5" s="56"/>
       <c r="G5" s="65"/>
       <c r="J5" s="56"/>
@@ -5244,7 +5245,7 @@
       <c r="BS5" s="5"/>
       <c r="BU5" s="43"/>
     </row>
-    <row r="6" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="56"/>
       <c r="C6" s="71"/>
       <c r="D6" s="71"/>
@@ -5311,7 +5312,7 @@
       <c r="BT6" s="74"/>
       <c r="BU6" s="78"/>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B7" s="56"/>
       <c r="E7" s="71"/>
       <c r="G7" s="65"/>
@@ -5374,7 +5375,7 @@
       <c r="BS7" s="5"/>
       <c r="BU7" s="43"/>
     </row>
-    <row r="8" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="56"/>
       <c r="C8" s="71"/>
       <c r="D8" s="71"/>
@@ -5441,7 +5442,7 @@
       <c r="BT8" s="74"/>
       <c r="BU8" s="78"/>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="B9" s="56"/>
       <c r="E9" s="71"/>
@@ -5507,7 +5508,7 @@
       <c r="BS9" s="5"/>
       <c r="BU9" s="43"/>
     </row>
-    <row r="10" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="56"/>
       <c r="C10" s="71"/>
       <c r="D10" s="71"/>
@@ -5577,7 +5578,7 @@
       <c r="BT10" s="74"/>
       <c r="BU10" s="78"/>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="B11" s="56"/>
       <c r="E11" s="71"/>
@@ -5606,7 +5607,7 @@
       <c r="BP11" s="5"/>
       <c r="BU11" s="43"/>
     </row>
-    <row r="12" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="56"/>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
@@ -5639,7 +5640,7 @@
       <c r="BT12" s="74"/>
       <c r="BU12" s="78"/>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="56"/>
       <c r="E13" s="71"/>
@@ -5668,7 +5669,7 @@
       <c r="BP13" s="5"/>
       <c r="BU13" s="43"/>
     </row>
-    <row r="14" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="56"/>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -5701,7 +5702,7 @@
       <c r="BT14" s="74"/>
       <c r="BU14" s="78"/>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="B15" s="56"/>
       <c r="E15" s="71"/>
@@ -5730,7 +5731,7 @@
       <c r="BP15" s="5"/>
       <c r="BU15" s="43"/>
     </row>
-    <row r="16" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="56"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
@@ -5763,7 +5764,7 @@
       <c r="BT16" s="74"/>
       <c r="BU16" s="78"/>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
       <c r="B17" s="56"/>
       <c r="E17" s="71"/>
@@ -5792,7 +5793,7 @@
       <c r="BP17" s="5"/>
       <c r="BU17" s="43"/>
     </row>
-    <row r="18" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="56"/>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
@@ -5825,7 +5826,7 @@
       <c r="BT18" s="74"/>
       <c r="BU18" s="78"/>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A19" s="65"/>
       <c r="B19" s="56"/>
       <c r="E19" s="71"/>
@@ -5854,7 +5855,7 @@
       <c r="BP19" s="5"/>
       <c r="BU19" s="43"/>
     </row>
-    <row r="20" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="56"/>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
@@ -5887,7 +5888,7 @@
       <c r="BT20" s="74"/>
       <c r="BU20" s="78"/>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
       <c r="B21" s="56"/>
       <c r="E21" s="71"/>
@@ -5916,7 +5917,7 @@
       <c r="BP21" s="5"/>
       <c r="BU21" s="43"/>
     </row>
-    <row r="22" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="56"/>
       <c r="C22" s="71"/>
       <c r="D22" s="71"/>
@@ -5949,7 +5950,7 @@
       <c r="BT22" s="74"/>
       <c r="BU22" s="78"/>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
       <c r="B23" s="56"/>
       <c r="C23"/>
@@ -5979,7 +5980,7 @@
       <c r="BP23" s="5"/>
       <c r="BU23" s="43"/>
     </row>
-    <row r="24" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="56"/>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
@@ -6011,7 +6012,7 @@
       <c r="BT24" s="74"/>
       <c r="BU24" s="78"/>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A25" s="65"/>
       <c r="B25" s="56"/>
       <c r="C25"/>
@@ -6041,7 +6042,7 @@
       <c r="BP25" s="5"/>
       <c r="BU25" s="43"/>
     </row>
-    <row r="26" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="56"/>
       <c r="D26" s="71"/>
       <c r="E26" s="71"/>
@@ -6073,7 +6074,7 @@
       <c r="BT26" s="74"/>
       <c r="BU26" s="78"/>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A27" s="65"/>
       <c r="B27" s="56"/>
       <c r="C27"/>
@@ -6103,7 +6104,7 @@
       <c r="BP27" s="5"/>
       <c r="BU27" s="43"/>
     </row>
-    <row r="28" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="56"/>
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
@@ -6135,7 +6136,7 @@
       <c r="BT28" s="74"/>
       <c r="BU28" s="78"/>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A29" s="65"/>
       <c r="B29" s="56"/>
       <c r="C29"/>
@@ -6165,7 +6166,7 @@
       <c r="BP29" s="5"/>
       <c r="BU29" s="43"/>
     </row>
-    <row r="30" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="56"/>
       <c r="D30" s="71"/>
       <c r="E30" s="71"/>
@@ -6197,7 +6198,7 @@
       <c r="BT30" s="74"/>
       <c r="BU30" s="78"/>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A31" s="65"/>
       <c r="B31" s="56"/>
       <c r="C31"/>
@@ -6227,7 +6228,7 @@
       <c r="BP31" s="5"/>
       <c r="BU31" s="43"/>
     </row>
-    <row r="32" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="56"/>
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
@@ -6259,7 +6260,7 @@
       <c r="BT32" s="74"/>
       <c r="BU32" s="78"/>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A33" s="65"/>
       <c r="B33" s="56"/>
       <c r="C33"/>
@@ -6289,7 +6290,7 @@
       <c r="BP33" s="5"/>
       <c r="BU33" s="43"/>
     </row>
-    <row r="34" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="56"/>
       <c r="D34" s="71"/>
       <c r="E34" s="71"/>
@@ -6321,7 +6322,7 @@
       <c r="BT34" s="74"/>
       <c r="BU34" s="78"/>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A35" s="65"/>
       <c r="B35" s="56"/>
       <c r="C35"/>
@@ -6351,7 +6352,7 @@
       <c r="BP35" s="5"/>
       <c r="BU35" s="43"/>
     </row>
-    <row r="36" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="56"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
@@ -6383,7 +6384,7 @@
       <c r="BT36" s="74"/>
       <c r="BU36" s="78"/>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A37" s="65"/>
       <c r="B37" s="56"/>
       <c r="C37"/>
@@ -6413,7 +6414,7 @@
       <c r="BP37" s="5"/>
       <c r="BU37" s="43"/>
     </row>
-    <row r="38" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="56"/>
       <c r="D38" s="71"/>
       <c r="E38" s="71"/>
@@ -6445,7 +6446,7 @@
       <c r="BT38" s="74"/>
       <c r="BU38" s="78"/>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A39" s="65"/>
       <c r="B39" s="56"/>
       <c r="C39"/>
@@ -6475,7 +6476,7 @@
       <c r="BP39" s="5"/>
       <c r="BU39" s="43"/>
     </row>
-    <row r="40" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="56"/>
       <c r="D40" s="71"/>
       <c r="E40" s="71"/>
@@ -6507,7 +6508,7 @@
       <c r="BT40" s="74"/>
       <c r="BU40" s="78"/>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A41" s="65"/>
       <c r="B41" s="56"/>
       <c r="C41"/>
@@ -6537,7 +6538,7 @@
       <c r="BP41" s="5"/>
       <c r="BU41" s="43"/>
     </row>
-    <row r="42" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="56"/>
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
@@ -6569,7 +6570,7 @@
       <c r="BT42" s="74"/>
       <c r="BU42" s="78"/>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A43" s="65"/>
       <c r="B43" s="56"/>
       <c r="C43"/>
@@ -6599,7 +6600,7 @@
       <c r="BP43" s="5"/>
       <c r="BU43" s="43"/>
     </row>
-    <row r="44" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="56"/>
       <c r="D44" s="71"/>
       <c r="E44" s="71"/>
@@ -6631,7 +6632,7 @@
       <c r="BT44" s="74"/>
       <c r="BU44" s="78"/>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A45" s="65"/>
       <c r="B45" s="56"/>
       <c r="C45"/>
@@ -6661,7 +6662,7 @@
       <c r="BP45" s="5"/>
       <c r="BU45" s="43"/>
     </row>
-    <row r="46" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="56"/>
       <c r="D46" s="71"/>
       <c r="E46" s="71"/>
@@ -6693,7 +6694,7 @@
       <c r="BT46" s="74"/>
       <c r="BU46" s="78"/>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A47" s="65"/>
       <c r="B47" s="56"/>
       <c r="C47"/>
@@ -6723,7 +6724,7 @@
       <c r="BP47" s="5"/>
       <c r="BU47" s="43"/>
     </row>
-    <row r="48" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="56"/>
       <c r="D48" s="71"/>
       <c r="E48" s="71"/>
@@ -6755,7 +6756,7 @@
       <c r="BT48" s="74"/>
       <c r="BU48" s="78"/>
     </row>
-    <row r="49" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A49" s="65"/>
       <c r="B49" s="56"/>
       <c r="C49"/>
@@ -6785,7 +6786,7 @@
       <c r="BP49" s="5"/>
       <c r="BU49" s="43"/>
     </row>
-    <row r="50" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="56"/>
       <c r="D50" s="71"/>
       <c r="E50" s="71"/>
@@ -6817,7 +6818,7 @@
       <c r="BT50" s="74"/>
       <c r="BU50" s="78"/>
     </row>
-    <row r="51" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A51" s="65"/>
       <c r="B51" s="56"/>
       <c r="C51"/>
@@ -6847,7 +6848,7 @@
       <c r="BP51" s="5"/>
       <c r="BU51" s="43"/>
     </row>
-    <row r="52" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="56"/>
       <c r="D52" s="71"/>
       <c r="E52" s="71"/>
@@ -6879,7 +6880,7 @@
       <c r="BT52" s="74"/>
       <c r="BU52" s="78"/>
     </row>
-    <row r="53" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A53" s="65"/>
       <c r="B53" s="56"/>
       <c r="C53"/>
@@ -6909,7 +6910,7 @@
       <c r="BP53" s="5"/>
       <c r="BU53" s="43"/>
     </row>
-    <row r="54" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="56"/>
       <c r="D54" s="71"/>
       <c r="E54" s="71"/>
@@ -6941,7 +6942,7 @@
       <c r="BT54" s="74"/>
       <c r="BU54" s="78"/>
     </row>
-    <row r="55" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A55" s="65"/>
       <c r="B55" s="56"/>
       <c r="C55"/>
@@ -6971,7 +6972,7 @@
       <c r="BP55" s="5"/>
       <c r="BU55" s="43"/>
     </row>
-    <row r="56" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="56"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
@@ -7003,7 +7004,7 @@
       <c r="BT56" s="74"/>
       <c r="BU56" s="78"/>
     </row>
-    <row r="57" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A57" s="65"/>
       <c r="B57" s="56"/>
       <c r="C57"/>
@@ -7033,7 +7034,7 @@
       <c r="BP57" s="5"/>
       <c r="BU57" s="43"/>
     </row>
-    <row r="58" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="56"/>
       <c r="D58" s="71"/>
       <c r="E58" s="71"/>
@@ -7065,7 +7066,7 @@
       <c r="BT58" s="74"/>
       <c r="BU58" s="78"/>
     </row>
-    <row r="59" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A59" s="65"/>
       <c r="B59" s="56"/>
       <c r="C59"/>
@@ -7095,7 +7096,7 @@
       <c r="BP59" s="5"/>
       <c r="BU59" s="43"/>
     </row>
-    <row r="60" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="56"/>
       <c r="D60" s="71"/>
       <c r="E60" s="71"/>
@@ -7127,7 +7128,7 @@
       <c r="BT60" s="74"/>
       <c r="BU60" s="78"/>
     </row>
-    <row r="61" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A61" s="65"/>
       <c r="B61" s="56"/>
       <c r="C61"/>
@@ -7157,7 +7158,7 @@
       <c r="BP61" s="5"/>
       <c r="BU61" s="43"/>
     </row>
-    <row r="62" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="56"/>
       <c r="D62" s="71"/>
       <c r="E62" s="71"/>
@@ -7189,7 +7190,7 @@
       <c r="BT62" s="74"/>
       <c r="BU62" s="78"/>
     </row>
-    <row r="63" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A63" s="65"/>
       <c r="B63" s="56"/>
       <c r="C63"/>
@@ -7219,7 +7220,7 @@
       <c r="BP63" s="5"/>
       <c r="BU63" s="43"/>
     </row>
-    <row r="64" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="56"/>
       <c r="D64" s="71"/>
       <c r="E64" s="71"/>
@@ -7251,7 +7252,7 @@
       <c r="BT64" s="74"/>
       <c r="BU64" s="78"/>
     </row>
-    <row r="65" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A65" s="65"/>
       <c r="B65" s="56"/>
       <c r="C65"/>
@@ -7281,7 +7282,7 @@
       <c r="BP65" s="5"/>
       <c r="BU65" s="43"/>
     </row>
-    <row r="66" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="56"/>
       <c r="D66" s="71"/>
       <c r="E66" s="71"/>
@@ -7313,7 +7314,7 @@
       <c r="BT66" s="74"/>
       <c r="BU66" s="78"/>
     </row>
-    <row r="67" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A67" s="65"/>
       <c r="B67" s="56"/>
       <c r="C67"/>
@@ -7343,7 +7344,7 @@
       <c r="BP67" s="5"/>
       <c r="BU67" s="43"/>
     </row>
-    <row r="68" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="56"/>
       <c r="D68" s="71"/>
       <c r="E68" s="71"/>
@@ -7375,7 +7376,7 @@
       <c r="BT68" s="74"/>
       <c r="BU68" s="78"/>
     </row>
-    <row r="69" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A69" s="65"/>
       <c r="B69" s="56"/>
       <c r="C69"/>
@@ -7405,7 +7406,7 @@
       <c r="BP69" s="5"/>
       <c r="BU69" s="43"/>
     </row>
-    <row r="70" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="56"/>
       <c r="D70" s="71"/>
       <c r="E70" s="71"/>
@@ -7437,71 +7438,71 @@
       <c r="BT70" s="74"/>
       <c r="BU70" s="78"/>
     </row>
-    <row r="71" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y71" s="69"/>
       <c r="BK71" s="63"/>
     </row>
-    <row r="72" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y72" s="69"/>
       <c r="BK72" s="64"/>
     </row>
-    <row r="73" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y73" s="69"/>
     </row>
-    <row r="74" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y74" s="69"/>
     </row>
-    <row r="75" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y75" s="69"/>
     </row>
-    <row r="76" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y76" s="69"/>
     </row>
-    <row r="77" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y77" s="69"/>
     </row>
-    <row r="78" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y78" s="69"/>
     </row>
-    <row r="79" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y79" s="69"/>
     </row>
-    <row r="80" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y80" s="69"/>
     </row>
-    <row r="81" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y81" s="69"/>
     </row>
-    <row r="82" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y82" s="69"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>Entity_assembly_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>"liquid,vitrified,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE5:BF10 BR5:BR10 AW5:AX70 BP5:BP70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE5:BF10 BR5:BR10 AW5:AX70 BP5:BP70" xr:uid="{00000000-0002-0000-0E00-000002000000}">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR5:AR70 AZ5:AZ10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR5:AR70 AZ5:AZ10" xr:uid="{00000000-0002-0000-0E00-000003000000}">
       <formula1>entity_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N70 Q5:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N70 Q5:Q1048576" xr:uid="{00000000-0002-0000-0E00-000004000000}">
       <formula1>"covalent,ligand"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M70 P5:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M70 P5:P1048576" xr:uid="{00000000-0002-0000-0E00-000005000000}">
       <formula1>"extrinsic,instrinsic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN5:AN1048576 AJ5:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN5:AN1048576 AJ5:AJ1048576" xr:uid="{00000000-0002-0000-0E00-000006000000}">
       <formula1>"ALA,ARG,ASN,ASP,CYS,GLU,GLN,GLY,HIS,ILE,LEU,LYS,MET,PHE,PRO,SER,THR,TRP,TYR,VAL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM5:AM1048576 AQ5:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM5:AM1048576 AQ5:AQ1048576" xr:uid="{00000000-0002-0000-0E00-000007000000}">
       <formula1>"Peptide linking,L-peptide linking,D-peptide linking,DNA linking,RNA linking"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS5:AS1048576 BA5:BA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS5:AS1048576 BA5:BA1048576" xr:uid="{00000000-0002-0000-0E00-000008000000}">
       <formula1>Instance_chain_id</formula1>
     </dataValidation>
   </dataValidations>
@@ -7510,19 +7511,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:DV204"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="11" style="18"/>
     <col min="3" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="11" style="18" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.8984375" style="57" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="57" customWidth="1"/>
     <col min="8" max="10" width="11" customWidth="1"/>
     <col min="11" max="12" width="11" style="32" customWidth="1"/>
     <col min="13" max="13" width="11" style="18" customWidth="1"/>
@@ -7567,9 +7568,9 @@
     <col min="127" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:126" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B1" s="24"/>
       <c r="E1" s="24"/>
@@ -7579,7 +7580,7 @@
       <c r="Y1" s="24"/>
       <c r="AG1" s="24"/>
       <c r="AK1" s="76" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AS1" s="24"/>
       <c r="AT1" s="30"/>
@@ -7588,10 +7589,10 @@
       <c r="BU1" s="24"/>
       <c r="BW1" s="26"/>
       <c r="BX1" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="CF1" s="38" t="s">
         <v>813</v>
-      </c>
-      <c r="CF1" s="38" t="s">
-        <v>814</v>
       </c>
       <c r="CG1" s="39"/>
       <c r="CH1" s="39"/>
@@ -7605,9 +7606,9 @@
       <c r="DN1" s="24"/>
       <c r="DV1" s="24"/>
     </row>
-    <row r="2" spans="1:126" s="7" customFormat="1" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:126" s="7" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>147</v>
@@ -7709,7 +7710,7 @@
       </c>
       <c r="BV2" s="16"/>
       <c r="BW2" s="27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="BX2" s="17" t="s">
         <v>160</v>
@@ -7722,13 +7723,13 @@
       <c r="CD2" s="16"/>
       <c r="CE2" s="16"/>
       <c r="CF2" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="CG2" s="16"/>
       <c r="CH2" s="16"/>
       <c r="CI2" s="16"/>
       <c r="CJ2" s="16" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="CK2" s="35"/>
       <c r="CL2" s="16" t="s">
@@ -7766,46 +7767,46 @@
       <c r="DL2" s="16"/>
       <c r="DM2" s="16"/>
       <c r="DN2" s="19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="DV2" s="19"/>
     </row>
-    <row r="3" spans="1:126" s="21" customFormat="1" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:126" s="21" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>165</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G3" s="54" t="s">
         <v>166</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>167</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K3" s="22" t="s">
+        <v>823</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>824</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>825</v>
       </c>
       <c r="M3" s="23" t="s">
         <v>168</v>
@@ -7880,46 +7881,46 @@
         <v>191</v>
       </c>
       <c r="AK3" s="23" t="s">
+        <v>927</v>
+      </c>
+      <c r="AL3" s="22" t="s">
         <v>928</v>
       </c>
-      <c r="AL3" s="22" t="s">
+      <c r="AM3" s="22" t="s">
         <v>929</v>
       </c>
-      <c r="AM3" s="22" t="s">
+      <c r="AN3" s="22" t="s">
         <v>930</v>
       </c>
-      <c r="AN3" s="22" t="s">
+      <c r="AO3" s="22" t="s">
         <v>931</v>
       </c>
-      <c r="AO3" s="22" t="s">
+      <c r="AP3" s="22" t="s">
         <v>932</v>
       </c>
-      <c r="AP3" s="22" t="s">
+      <c r="AQ3" s="22" t="s">
         <v>933</v>
       </c>
-      <c r="AQ3" s="22" t="s">
+      <c r="AR3" s="22" t="s">
         <v>934</v>
-      </c>
-      <c r="AR3" s="22" t="s">
-        <v>935</v>
       </c>
       <c r="AS3" s="23" t="s">
         <v>192</v>
       </c>
       <c r="AT3" s="22" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AU3" s="22" t="s">
         <v>193</v>
       </c>
       <c r="AV3" s="22" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AW3" s="22" t="s">
         <v>195</v>
       </c>
       <c r="AX3" s="22" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AY3" s="22" t="s">
         <v>197</v>
@@ -7931,19 +7932,19 @@
         <v>199</v>
       </c>
       <c r="BB3" s="22" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="BC3" s="22" t="s">
         <v>200</v>
       </c>
       <c r="BD3" s="22" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="BE3" s="22" t="s">
         <v>202</v>
       </c>
       <c r="BF3" s="22" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="BG3" s="22" t="s">
         <v>204</v>
@@ -7994,44 +7995,44 @@
         <v>219</v>
       </c>
       <c r="BW3" s="28" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="BX3" s="23" t="s">
         <v>220</v>
       </c>
       <c r="BY3" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="BZ3" s="22"/>
       <c r="CA3" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="CB3" s="22" t="s">
         <v>805</v>
       </c>
-      <c r="CB3" s="22" t="s">
+      <c r="CC3" s="22" t="s">
         <v>806</v>
-      </c>
-      <c r="CC3" s="22" t="s">
-        <v>807</v>
       </c>
       <c r="CD3" s="22" t="s">
         <v>221</v>
       </c>
       <c r="CE3" s="22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="CF3" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="CG3" s="22" t="s">
         <v>817</v>
       </c>
-      <c r="CG3" s="22" t="s">
+      <c r="CH3" s="22" t="s">
         <v>818</v>
       </c>
-      <c r="CH3" s="22" t="s">
+      <c r="CI3" s="22" t="s">
         <v>819</v>
       </c>
-      <c r="CI3" s="22" t="s">
-        <v>820</v>
-      </c>
       <c r="CJ3" s="22" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="CK3" s="41"/>
       <c r="CL3" s="22" t="s">
@@ -8116,32 +8117,32 @@
         <v>244</v>
       </c>
       <c r="DN3" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="DO3" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="DO3" s="22" t="s">
+      <c r="DP3" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="DP3" s="22" t="s">
+      <c r="DQ3" s="22" t="s">
         <v>608</v>
       </c>
-      <c r="DQ3" s="22" t="s">
+      <c r="DR3" s="22" t="s">
         <v>609</v>
       </c>
-      <c r="DR3" s="22" t="s">
+      <c r="DS3" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="DS3" s="22" t="s">
+      <c r="DT3" s="22" t="s">
         <v>611</v>
       </c>
-      <c r="DT3" s="22" t="s">
+      <c r="DU3" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="DU3" s="22" t="s">
-        <v>613</v>
-      </c>
       <c r="DV3" s="24"/>
     </row>
-    <row r="4" spans="1:126" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:126" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>245</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>251</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>252</v>
@@ -8173,10 +8174,10 @@
         <v>253</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>254</v>
@@ -8251,34 +8252,34 @@
         <v>277</v>
       </c>
       <c r="AK4" s="72" t="s">
+        <v>935</v>
+      </c>
+      <c r="AL4" s="13" t="s">
         <v>936</v>
       </c>
-      <c r="AL4" s="13" t="s">
+      <c r="AM4" s="13" t="s">
         <v>937</v>
       </c>
-      <c r="AM4" s="13" t="s">
+      <c r="AN4" s="13" t="s">
         <v>938</v>
       </c>
-      <c r="AN4" s="13" t="s">
+      <c r="AO4" s="72" t="s">
         <v>939</v>
       </c>
-      <c r="AO4" s="72" t="s">
+      <c r="AP4" s="13" t="s">
         <v>940</v>
       </c>
-      <c r="AP4" s="13" t="s">
+      <c r="AQ4" s="13" t="s">
         <v>941</v>
       </c>
-      <c r="AQ4" s="13" t="s">
+      <c r="AR4" s="13" t="s">
         <v>942</v>
-      </c>
-      <c r="AR4" s="13" t="s">
-        <v>943</v>
       </c>
       <c r="AS4" s="14" t="s">
         <v>278</v>
       </c>
       <c r="AT4" s="72" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AU4" s="13" t="s">
         <v>279</v>
@@ -8302,7 +8303,7 @@
         <v>285</v>
       </c>
       <c r="BB4" s="72" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="BC4" s="13" t="s">
         <v>286</v>
@@ -8365,7 +8366,7 @@
         <v>305</v>
       </c>
       <c r="BW4" s="29" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="BX4" s="14" t="s">
         <v>306</v>
@@ -8392,19 +8393,19 @@
         <v>313</v>
       </c>
       <c r="CF4" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="CG4" s="13" t="s">
         <v>898</v>
       </c>
-      <c r="CG4" s="13" t="s">
+      <c r="CH4" s="13" t="s">
         <v>899</v>
       </c>
-      <c r="CH4" s="13" t="s">
+      <c r="CI4" s="13" t="s">
         <v>900</v>
       </c>
-      <c r="CI4" s="13" t="s">
-        <v>901</v>
-      </c>
       <c r="CJ4" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="CK4" s="34"/>
       <c r="CL4" s="13" t="s">
@@ -8420,37 +8421,37 @@
         <v>317</v>
       </c>
       <c r="CP4" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="CQ4" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="CQ4" s="13" t="s">
+      <c r="CR4" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="CR4" s="13" t="s">
+      <c r="CS4" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="CS4" s="13" t="s">
+      <c r="CT4" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="CT4" s="13" t="s">
+      <c r="CU4" s="13" t="s">
         <v>784</v>
       </c>
-      <c r="CU4" s="13" t="s">
+      <c r="CV4" s="13" t="s">
         <v>785</v>
       </c>
-      <c r="CV4" s="13" t="s">
+      <c r="CW4" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="CW4" s="13" t="s">
+      <c r="CX4" s="13" t="s">
         <v>787</v>
       </c>
-      <c r="CX4" s="13" t="s">
+      <c r="CY4" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="CY4" s="13" t="s">
+      <c r="CZ4" s="7" t="s">
         <v>789</v>
-      </c>
-      <c r="CZ4" s="7" t="s">
-        <v>790</v>
       </c>
       <c r="DB4" s="14" t="s">
         <v>318</v>
@@ -8489,32 +8490,32 @@
         <v>329</v>
       </c>
       <c r="DN4" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="DO4" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="DO4" s="7" t="s">
+      <c r="DP4" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="DP4" s="7" t="s">
+      <c r="DQ4" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="DQ4" s="7" t="s">
+      <c r="DR4" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="DR4" s="15" t="s">
+      <c r="DS4" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="DS4" s="7" t="s">
+      <c r="DT4" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="DT4" s="7" t="s">
+      <c r="DU4" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="DU4" s="7" t="s">
-        <v>621</v>
-      </c>
       <c r="DV4" s="19"/>
     </row>
-    <row r="5" spans="1:126" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:126" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -8629,7 +8630,7 @@
       <c r="DL5" s="5"/>
       <c r="DM5" s="5"/>
     </row>
-    <row r="6" spans="1:126" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:126" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -8745,7 +8746,7 @@
       <c r="DL6" s="5"/>
       <c r="DM6" s="5"/>
     </row>
-    <row r="7" spans="1:126" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:126" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -8861,7 +8862,7 @@
       <c r="DL7" s="5"/>
       <c r="DM7" s="5"/>
     </row>
-    <row r="8" spans="1:126" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:126" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -8977,7 +8978,7 @@
       <c r="DL8" s="5"/>
       <c r="DM8" s="5"/>
     </row>
-    <row r="9" spans="1:126" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:126" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -9093,7 +9094,7 @@
       <c r="DL9" s="5"/>
       <c r="DM9" s="5"/>
     </row>
-    <row r="10" spans="1:126" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:126" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -9209,7 +9210,7 @@
       <c r="DL10" s="5"/>
       <c r="DM10" s="5"/>
     </row>
-    <row r="11" spans="1:126" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:126" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -9325,7 +9326,7 @@
       <c r="DL11" s="5"/>
       <c r="DM11" s="5"/>
     </row>
-    <row r="12" spans="1:126" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:126" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -9441,7 +9442,7 @@
       <c r="DL12" s="5"/>
       <c r="DM12" s="5"/>
     </row>
-    <row r="13" spans="1:126" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:126" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -9557,7 +9558,7 @@
       <c r="DL13" s="5"/>
       <c r="DM13" s="5"/>
     </row>
-    <row r="14" spans="1:126" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:126" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -9673,7 +9674,7 @@
       <c r="DL14" s="5"/>
       <c r="DM14" s="5"/>
     </row>
-    <row r="15" spans="1:126" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:126" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -9789,7 +9790,7 @@
       <c r="DL15" s="5"/>
       <c r="DM15" s="5"/>
     </row>
-    <row r="16" spans="1:126" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:126" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -9905,7 +9906,7 @@
       <c r="DL16" s="5"/>
       <c r="DM16" s="5"/>
     </row>
-    <row r="17" spans="1:117" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:117" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -10021,7 +10022,7 @@
       <c r="DL17" s="5"/>
       <c r="DM17" s="5"/>
     </row>
-    <row r="18" spans="1:117" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:117" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -10137,7 +10138,7 @@
       <c r="DL18" s="5"/>
       <c r="DM18" s="5"/>
     </row>
-    <row r="19" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -10253,7 +10254,7 @@
       <c r="DL19" s="5"/>
       <c r="DM19" s="5"/>
     </row>
-    <row r="20" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -10369,7 +10370,7 @@
       <c r="DL20" s="5"/>
       <c r="DM20" s="5"/>
     </row>
-    <row r="21" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -10485,7 +10486,7 @@
       <c r="DL21" s="5"/>
       <c r="DM21" s="5"/>
     </row>
-    <row r="22" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -10601,7 +10602,7 @@
       <c r="DL22" s="5"/>
       <c r="DM22" s="5"/>
     </row>
-    <row r="23" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -10717,7 +10718,7 @@
       <c r="DL23" s="5"/>
       <c r="DM23" s="5"/>
     </row>
-    <row r="24" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -10833,7 +10834,7 @@
       <c r="DL24" s="5"/>
       <c r="DM24" s="5"/>
     </row>
-    <row r="25" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -10949,7 +10950,7 @@
       <c r="DL25" s="5"/>
       <c r="DM25" s="5"/>
     </row>
-    <row r="26" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -11065,7 +11066,7 @@
       <c r="DL26" s="5"/>
       <c r="DM26" s="5"/>
     </row>
-    <row r="27" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -11181,7 +11182,7 @@
       <c r="DL27" s="5"/>
       <c r="DM27" s="5"/>
     </row>
-    <row r="28" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -11297,7 +11298,7 @@
       <c r="DL28" s="5"/>
       <c r="DM28" s="5"/>
     </row>
-    <row r="29" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -11413,7 +11414,7 @@
       <c r="DL29" s="5"/>
       <c r="DM29" s="5"/>
     </row>
-    <row r="30" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -11529,7 +11530,7 @@
       <c r="DL30" s="5"/>
       <c r="DM30" s="5"/>
     </row>
-    <row r="31" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -11645,7 +11646,7 @@
       <c r="DL31" s="5"/>
       <c r="DM31" s="5"/>
     </row>
-    <row r="32" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -11761,7 +11762,7 @@
       <c r="DL32" s="5"/>
       <c r="DM32" s="5"/>
     </row>
-    <row r="33" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -11877,7 +11878,7 @@
       <c r="DL33" s="5"/>
       <c r="DM33" s="5"/>
     </row>
-    <row r="34" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -11993,7 +11994,7 @@
       <c r="DL34" s="5"/>
       <c r="DM34" s="5"/>
     </row>
-    <row r="35" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -12109,7 +12110,7 @@
       <c r="DL35" s="5"/>
       <c r="DM35" s="5"/>
     </row>
-    <row r="36" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -12225,7 +12226,7 @@
       <c r="DL36" s="5"/>
       <c r="DM36" s="5"/>
     </row>
-    <row r="37" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -12341,7 +12342,7 @@
       <c r="DL37" s="5"/>
       <c r="DM37" s="5"/>
     </row>
-    <row r="38" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -12457,7 +12458,7 @@
       <c r="DL38" s="5"/>
       <c r="DM38" s="5"/>
     </row>
-    <row r="39" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -12573,7 +12574,7 @@
       <c r="DL39" s="5"/>
       <c r="DM39" s="5"/>
     </row>
-    <row r="40" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -12689,7 +12690,7 @@
       <c r="DL40" s="5"/>
       <c r="DM40" s="5"/>
     </row>
-    <row r="41" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -12805,7 +12806,7 @@
       <c r="DL41" s="5"/>
       <c r="DM41" s="5"/>
     </row>
-    <row r="42" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -12921,7 +12922,7 @@
       <c r="DL42" s="5"/>
       <c r="DM42" s="5"/>
     </row>
-    <row r="43" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -13037,7 +13038,7 @@
       <c r="DL43" s="5"/>
       <c r="DM43" s="5"/>
     </row>
-    <row r="44" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -13153,7 +13154,7 @@
       <c r="DL44" s="5"/>
       <c r="DM44" s="5"/>
     </row>
-    <row r="45" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -13269,7 +13270,7 @@
       <c r="DL45" s="5"/>
       <c r="DM45" s="5"/>
     </row>
-    <row r="46" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -13385,7 +13386,7 @@
       <c r="DL46" s="5"/>
       <c r="DM46" s="5"/>
     </row>
-    <row r="47" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -13501,7 +13502,7 @@
       <c r="DL47" s="5"/>
       <c r="DM47" s="5"/>
     </row>
-    <row r="48" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -13617,7 +13618,7 @@
       <c r="DL48" s="5"/>
       <c r="DM48" s="5"/>
     </row>
-    <row r="49" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -13733,7 +13734,7 @@
       <c r="DL49" s="5"/>
       <c r="DM49" s="5"/>
     </row>
-    <row r="50" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -13849,7 +13850,7 @@
       <c r="DL50" s="5"/>
       <c r="DM50" s="5"/>
     </row>
-    <row r="51" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -13965,7 +13966,7 @@
       <c r="DL51" s="5"/>
       <c r="DM51" s="5"/>
     </row>
-    <row r="52" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -14081,7 +14082,7 @@
       <c r="DL52" s="5"/>
       <c r="DM52" s="5"/>
     </row>
-    <row r="53" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -14197,7 +14198,7 @@
       <c r="DL53" s="5"/>
       <c r="DM53" s="5"/>
     </row>
-    <row r="54" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
@@ -14313,7 +14314,7 @@
       <c r="DL54" s="5"/>
       <c r="DM54" s="5"/>
     </row>
-    <row r="55" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -14429,7 +14430,7 @@
       <c r="DL55" s="5"/>
       <c r="DM55" s="5"/>
     </row>
-    <row r="56" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
@@ -14545,7 +14546,7 @@
       <c r="DL56" s="5"/>
       <c r="DM56" s="5"/>
     </row>
-    <row r="57" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -14661,7 +14662,7 @@
       <c r="DL57" s="5"/>
       <c r="DM57" s="5"/>
     </row>
-    <row r="58" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
@@ -14777,7 +14778,7 @@
       <c r="DL58" s="5"/>
       <c r="DM58" s="5"/>
     </row>
-    <row r="59" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
@@ -14893,7 +14894,7 @@
       <c r="DL59" s="5"/>
       <c r="DM59" s="5"/>
     </row>
-    <row r="60" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
@@ -15009,7 +15010,7 @@
       <c r="DL60" s="5"/>
       <c r="DM60" s="5"/>
     </row>
-    <row r="61" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
@@ -15125,7 +15126,7 @@
       <c r="DL61" s="5"/>
       <c r="DM61" s="5"/>
     </row>
-    <row r="62" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
@@ -15241,7 +15242,7 @@
       <c r="DL62" s="5"/>
       <c r="DM62" s="5"/>
     </row>
-    <row r="63" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
@@ -15357,7 +15358,7 @@
       <c r="DL63" s="5"/>
       <c r="DM63" s="5"/>
     </row>
-    <row r="64" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
@@ -15473,7 +15474,7 @@
       <c r="DL64" s="5"/>
       <c r="DM64" s="5"/>
     </row>
-    <row r="65" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -15589,7 +15590,7 @@
       <c r="DL65" s="5"/>
       <c r="DM65" s="5"/>
     </row>
-    <row r="66" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
@@ -15705,7 +15706,7 @@
       <c r="DL66" s="5"/>
       <c r="DM66" s="5"/>
     </row>
-    <row r="67" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -15821,7 +15822,7 @@
       <c r="DL67" s="5"/>
       <c r="DM67" s="5"/>
     </row>
-    <row r="68" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -15937,7 +15938,7 @@
       <c r="DL68" s="5"/>
       <c r="DM68" s="5"/>
     </row>
-    <row r="69" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -16053,7 +16054,7 @@
       <c r="DL69" s="5"/>
       <c r="DM69" s="5"/>
     </row>
-    <row r="70" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -16169,7 +16170,7 @@
       <c r="DL70" s="5"/>
       <c r="DM70" s="5"/>
     </row>
-    <row r="71" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -16285,7 +16286,7 @@
       <c r="DL71" s="5"/>
       <c r="DM71" s="5"/>
     </row>
-    <row r="72" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
@@ -16401,7 +16402,7 @@
       <c r="DL72" s="5"/>
       <c r="DM72" s="5"/>
     </row>
-    <row r="73" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -16517,7 +16518,7 @@
       <c r="DL73" s="5"/>
       <c r="DM73" s="5"/>
     </row>
-    <row r="74" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -16633,7 +16634,7 @@
       <c r="DL74" s="5"/>
       <c r="DM74" s="5"/>
     </row>
-    <row r="75" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -16749,7 +16750,7 @@
       <c r="DL75" s="5"/>
       <c r="DM75" s="5"/>
     </row>
-    <row r="76" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -16865,7 +16866,7 @@
       <c r="DL76" s="5"/>
       <c r="DM76" s="5"/>
     </row>
-    <row r="77" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -16981,7 +16982,7 @@
       <c r="DL77" s="5"/>
       <c r="DM77" s="5"/>
     </row>
-    <row r="78" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -17097,7 +17098,7 @@
       <c r="DL78" s="5"/>
       <c r="DM78" s="5"/>
     </row>
-    <row r="79" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
@@ -17213,7 +17214,7 @@
       <c r="DL79" s="5"/>
       <c r="DM79" s="5"/>
     </row>
-    <row r="80" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
@@ -17329,7 +17330,7 @@
       <c r="DL80" s="5"/>
       <c r="DM80" s="5"/>
     </row>
-    <row r="81" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -17445,7 +17446,7 @@
       <c r="DL81" s="5"/>
       <c r="DM81" s="5"/>
     </row>
-    <row r="82" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
@@ -17561,7 +17562,7 @@
       <c r="DL82" s="5"/>
       <c r="DM82" s="5"/>
     </row>
-    <row r="83" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
@@ -17677,7 +17678,7 @@
       <c r="DL83" s="5"/>
       <c r="DM83" s="5"/>
     </row>
-    <row r="84" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
@@ -17793,7 +17794,7 @@
       <c r="DL84" s="5"/>
       <c r="DM84" s="5"/>
     </row>
-    <row r="85" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
@@ -17909,7 +17910,7 @@
       <c r="DL85" s="5"/>
       <c r="DM85" s="5"/>
     </row>
-    <row r="86" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
@@ -18025,7 +18026,7 @@
       <c r="DL86" s="5"/>
       <c r="DM86" s="5"/>
     </row>
-    <row r="87" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
@@ -18141,7 +18142,7 @@
       <c r="DL87" s="5"/>
       <c r="DM87" s="5"/>
     </row>
-    <row r="88" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
@@ -18257,7 +18258,7 @@
       <c r="DL88" s="5"/>
       <c r="DM88" s="5"/>
     </row>
-    <row r="89" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
@@ -18373,7 +18374,7 @@
       <c r="DL89" s="5"/>
       <c r="DM89" s="5"/>
     </row>
-    <row r="90" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
@@ -18489,7 +18490,7 @@
       <c r="DL90" s="5"/>
       <c r="DM90" s="5"/>
     </row>
-    <row r="91" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="4"/>
       <c r="C91" s="5"/>
@@ -18605,7 +18606,7 @@
       <c r="DL91" s="5"/>
       <c r="DM91" s="5"/>
     </row>
-    <row r="92" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="4"/>
       <c r="C92" s="5"/>
@@ -18721,7 +18722,7 @@
       <c r="DL92" s="5"/>
       <c r="DM92" s="5"/>
     </row>
-    <row r="93" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="4"/>
       <c r="C93" s="5"/>
@@ -18837,7 +18838,7 @@
       <c r="DL93" s="5"/>
       <c r="DM93" s="5"/>
     </row>
-    <row r="94" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
@@ -18953,7 +18954,7 @@
       <c r="DL94" s="5"/>
       <c r="DM94" s="5"/>
     </row>
-    <row r="95" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="4"/>
       <c r="C95" s="5"/>
@@ -19069,7 +19070,7 @@
       <c r="DL95" s="5"/>
       <c r="DM95" s="5"/>
     </row>
-    <row r="96" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="4"/>
       <c r="C96" s="5"/>
@@ -19185,7 +19186,7 @@
       <c r="DL96" s="5"/>
       <c r="DM96" s="5"/>
     </row>
-    <row r="97" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="4"/>
       <c r="C97" s="5"/>
@@ -19301,7 +19302,7 @@
       <c r="DL97" s="5"/>
       <c r="DM97" s="5"/>
     </row>
-    <row r="98" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="4"/>
       <c r="C98" s="5"/>
@@ -19417,7 +19418,7 @@
       <c r="DL98" s="5"/>
       <c r="DM98" s="5"/>
     </row>
-    <row r="99" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="4"/>
       <c r="C99" s="5"/>
@@ -19533,7 +19534,7 @@
       <c r="DL99" s="5"/>
       <c r="DM99" s="5"/>
     </row>
-    <row r="100" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="4"/>
       <c r="C100" s="5"/>
@@ -19649,7 +19650,7 @@
       <c r="DL100" s="5"/>
       <c r="DM100" s="5"/>
     </row>
-    <row r="101" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
@@ -19765,7 +19766,7 @@
       <c r="DL101" s="5"/>
       <c r="DM101" s="5"/>
     </row>
-    <row r="102" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
@@ -19881,7 +19882,7 @@
       <c r="DL102" s="5"/>
       <c r="DM102" s="5"/>
     </row>
-    <row r="103" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
@@ -19997,7 +19998,7 @@
       <c r="DL103" s="5"/>
       <c r="DM103" s="5"/>
     </row>
-    <row r="104" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
@@ -20113,7 +20114,7 @@
       <c r="DL104" s="5"/>
       <c r="DM104" s="5"/>
     </row>
-    <row r="105" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
@@ -20229,7 +20230,7 @@
       <c r="DL105" s="5"/>
       <c r="DM105" s="5"/>
     </row>
-    <row r="106" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
@@ -20345,7 +20346,7 @@
       <c r="DL106" s="5"/>
       <c r="DM106" s="5"/>
     </row>
-    <row r="107" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
@@ -20461,7 +20462,7 @@
       <c r="DL107" s="5"/>
       <c r="DM107" s="5"/>
     </row>
-    <row r="108" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
@@ -20577,7 +20578,7 @@
       <c r="DL108" s="5"/>
       <c r="DM108" s="5"/>
     </row>
-    <row r="109" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -20693,7 +20694,7 @@
       <c r="DL109" s="5"/>
       <c r="DM109" s="5"/>
     </row>
-    <row r="110" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
@@ -20809,7 +20810,7 @@
       <c r="DL110" s="5"/>
       <c r="DM110" s="5"/>
     </row>
-    <row r="111" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -20925,7 +20926,7 @@
       <c r="DL111" s="5"/>
       <c r="DM111" s="5"/>
     </row>
-    <row r="112" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -21041,7 +21042,7 @@
       <c r="DL112" s="5"/>
       <c r="DM112" s="5"/>
     </row>
-    <row r="113" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
@@ -21157,7 +21158,7 @@
       <c r="DL113" s="5"/>
       <c r="DM113" s="5"/>
     </row>
-    <row r="114" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
@@ -21273,7 +21274,7 @@
       <c r="DL114" s="5"/>
       <c r="DM114" s="5"/>
     </row>
-    <row r="115" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
@@ -21389,7 +21390,7 @@
       <c r="DL115" s="5"/>
       <c r="DM115" s="5"/>
     </row>
-    <row r="116" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
@@ -21505,7 +21506,7 @@
       <c r="DL116" s="5"/>
       <c r="DM116" s="5"/>
     </row>
-    <row r="117" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
@@ -21621,7 +21622,7 @@
       <c r="DL117" s="5"/>
       <c r="DM117" s="5"/>
     </row>
-    <row r="118" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="4"/>
       <c r="C118" s="5"/>
@@ -21737,7 +21738,7 @@
       <c r="DL118" s="5"/>
       <c r="DM118" s="5"/>
     </row>
-    <row r="119" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="4"/>
       <c r="C119" s="5"/>
@@ -21853,7 +21854,7 @@
       <c r="DL119" s="5"/>
       <c r="DM119" s="5"/>
     </row>
-    <row r="120" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="4"/>
       <c r="C120" s="5"/>
@@ -21969,7 +21970,7 @@
       <c r="DL120" s="5"/>
       <c r="DM120" s="5"/>
     </row>
-    <row r="121" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="4"/>
       <c r="C121" s="5"/>
@@ -22085,7 +22086,7 @@
       <c r="DL121" s="5"/>
       <c r="DM121" s="5"/>
     </row>
-    <row r="122" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="4"/>
       <c r="C122" s="5"/>
@@ -22201,7 +22202,7 @@
       <c r="DL122" s="5"/>
       <c r="DM122" s="5"/>
     </row>
-    <row r="123" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="4"/>
       <c r="C123" s="5"/>
@@ -22317,7 +22318,7 @@
       <c r="DL123" s="5"/>
       <c r="DM123" s="5"/>
     </row>
-    <row r="124" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="4"/>
       <c r="C124" s="5"/>
@@ -22433,7 +22434,7 @@
       <c r="DL124" s="5"/>
       <c r="DM124" s="5"/>
     </row>
-    <row r="125" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
@@ -22549,7 +22550,7 @@
       <c r="DL125" s="5"/>
       <c r="DM125" s="5"/>
     </row>
-    <row r="126" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
@@ -22665,7 +22666,7 @@
       <c r="DL126" s="5"/>
       <c r="DM126" s="5"/>
     </row>
-    <row r="127" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
@@ -22781,7 +22782,7 @@
       <c r="DL127" s="5"/>
       <c r="DM127" s="5"/>
     </row>
-    <row r="128" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="4"/>
       <c r="C128" s="5"/>
@@ -22897,7 +22898,7 @@
       <c r="DL128" s="5"/>
       <c r="DM128" s="5"/>
     </row>
-    <row r="129" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
@@ -23013,7 +23014,7 @@
       <c r="DL129" s="5"/>
       <c r="DM129" s="5"/>
     </row>
-    <row r="130" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="4"/>
       <c r="C130" s="5"/>
@@ -23129,7 +23130,7 @@
       <c r="DL130" s="5"/>
       <c r="DM130" s="5"/>
     </row>
-    <row r="131" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
@@ -23245,7 +23246,7 @@
       <c r="DL131" s="5"/>
       <c r="DM131" s="5"/>
     </row>
-    <row r="132" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="4"/>
       <c r="C132" s="5"/>
@@ -23361,7 +23362,7 @@
       <c r="DL132" s="5"/>
       <c r="DM132" s="5"/>
     </row>
-    <row r="133" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
@@ -23477,7 +23478,7 @@
       <c r="DL133" s="5"/>
       <c r="DM133" s="5"/>
     </row>
-    <row r="134" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="4"/>
       <c r="C134" s="5"/>
@@ -23593,7 +23594,7 @@
       <c r="DL134" s="5"/>
       <c r="DM134" s="5"/>
     </row>
-    <row r="135" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="4"/>
       <c r="C135" s="5"/>
@@ -23709,7 +23710,7 @@
       <c r="DL135" s="5"/>
       <c r="DM135" s="5"/>
     </row>
-    <row r="136" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="4"/>
       <c r="C136" s="5"/>
@@ -23825,7 +23826,7 @@
       <c r="DL136" s="5"/>
       <c r="DM136" s="5"/>
     </row>
-    <row r="137" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="4"/>
       <c r="C137" s="5"/>
@@ -23941,7 +23942,7 @@
       <c r="DL137" s="5"/>
       <c r="DM137" s="5"/>
     </row>
-    <row r="138" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="4"/>
       <c r="C138" s="5"/>
@@ -24057,7 +24058,7 @@
       <c r="DL138" s="5"/>
       <c r="DM138" s="5"/>
     </row>
-    <row r="139" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="4"/>
       <c r="C139" s="5"/>
@@ -24173,7 +24174,7 @@
       <c r="DL139" s="5"/>
       <c r="DM139" s="5"/>
     </row>
-    <row r="140" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="4"/>
       <c r="C140" s="5"/>
@@ -24289,7 +24290,7 @@
       <c r="DL140" s="5"/>
       <c r="DM140" s="5"/>
     </row>
-    <row r="141" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="4"/>
       <c r="C141" s="5"/>
@@ -24405,7 +24406,7 @@
       <c r="DL141" s="5"/>
       <c r="DM141" s="5"/>
     </row>
-    <row r="142" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="4"/>
       <c r="C142" s="5"/>
@@ -24521,7 +24522,7 @@
       <c r="DL142" s="5"/>
       <c r="DM142" s="5"/>
     </row>
-    <row r="143" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="4"/>
       <c r="C143" s="5"/>
@@ -24637,7 +24638,7 @@
       <c r="DL143" s="5"/>
       <c r="DM143" s="5"/>
     </row>
-    <row r="144" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="4"/>
       <c r="C144" s="5"/>
@@ -24753,7 +24754,7 @@
       <c r="DL144" s="5"/>
       <c r="DM144" s="5"/>
     </row>
-    <row r="145" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
@@ -24869,7 +24870,7 @@
       <c r="DL145" s="5"/>
       <c r="DM145" s="5"/>
     </row>
-    <row r="146" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="4"/>
       <c r="C146" s="5"/>
@@ -24985,7 +24986,7 @@
       <c r="DL146" s="5"/>
       <c r="DM146" s="5"/>
     </row>
-    <row r="147" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="4"/>
       <c r="C147" s="5"/>
@@ -25101,7 +25102,7 @@
       <c r="DL147" s="5"/>
       <c r="DM147" s="5"/>
     </row>
-    <row r="148" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="4"/>
       <c r="C148" s="5"/>
@@ -25217,7 +25218,7 @@
       <c r="DL148" s="5"/>
       <c r="DM148" s="5"/>
     </row>
-    <row r="149" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5"/>
@@ -25333,7 +25334,7 @@
       <c r="DL149" s="5"/>
       <c r="DM149" s="5"/>
     </row>
-    <row r="150" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="4"/>
       <c r="C150" s="5"/>
@@ -25449,7 +25450,7 @@
       <c r="DL150" s="5"/>
       <c r="DM150" s="5"/>
     </row>
-    <row r="151" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="4"/>
       <c r="C151" s="5"/>
@@ -25565,7 +25566,7 @@
       <c r="DL151" s="5"/>
       <c r="DM151" s="5"/>
     </row>
-    <row r="152" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="4"/>
       <c r="C152" s="5"/>
@@ -25681,7 +25682,7 @@
       <c r="DL152" s="5"/>
       <c r="DM152" s="5"/>
     </row>
-    <row r="153" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="4"/>
       <c r="C153" s="5"/>
@@ -25797,7 +25798,7 @@
       <c r="DL153" s="5"/>
       <c r="DM153" s="5"/>
     </row>
-    <row r="154" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="4"/>
       <c r="C154" s="5"/>
@@ -25913,7 +25914,7 @@
       <c r="DL154" s="5"/>
       <c r="DM154" s="5"/>
     </row>
-    <row r="155" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="4"/>
       <c r="C155" s="5"/>
@@ -26029,7 +26030,7 @@
       <c r="DL155" s="5"/>
       <c r="DM155" s="5"/>
     </row>
-    <row r="156" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="4"/>
       <c r="C156" s="5"/>
@@ -26145,7 +26146,7 @@
       <c r="DL156" s="5"/>
       <c r="DM156" s="5"/>
     </row>
-    <row r="157" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="4"/>
       <c r="C157" s="5"/>
@@ -26261,7 +26262,7 @@
       <c r="DL157" s="5"/>
       <c r="DM157" s="5"/>
     </row>
-    <row r="158" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="4"/>
       <c r="C158" s="5"/>
@@ -26377,7 +26378,7 @@
       <c r="DL158" s="5"/>
       <c r="DM158" s="5"/>
     </row>
-    <row r="159" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="4"/>
       <c r="C159" s="5"/>
@@ -26493,7 +26494,7 @@
       <c r="DL159" s="5"/>
       <c r="DM159" s="5"/>
     </row>
-    <row r="160" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="4"/>
       <c r="C160" s="5"/>
@@ -26609,7 +26610,7 @@
       <c r="DL160" s="5"/>
       <c r="DM160" s="5"/>
     </row>
-    <row r="161" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="4"/>
       <c r="C161" s="5"/>
@@ -26725,7 +26726,7 @@
       <c r="DL161" s="5"/>
       <c r="DM161" s="5"/>
     </row>
-    <row r="162" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="4"/>
       <c r="C162" s="5"/>
@@ -26841,7 +26842,7 @@
       <c r="DL162" s="5"/>
       <c r="DM162" s="5"/>
     </row>
-    <row r="163" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="4"/>
       <c r="C163" s="5"/>
@@ -26957,7 +26958,7 @@
       <c r="DL163" s="5"/>
       <c r="DM163" s="5"/>
     </row>
-    <row r="164" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="4"/>
       <c r="C164" s="5"/>
@@ -27073,7 +27074,7 @@
       <c r="DL164" s="5"/>
       <c r="DM164" s="5"/>
     </row>
-    <row r="165" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="4"/>
       <c r="C165" s="5"/>
@@ -27189,7 +27190,7 @@
       <c r="DL165" s="5"/>
       <c r="DM165" s="5"/>
     </row>
-    <row r="166" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="4"/>
       <c r="C166" s="5"/>
@@ -27305,7 +27306,7 @@
       <c r="DL166" s="5"/>
       <c r="DM166" s="5"/>
     </row>
-    <row r="167" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="4"/>
       <c r="C167" s="5"/>
@@ -27421,7 +27422,7 @@
       <c r="DL167" s="5"/>
       <c r="DM167" s="5"/>
     </row>
-    <row r="168" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="4"/>
       <c r="C168" s="5"/>
@@ -27537,7 +27538,7 @@
       <c r="DL168" s="5"/>
       <c r="DM168" s="5"/>
     </row>
-    <row r="169" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="4"/>
       <c r="C169" s="5"/>
@@ -27653,7 +27654,7 @@
       <c r="DL169" s="5"/>
       <c r="DM169" s="5"/>
     </row>
-    <row r="170" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="4"/>
       <c r="C170" s="5"/>
@@ -27769,7 +27770,7 @@
       <c r="DL170" s="5"/>
       <c r="DM170" s="5"/>
     </row>
-    <row r="171" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="4"/>
       <c r="C171" s="5"/>
@@ -27885,7 +27886,7 @@
       <c r="DL171" s="5"/>
       <c r="DM171" s="5"/>
     </row>
-    <row r="172" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="4"/>
       <c r="C172" s="5"/>
@@ -28001,7 +28002,7 @@
       <c r="DL172" s="5"/>
       <c r="DM172" s="5"/>
     </row>
-    <row r="173" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="4"/>
       <c r="C173" s="5"/>
@@ -28117,7 +28118,7 @@
       <c r="DL173" s="5"/>
       <c r="DM173" s="5"/>
     </row>
-    <row r="174" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="4"/>
       <c r="C174" s="5"/>
@@ -28233,7 +28234,7 @@
       <c r="DL174" s="5"/>
       <c r="DM174" s="5"/>
     </row>
-    <row r="175" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="4"/>
       <c r="C175" s="5"/>
@@ -28349,7 +28350,7 @@
       <c r="DL175" s="5"/>
       <c r="DM175" s="5"/>
     </row>
-    <row r="176" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="4"/>
       <c r="C176" s="5"/>
@@ -28465,7 +28466,7 @@
       <c r="DL176" s="5"/>
       <c r="DM176" s="5"/>
     </row>
-    <row r="177" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="4"/>
       <c r="C177" s="5"/>
@@ -28581,7 +28582,7 @@
       <c r="DL177" s="5"/>
       <c r="DM177" s="5"/>
     </row>
-    <row r="178" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="4"/>
       <c r="C178" s="5"/>
@@ -28697,7 +28698,7 @@
       <c r="DL178" s="5"/>
       <c r="DM178" s="5"/>
     </row>
-    <row r="179" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="4"/>
       <c r="C179" s="5"/>
@@ -28813,7 +28814,7 @@
       <c r="DL179" s="5"/>
       <c r="DM179" s="5"/>
     </row>
-    <row r="180" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="4"/>
       <c r="C180" s="5"/>
@@ -28929,7 +28930,7 @@
       <c r="DL180" s="5"/>
       <c r="DM180" s="5"/>
     </row>
-    <row r="181" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="4"/>
       <c r="C181" s="5"/>
@@ -29045,7 +29046,7 @@
       <c r="DL181" s="5"/>
       <c r="DM181" s="5"/>
     </row>
-    <row r="182" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="4"/>
       <c r="C182" s="5"/>
@@ -29161,7 +29162,7 @@
       <c r="DL182" s="5"/>
       <c r="DM182" s="5"/>
     </row>
-    <row r="183" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="4"/>
       <c r="C183" s="5"/>
@@ -29277,7 +29278,7 @@
       <c r="DL183" s="5"/>
       <c r="DM183" s="5"/>
     </row>
-    <row r="184" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="4"/>
       <c r="C184" s="5"/>
@@ -29393,7 +29394,7 @@
       <c r="DL184" s="5"/>
       <c r="DM184" s="5"/>
     </row>
-    <row r="185" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="4"/>
       <c r="C185" s="5"/>
@@ -29509,7 +29510,7 @@
       <c r="DL185" s="5"/>
       <c r="DM185" s="5"/>
     </row>
-    <row r="186" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="4"/>
       <c r="C186" s="5"/>
@@ -29625,7 +29626,7 @@
       <c r="DL186" s="5"/>
       <c r="DM186" s="5"/>
     </row>
-    <row r="187" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="4"/>
       <c r="C187" s="5"/>
@@ -29741,7 +29742,7 @@
       <c r="DL187" s="5"/>
       <c r="DM187" s="5"/>
     </row>
-    <row r="188" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="4"/>
       <c r="C188" s="5"/>
@@ -29857,7 +29858,7 @@
       <c r="DL188" s="5"/>
       <c r="DM188" s="5"/>
     </row>
-    <row r="189" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="4"/>
       <c r="C189" s="5"/>
@@ -29973,7 +29974,7 @@
       <c r="DL189" s="5"/>
       <c r="DM189" s="5"/>
     </row>
-    <row r="190" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="4"/>
       <c r="C190" s="5"/>
@@ -30089,7 +30090,7 @@
       <c r="DL190" s="5"/>
       <c r="DM190" s="5"/>
     </row>
-    <row r="191" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="4"/>
       <c r="C191" s="5"/>
@@ -30205,7 +30206,7 @@
       <c r="DL191" s="5"/>
       <c r="DM191" s="5"/>
     </row>
-    <row r="192" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="4"/>
       <c r="C192" s="5"/>
@@ -30321,7 +30322,7 @@
       <c r="DL192" s="5"/>
       <c r="DM192" s="5"/>
     </row>
-    <row r="193" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="4"/>
       <c r="C193" s="5"/>
@@ -30437,7 +30438,7 @@
       <c r="DL193" s="5"/>
       <c r="DM193" s="5"/>
     </row>
-    <row r="194" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="4"/>
       <c r="C194" s="5"/>
@@ -30553,7 +30554,7 @@
       <c r="DL194" s="5"/>
       <c r="DM194" s="5"/>
     </row>
-    <row r="195" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="4"/>
       <c r="C195" s="5"/>
@@ -30669,7 +30670,7 @@
       <c r="DL195" s="5"/>
       <c r="DM195" s="5"/>
     </row>
-    <row r="196" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="4"/>
       <c r="C196" s="5"/>
@@ -30785,7 +30786,7 @@
       <c r="DL196" s="5"/>
       <c r="DM196" s="5"/>
     </row>
-    <row r="197" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="4"/>
       <c r="C197" s="5"/>
@@ -30901,7 +30902,7 @@
       <c r="DL197" s="5"/>
       <c r="DM197" s="5"/>
     </row>
-    <row r="198" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="4"/>
       <c r="C198" s="5"/>
@@ -31017,7 +31018,7 @@
       <c r="DL198" s="5"/>
       <c r="DM198" s="5"/>
     </row>
-    <row r="199" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="4"/>
       <c r="C199" s="5"/>
@@ -31133,7 +31134,7 @@
       <c r="DL199" s="5"/>
       <c r="DM199" s="5"/>
     </row>
-    <row r="200" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="4"/>
       <c r="C200" s="5"/>
@@ -31249,7 +31250,7 @@
       <c r="DL200" s="5"/>
       <c r="DM200" s="5"/>
     </row>
-    <row r="201" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="4"/>
       <c r="C201" s="5"/>
@@ -31365,7 +31366,7 @@
       <c r="DL201" s="5"/>
       <c r="DM201" s="5"/>
     </row>
-    <row r="202" spans="1:117" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:117" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="4"/>
       <c r="C202" s="5"/>
@@ -31481,69 +31482,69 @@
       <c r="DL202" s="5"/>
       <c r="DM202" s="5"/>
     </row>
-    <row r="203" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:117" x14ac:dyDescent="0.25">
       <c r="M203" s="67"/>
     </row>
-    <row r="204" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:117" x14ac:dyDescent="0.25">
       <c r="M204" s="67"/>
     </row>
   </sheetData>
   <dataValidations count="19">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CX5:CX1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CX5:CX1048576" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>dataset_list_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CH5:CH1048576 CY5:CY1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CH5:CH1048576 CY5:CY1048576" xr:uid="{00000000-0002-0000-0F00-000001000000}">
       <formula1>external_file_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CZ5:CZ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CZ5:CZ1048576" xr:uid="{00000000-0002-0000-0F00-000002000000}">
       <formula1>Software_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DR5:DR1048576 DN5:DN1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DR5:DR1048576 DN5:DN1048576" xr:uid="{00000000-0002-0000-0F00-000003000000}">
       <formula1>FPS_MPP_group_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CQ5:CQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CQ5:CQ1048576" xr:uid="{00000000-0002-0000-0F00-000004000000}">
       <formula1>State_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576" xr:uid="{00000000-0002-0000-0F00-000005000000}">
       <formula1>Entity_assembly_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0F00-000006000000}">
       <formula1>"liquid,vitrified,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N1048576" xr:uid="{00000000-0002-0000-0F00-000007000000}">
       <formula1>"extrinsic,instrinsic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576 R5:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576 R5:R1048576" xr:uid="{00000000-0002-0000-0F00-000008000000}">
       <formula1>"covalent,ligand"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q1048576" xr:uid="{00000000-0002-0000-0F00-000009000000}">
       <formula1>"extrinsic,intrinsic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS5:AS1048576 BA5:BA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS5:AS1048576 BA5:BA1048576" xr:uid="{00000000-0002-0000-0F00-00000A000000}">
       <formula1>entity_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX5:AY1048576 BF5:BG1048576 BQ5:BQ1048576 BS5:BS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX5:AY1048576 BF5:BG1048576 BQ5:BQ1048576 BS5:BS1048576" xr:uid="{00000000-0002-0000-0F00-00000B000000}">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW5:BW1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW5:BW1048576" xr:uid="{00000000-0002-0000-0F00-00000C000000}">
       <formula1>"intensity-based, lifetime-based"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CJ5:CJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CJ5:CJ1048576" xr:uid="{00000000-0002-0000-0F00-00000D000000}">
       <formula1>RefMeasGroupID</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CI5:CI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CI5:CI1048576" xr:uid="{00000000-0002-0000-0F00-00000E000000}">
       <formula1>citation_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CU5:CU1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CU5:CU1048576" xr:uid="{00000000-0002-0000-0F00-00000F000000}">
       <formula1>"&lt;R_DA&gt;_E,&lt;R_DA&gt;,R_mp"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO5:AO1048576 AK5:AK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO5:AO1048576 AK5:AK1048576" xr:uid="{00000000-0002-0000-0F00-000010000000}">
       <formula1>"ALA,ARG,ASN,ASP,CYS,GLU,GLN,GLY,HIS,ILE,LEU,LYS,MET,PHE,PRO,SER,THR,TRP,TYR,VAL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN5:AN1048576 AR5:AR1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN5:AN1048576 AR5:AR1048576" xr:uid="{00000000-0002-0000-0F00-000011000000}">
       <formula1>"Peptide linking,L-peptide linking,D-peptide linking,DNA linking,RNA linking"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT5:AT1048576 BB5:BB1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT5:AT1048576 BB5:BB1048576" xr:uid="{00000000-0002-0000-0F00-000012000000}">
       <formula1>Instance_chain_id</formula1>
     </dataValidation>
   </dataValidations>
@@ -31553,88 +31554,88 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>587</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>588</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>589</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>593</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="J2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>605</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>entity_id</formula1>
     </dataValidation>
   </dataValidations>
@@ -31643,35 +31644,35 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="20" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="20" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>716</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>421</v>
       </c>
@@ -31682,7 +31683,7 @@
         <v>441</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>464</v>
@@ -31739,7 +31740,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>443</v>
       </c>
@@ -31750,7 +31751,7 @@
         <v>447</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>446</v>
@@ -31807,7 +31808,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="65"/>
       <c r="C5" s="65"/>
@@ -31831,7 +31832,7 @@
       <c r="U5" s="65"/>
       <c r="V5" s="65"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -31850,7 +31851,7 @@
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -31875,35 +31876,35 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="20" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="20" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>723</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>421</v>
       </c>
@@ -31917,7 +31918,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>435</v>
       </c>
@@ -31933,10 +31934,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>Model_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576" xr:uid="{00000000-0002-0000-1200-000001000000}">
       <formula1>Distance_restraint_id</formula1>
     </dataValidation>
   </dataValidations>
@@ -31945,44 +31946,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="B1" s="65"/>
+    </row>
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" s="75" t="s">
         <v>923</v>
       </c>
-      <c r="B1" s="65"/>
-    </row>
-    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
-        <v>642</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="65" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
+        <v>924</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>925</v>
       </c>
-      <c r="B4" s="70" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="65"/>
     </row>
@@ -31992,41 +31993,41 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="20" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>719</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>720</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>721</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>421</v>
       </c>
@@ -32046,7 +32047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>429</v>
       </c>
@@ -32066,87 +32067,87 @@
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>Model_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{00000000-0002-0000-1300-000001000000}">
       <formula1>Dataset_group_id</formula1>
     </dataValidation>
   </dataValidations>
@@ -32155,16 +32156,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -32184,10 +32185,10 @@
         <v>383</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -32204,7 +32205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -32227,10 +32228,10 @@
         <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>146</v>
       </c>
@@ -32250,10 +32251,10 @@
         <v>68</v>
       </c>
       <c r="Q4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>92</v>
       </c>
@@ -32267,10 +32268,10 @@
         <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>93</v>
       </c>
@@ -32284,10 +32285,10 @@
         <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>94</v>
       </c>
@@ -32301,10 +32302,10 @@
         <v>71</v>
       </c>
       <c r="Q7" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>95</v>
       </c>
@@ -32318,10 +32319,10 @@
         <v>72</v>
       </c>
       <c r="Q8" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>96</v>
       </c>
@@ -32335,10 +32336,10 @@
         <v>73</v>
       </c>
       <c r="Q9" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>97</v>
       </c>
@@ -32352,10 +32353,10 @@
         <v>74</v>
       </c>
       <c r="Q10" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>98</v>
       </c>
@@ -32372,7 +32373,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>85</v>
       </c>
@@ -32386,7 +32387,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
         <v>37</v>
       </c>
@@ -32397,7 +32398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>48</v>
       </c>
@@ -32408,7 +32409,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
         <v>49</v>
       </c>
@@ -32416,7 +32417,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
         <v>50</v>
       </c>
@@ -32424,7 +32425,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
         <v>51</v>
       </c>
@@ -32432,7 +32433,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
         <v>52</v>
       </c>
@@ -32440,7 +32441,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
         <v>53</v>
       </c>
@@ -32448,7 +32449,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
         <v>54</v>
       </c>
@@ -32456,7 +32457,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
         <v>55</v>
       </c>
@@ -32464,7 +32465,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
         <v>56</v>
       </c>
@@ -32478,120 +32479,120 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>640</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>641</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B3" t="s">
         <v>500</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>501</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>502</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>503</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>504</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>505</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>506</v>
-      </c>
-      <c r="H3" t="s">
-        <v>507</v>
       </c>
       <c r="I3" t="s">
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="J5" s="1"/>
     </row>
@@ -32601,83 +32602,83 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="21.5" customWidth="1"/>
-    <col min="13" max="13" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="19.25" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="18" max="18" width="5.8984375" customWidth="1"/>
+    <col min="18" max="18" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="20" customFormat="1" ht="312" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="20" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>653</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>654</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>655</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>658</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>660</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="20" t="s">
         <v>741</v>
       </c>
-      <c r="M2" s="20" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C3" t="s">
         <v>102</v>
@@ -32713,7 +32714,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>330</v>
       </c>
@@ -32755,163 +32756,163 @@
       </c>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="66"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="J7" s="65"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="J8" s="65"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="J9" s="65"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="J10" s="65"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="J11" s="65"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="J12" s="65"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"PDB, PDB-Dev, Model Archive, Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"polymer, non-polymer, water"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"genetically manipulated source, natural source, synthetic source"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"cyclic-pseudo-peptide,other,peptide nucleic acid,polydeoxyribonucleotide,polydeoxyribonucleotide/polyribonucleotide,polypeptide(D),polypeptide(L),polyribonucleotide,polysaccharide(D),polysaccharide(L),N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -32920,87 +32921,87 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="17" customWidth="1"/>
     <col min="4" max="5" width="17" style="65" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="17" max="17" width="11" style="65"/>
-    <col min="18" max="18" width="82.19921875" customWidth="1"/>
-    <col min="22" max="22" width="10.69921875" customWidth="1"/>
-    <col min="23" max="23" width="56.69921875" customWidth="1"/>
-    <col min="24" max="25" width="10.69921875" customWidth="1"/>
+    <col min="18" max="18" width="82.25" customWidth="1"/>
+    <col min="22" max="22" width="10.75" customWidth="1"/>
+    <col min="23" max="23" width="56.75" customWidth="1"/>
+    <col min="24" max="25" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="20" customFormat="1" ht="174" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" s="20" customFormat="1" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="75" t="s">
+        <v>912</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>913</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>729</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>913</v>
-      </c>
-      <c r="E2" s="75" t="s">
-        <v>914</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>730</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="I2" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>808</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>734</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>735</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>644</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>731</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>732</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>733</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>809</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>734</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>735</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>736</v>
-      </c>
-      <c r="O2" s="20" t="s">
+      <c r="P2" s="20" t="s">
         <v>645</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="Q2" s="75" t="s">
+        <v>917</v>
+      </c>
+      <c r="R2" s="20" t="s">
         <v>646</v>
       </c>
-      <c r="Q2" s="75" t="s">
-        <v>918</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:21" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -33014,13 +33015,13 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H3" t="s">
         <v>623</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
@@ -33051,9 +33052,9 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="7" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>339</v>
@@ -33062,10 +33063,10 @@
         <v>340</v>
       </c>
       <c r="D4" s="70" t="s">
+        <v>914</v>
+      </c>
+      <c r="E4" s="70" t="s">
         <v>915</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>916</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>341</v>
@@ -33101,41 +33102,41 @@
         <v>350</v>
       </c>
       <c r="Q4" s="70" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N5" s="8"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="82"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:21" s="65" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N6" s="8"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="82"/>
       <c r="R6" s="66"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Zenodo, Figshare, Crossref"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"DOI, Supplementary Files"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"File, Archive, Publication, Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1048576" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -33144,19 +33145,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
           <x14:formula1>
             <xm:f>for_internal_use_only!$K$3:$K$22</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
           <x14:formula1>
             <xm:f>for_internal_use_only!$L$3:$L$14</xm:f>
           </x14:formula1>
           <xm:sqref>H5:H6 H8:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
           <x14:formula1>
             <xm:f>'G:\20191031_excel2mmcif_addition_of_lifetime_based_analysis\example\[excel_example.xlsx]for_internal_use_only'!#REF!</xm:f>
           </x14:formula1>
@@ -33169,49 +33170,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.69921875" customWidth="1"/>
-    <col min="3" max="3" width="39.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="39.75" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="73.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="73.25" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="20" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="20" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>648</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>743</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>649</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>650</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -33234,7 +33235,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>352</v>
       </c>
@@ -33257,580 +33258,580 @@
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="E5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="56"/>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="E6" s="1"/>
       <c r="G6" s="56"/>
     </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="E7" s="1"/>
       <c r="G7" s="56"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="E8" s="1"/>
       <c r="G8" s="56"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="E9" s="1"/>
       <c r="G9" s="56"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="E10" s="1"/>
       <c r="G10" s="56"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="E11" s="1"/>
       <c r="G11" s="56"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="E12" s="1"/>
       <c r="G12" s="56"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="E13" s="1"/>
       <c r="G13" s="56"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="E14" s="1"/>
       <c r="G14" s="56"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="E15" s="1"/>
       <c r="G15" s="56"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="E16" s="1"/>
       <c r="G16" s="56"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="E17" s="1"/>
       <c r="G17" s="56"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="E18" s="1"/>
       <c r="G18" s="56"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="E19" s="1"/>
       <c r="G19" s="56"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="E20" s="1"/>
       <c r="G20" s="56"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="E21" s="1"/>
       <c r="G21" s="56"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="E22" s="1"/>
       <c r="G22" s="56"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="E23" s="1"/>
       <c r="G23" s="56"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="E24" s="1"/>
       <c r="G24" s="56"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="E25" s="1"/>
       <c r="G25" s="56"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="E26" s="1"/>
       <c r="G26" s="56"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="E27" s="1"/>
       <c r="G27" s="56"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="E28" s="1"/>
       <c r="G28" s="56"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="E29" s="1"/>
       <c r="G29" s="56"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="E30" s="1"/>
       <c r="G30" s="56"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="E31" s="1"/>
       <c r="G31" s="56"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="E32" s="1"/>
       <c r="G32" s="56"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="E33" s="1"/>
       <c r="G33" s="56"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="E34" s="1"/>
       <c r="G34" s="56"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="E35" s="1"/>
       <c r="G35" s="56"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="E36" s="1"/>
       <c r="G36" s="56"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="E37" s="1"/>
       <c r="G37" s="56"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H39" s="56"/>
     </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H55" s="56"/>
     </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H57" s="56"/>
     </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H59" s="56"/>
     </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H61" s="56"/>
     </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H63" s="56"/>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H65" s="56"/>
     </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H71" s="56"/>
     </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H73" s="56"/>
     </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H75" s="56"/>
     </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H77" s="56"/>
     </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H79" s="56"/>
     </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H80" s="56"/>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H81" s="56"/>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H82" s="56"/>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H83" s="56"/>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H84" s="56"/>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H85" s="56"/>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H86" s="56"/>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H88" s="56"/>
     </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H89" s="56"/>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H90" s="56"/>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H91" s="56"/>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H92" s="56"/>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H93" s="56"/>
     </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H94" s="56"/>
     </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H95" s="56"/>
     </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H96" s="56"/>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H97" s="56"/>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H98" s="56"/>
     </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H99" s="56"/>
     </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H100" s="56"/>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H101" s="56"/>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H102" s="56"/>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H103" s="56"/>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H104" s="56"/>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H105" s="56"/>
     </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H106" s="56"/>
     </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H107" s="56"/>
     </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H108" s="56"/>
     </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H109" s="56"/>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H110" s="56"/>
     </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H111" s="56"/>
     </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H112" s="56"/>
     </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H113" s="56"/>
     </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H114" s="56"/>
     </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H115" s="56"/>
     </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H116" s="56"/>
     </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H117" s="56"/>
     </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H118" s="56"/>
     </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H119" s="56"/>
     </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H120" s="56"/>
     </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H121" s="56"/>
     </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H122" s="56"/>
     </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H123" s="56"/>
     </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H124" s="56"/>
     </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H125" s="56"/>
     </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H126" s="56"/>
     </row>
-    <row r="127" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H127" s="56"/>
     </row>
-    <row r="128" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H128" s="56"/>
     </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H129" s="56"/>
     </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H130" s="56"/>
     </row>
-    <row r="131" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H131" s="56"/>
     </row>
-    <row r="132" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H132" s="56"/>
     </row>
-    <row r="133" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H133" s="56"/>
     </row>
-    <row r="134" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H134" s="56"/>
     </row>
-    <row r="135" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H135" s="56"/>
     </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H136" s="56"/>
     </row>
-    <row r="137" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H137" s="56"/>
     </row>
-    <row r="138" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H138" s="56"/>
     </row>
-    <row r="139" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H139" s="56"/>
     </row>
-    <row r="140" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H140" s="56"/>
     </row>
-    <row r="141" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H141" s="56"/>
     </row>
-    <row r="142" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H142" s="56"/>
     </row>
-    <row r="143" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H143" s="56"/>
     </row>
-    <row r="144" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H144" s="56"/>
     </row>
-    <row r="145" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H145" s="56"/>
     </row>
-    <row r="146" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H146" s="56"/>
     </row>
-    <row r="147" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H147" s="56"/>
     </row>
-    <row r="148" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H148" s="56"/>
     </row>
-    <row r="149" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H149" s="56"/>
     </row>
-    <row r="150" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H150" s="56"/>
     </row>
-    <row r="151" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H151" s="56"/>
     </row>
-    <row r="152" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H152" s="56"/>
     </row>
-    <row r="153" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H153" s="56"/>
     </row>
-    <row r="154" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H154" s="56"/>
     </row>
-    <row r="155" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H155" s="56"/>
     </row>
-    <row r="156" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H156" s="56"/>
     </row>
-    <row r="157" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H157" s="56"/>
     </row>
-    <row r="158" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H158" s="56"/>
     </row>
-    <row r="159" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H159" s="56"/>
     </row>
-    <row r="160" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H160" s="56"/>
     </row>
-    <row r="161" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H161" s="56"/>
     </row>
-    <row r="162" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H162" s="56"/>
     </row>
-    <row r="163" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H163" s="56"/>
     </row>
-    <row r="164" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H164" s="56"/>
     </row>
-    <row r="165" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H165" s="56"/>
     </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H166" s="56"/>
     </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H167" s="56"/>
     </row>
-    <row r="168" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H168" s="56"/>
     </row>
-    <row r="169" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H169" s="56"/>
     </row>
-    <row r="170" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H170" s="56"/>
     </row>
-    <row r="171" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H171" s="56"/>
     </row>
-    <row r="172" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H172" s="56"/>
     </row>
-    <row r="173" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H173" s="56"/>
     </row>
-    <row r="174" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H174" s="56"/>
     </row>
-    <row r="175" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H175" s="56"/>
     </row>
-    <row r="176" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H176" s="56"/>
     </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H177" s="56"/>
     </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H178" s="56"/>
     </row>
-    <row r="179" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H179" s="56"/>
     </row>
-    <row r="180" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H180" s="56"/>
     </row>
-    <row r="181" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H181" s="56"/>
     </row>
-    <row r="182" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H182" s="56"/>
     </row>
-    <row r="183" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H183" s="56"/>
     </row>
-    <row r="184" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H184" s="56"/>
     </row>
-    <row r="185" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H185" s="56"/>
     </row>
-    <row r="186" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H186" s="56"/>
     </row>
-    <row r="187" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H187" s="56"/>
     </row>
-    <row r="188" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H188" s="56"/>
     </row>
-    <row r="189" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H189" s="56"/>
     </row>
-    <row r="190" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H190" s="56"/>
     </row>
-    <row r="191" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H191" s="56"/>
     </row>
-    <row r="192" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H192" s="56"/>
     </row>
-    <row r="193" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H193" s="56"/>
     </row>
-    <row r="194" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H194" s="56"/>
     </row>
-    <row r="195" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H195" s="56"/>
     </row>
-    <row r="196" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H196" s="56"/>
     </row>
-    <row r="197" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H197" s="56"/>
     </row>
-    <row r="198" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H198" s="56"/>
     </row>
-    <row r="199" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H199" s="56"/>
     </row>
-    <row r="200" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H200" s="56"/>
     </row>
-    <row r="201" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H201" s="56"/>
     </row>
-    <row r="202" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H202" s="56"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Input data or restraints, Modeling or post-processing output, Modeling workflow or script, Visualization script, Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>external_reference_id</formula1>
     </dataValidation>
   </dataValidations>
@@ -33838,7 +33839,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
           <x14:formula1>
             <xm:f>for_internal_use_only!$N$3:$N$22</xm:f>
           </x14:formula1>
@@ -33851,26 +33852,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>484</v>
       </c>
@@ -33893,8 +33894,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>491</v>
       </c>
@@ -33905,117 +33906,117 @@
         <v>493</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G6" s="60"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G7" s="60"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8" s="60"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G9" s="60"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G10" s="60"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" s="60"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G12" s="60"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G13" s="60"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G14" s="60"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G15" s="60"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G16" s="60"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="60"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="60"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" s="60"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" s="60"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" s="60"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" s="60"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" s="60"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24" s="60"/>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G25" s="60"/>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G26" s="60"/>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G27" s="60"/>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G28" s="60"/>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G29" s="60"/>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G31" s="60"/>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G32" s="60"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="60"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="60"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="60"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="60"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="60"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F1048576 F5:F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F1048576 F5:F7" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Program,Package,Library,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -34024,87 +34025,87 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="15.69921875" customWidth="1"/>
-    <col min="10" max="10" width="18.69921875" customWidth="1"/>
-    <col min="11" max="15" width="12.19921875" customWidth="1"/>
-    <col min="16" max="16" width="18.69921875" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
+    <col min="11" max="15" width="12.25" customWidth="1"/>
+    <col min="16" max="16" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" s="20" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>744</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>664</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>746</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>747</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="K2" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>748</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>668</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="N2" s="20" t="s">
+      <c r="P2" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q2" s="20" t="s">
         <v>672</v>
       </c>
-      <c r="O2" s="20" t="s">
-        <v>749</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>810</v>
-      </c>
-      <c r="Q2" s="20" t="s">
+      <c r="R2" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="S2" s="20" t="s">
         <v>674</v>
       </c>
-      <c r="S2" s="20" t="s">
-        <v>675</v>
-      </c>
       <c r="T2" s="75" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -34163,7 +34164,7 @@
         <v>107</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -34174,7 +34175,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>359</v>
       </c>
@@ -34233,79 +34234,79 @@
         <v>381</v>
       </c>
       <c r="T4" s="70" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D5" s="66"/>
       <c r="H5" s="2"/>
       <c r="I5" s="66"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D6" s="66"/>
       <c r="H6" s="2"/>
       <c r="I6" s="66"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" s="65"/>
       <c r="D7" s="66"/>
       <c r="H7" s="2"/>
       <c r="I7" s="66"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" s="65"/>
       <c r="D8" s="66"/>
       <c r="H8" s="2"/>
       <c r="I8" s="66"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" s="65"/>
       <c r="D9" s="66"/>
       <c r="H9" s="2"/>
       <c r="I9" s="66"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="65"/>
       <c r="D10" s="66"/>
       <c r="H10" s="2"/>
       <c r="I10" s="66"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="65"/>
       <c r="D11" s="66"/>
       <c r="H11" s="2"/>
       <c r="I11" s="66"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="65"/>
       <c r="D12" s="66"/>
       <c r="H12" s="2"/>
       <c r="I12" s="66"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="65"/>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"comparative model, experimental model, integrative model, ab initio model, other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"rigid, flexible"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"atomistic, sphere, gaussian, other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>"by-atom, by-residue, multi-residue, by-feature"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5:S1048576" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>dataset_list_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576" xr:uid="{00000000-0002-0000-0700-000005000000}">
       <formula1>entity_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T1048576" xr:uid="{00000000-0002-0000-0700-000006000000}">
       <formula1>external_file_id</formula1>
     </dataValidation>
   </dataValidations>
@@ -34314,146 +34315,146 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="A5:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="20" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>662</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>663</v>
-      </c>
       <c r="D2" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>750</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>751</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>753</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>754</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>755</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>756</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>757</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>108</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Length of the shorter sequence, Number of aligned positions (including gaps), Number of aligned residue pairs (not including gaps), Arithmetic mean sequence length, Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>dataset_list_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>external_file_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>starting_model_id</formula1>
     </dataValidation>
   </dataValidations>

--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\HankeC\work\for_PDB\excel2mmcif\20230216_excel2mmcif_devel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96BD60F-6C16-4354-AF19-92E100BE6F84}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D3C7E-764C-4093-86BB-947BB19D60E8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="730" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="FLR_FPS_global_parameters" sheetId="12" r:id="rId19"/>
     <sheet name="FLR_FRET_Model_distances" sheetId="10" r:id="rId20"/>
     <sheet name="FLR_FRET_Model_quality" sheetId="11" r:id="rId21"/>
-    <sheet name="for_internal_use_only" sheetId="9" state="hidden" r:id="rId22"/>
+    <sheet name="for_internal_use_only" sheetId="9" r:id="rId22"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId23"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="1052">
   <si>
     <t>Model number</t>
   </si>
@@ -3233,6 +3233,12 @@
   </si>
   <si>
     <t>Template version 1.7</t>
+  </si>
+  <si>
+    <t>Details to the entity</t>
+  </si>
+  <si>
+    <t>IHM_Entity_Details</t>
   </si>
 </sst>
 </file>
@@ -4120,7 +4126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4680,8 +4686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6545FA9F-C6C2-4E87-B2EB-B4FD5F65A797}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4970,7 +4976,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5:S1048576" xr:uid="{C3A6B921-5A59-4547-9255-298A5C393A71}">
       <formula1>equilibrium_constant_determination_method</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W5:Z1048576" xr:uid="{A2F2019D-5CF7-48CB-A91F-547563EAF574}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W5:W1048576 Y5:Z1048576" xr:uid="{A2F2019D-5CF7-48CB-A91F-547563EAF574}">
       <formula1>FRET_analysis_ID</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1048576" xr:uid="{78C3D310-8E54-4E07-B4AF-023C7E249E21}">
@@ -32728,8 +32734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -33008,8 +33014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K23"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -33374,7 +33380,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -33494,10 +33500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -33509,21 +33515,22 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="21.09765625" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" customWidth="1"/>
-    <col min="9" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="21.5" customWidth="1"/>
-    <col min="13" max="13" width="19.19921875" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="18" max="18" width="5.8984375" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="65" customWidth="1"/>
+    <col min="9" max="9" width="19.19921875" customWidth="1"/>
+    <col min="10" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+    <col min="14" max="14" width="19.19921875" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="19" max="19" width="5.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="20" customFormat="1" ht="312" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="20" customFormat="1" ht="312" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -33545,26 +33552,29 @@
       <c r="G2" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="75" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>658</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>659</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>660</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="N2" s="20" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -33586,26 +33596,29 @@
       <c r="G3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>330</v>
       </c>
@@ -33627,174 +33640,211 @@
       <c r="G4" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="70" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="66"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="66"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J5" s="2"/>
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="J6" s="65"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H6" s="66"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="65"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="J7" s="65"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H7" s="66"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="65"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="65"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H8" s="66"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="J9" s="65"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H9" s="66"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="65"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="65"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H10" s="66"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="65"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="65"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H11" s="66"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="65"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="J12" s="65"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H12" s="66"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="65"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H13" s="66"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H14" s="66"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H15" s="66"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="66"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="66"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="66"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="66"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="66"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="66"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="66"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="66"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="66"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="66"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="66"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="66"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="66"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="66"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="66"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="66"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="66"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="66"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="66"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="66"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="66"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="66"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"PDB, PDB-Dev, Model Archive, Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
@@ -33803,7 +33853,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"genetically manipulated source, natural source, synthetic source"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"cyclic-pseudo-peptide,other,peptide nucleic acid,polydeoxyribonucleotide,polydeoxyribonucleotide/polyribonucleotide,polypeptide(D),polypeptide(L),polyribonucleotide,polysaccharide(D),polysaccharide(L),N/A"</formula1>
     </dataValidation>
   </dataValidations>

--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\HankeC\work\for_PDB\excel2mmcif\20230216_excel2mmcif_devel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\excel2mmcif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D3C7E-764C-4093-86BB-947BB19D60E8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12577F2-192E-436F-8900-08807761D0C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="730" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="FLR_FPS_global_parameters" sheetId="12" r:id="rId19"/>
     <sheet name="FLR_FRET_Model_distances" sheetId="10" r:id="rId20"/>
     <sheet name="FLR_FRET_Model_quality" sheetId="11" r:id="rId21"/>
-    <sheet name="for_internal_use_only" sheetId="9" r:id="rId22"/>
+    <sheet name="for_internal_use_only" sheetId="9" state="hidden" r:id="rId22"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId23"/>
@@ -4126,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -32734,8 +32734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -33014,8 +33014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -33503,7 +33503,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -33574,7 +33574,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -33618,7 +33618,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>330</v>
       </c>
@@ -33854,7 +33854,7 @@
       <formula1>"genetically manipulated source, natural source, synthetic source"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576" xr:uid="{00000000-0002-0000-0300-000003000000}">
-      <formula1>"cyclic-pseudo-peptide,other,peptide nucleic acid,polydeoxyribonucleotide,polydeoxyribonucleotide/polyribonucleotide,polypeptide(D),polypeptide(L),polyribonucleotide,polysaccharide(D),polysaccharide(L),N/A"</formula1>
+      <formula1>IHM_entity_polymer_type</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\excel2mmcif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12577F2-192E-436F-8900-08807761D0C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE4ABAC-2001-428A-B057-AC6F2BE556A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4127,7 +4127,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4216,7 +4216,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="N5" sqref="N5:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4375,7 +4375,7 @@
       <c r="O8" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>Software_id</formula1>
     </dataValidation>
@@ -4384,6 +4384,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>structure_assembly_id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1048576 L5:L1048576 M5:M1048576 N5:N1048576" xr:uid="{22403269-A81C-44F4-A819-45E5168EBA16}">
+      <formula1>Yes_no_selection</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\excel2mmcif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\HankeC\work\for_PDB\20230515_excel2mmcif_template_coloring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE4ABAC-2001-428A-B057-AC6F2BE556A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644FA0CE-38A0-479C-AB69-469C79970456}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="730" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="19" r:id="rId1"/>
@@ -34,19 +34,22 @@
     <sheet name="FLR_FPS_global_parameters" sheetId="12" r:id="rId19"/>
     <sheet name="FLR_FRET_Model_distances" sheetId="10" r:id="rId20"/>
     <sheet name="FLR_FRET_Model_quality" sheetId="11" r:id="rId21"/>
-    <sheet name="for_internal_use_only" sheetId="9" state="hidden" r:id="rId22"/>
+    <sheet name="for_internal_use_only" sheetId="9" r:id="rId22"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId23"/>
   </externalReferences>
   <definedNames>
     <definedName name="citation_id">Citation!$A$5:$A$1048576</definedName>
+    <definedName name="Database_enumeration">for_internal_use_only!$L$2:$L$13</definedName>
+    <definedName name="Dataset_enumeration">for_internal_use_only!$K$2:$K$22</definedName>
     <definedName name="Dataset_group_id">Dataset!$C$5:$C$1048576</definedName>
     <definedName name="dataset_list_id">Dataset!$B$5:$B$1048576</definedName>
     <definedName name="Distance_restraint_id">FLR!$CQ$5:$CQ$1048576</definedName>
     <definedName name="Entity_assembly_id">Entity!$C$5:$C$1048576</definedName>
     <definedName name="entity_id">Entity!$B$5:$B$1048576</definedName>
     <definedName name="equilibrium_constant_determination_method">for_internal_use_only!$W$2:$W$4</definedName>
+    <definedName name="External_file_format_enumeration">for_internal_use_only!$N$2:$N$21</definedName>
     <definedName name="external_file_id">External_files!$A$5:$A$1048576</definedName>
     <definedName name="external_reference_id">Dataset!$K$5:$K$1048576</definedName>
     <definedName name="FPS_MPP_group_id">FLR_FPS_MPP_group!$B$5:$B$1048576</definedName>
@@ -83,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="1054">
   <si>
     <t>Model number</t>
   </si>
@@ -3239,6 +3242,12 @@
   </si>
   <si>
     <t>IHM_Entity_Details</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>Dataset Type</t>
   </si>
 </sst>
 </file>
@@ -4126,23 +4135,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -4150,7 +4159,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>2</v>
       </c>
@@ -4158,7 +4167,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>3</v>
       </c>
@@ -4166,7 +4175,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>4</v>
       </c>
@@ -4174,7 +4183,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>5</v>
       </c>
@@ -4182,7 +4191,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>6</v>
       </c>
@@ -4190,7 +4199,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>7</v>
       </c>
@@ -4198,7 +4207,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>8</v>
       </c>
@@ -4219,18 +4228,18 @@
       <selection activeCell="N5" sqref="N5:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="17.19921875" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="20" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="20" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -4277,7 +4286,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -4324,7 +4333,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>387</v>
       </c>
@@ -4371,7 +4380,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O8" s="2"/>
     </row>
   </sheetData>
@@ -4401,14 +4410,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="20" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -4446,7 +4455,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>528</v>
       </c>
@@ -4484,7 +4493,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>537</v>
       </c>
@@ -4555,22 +4564,22 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="21.69921875" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="9" max="9" width="13.69921875" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -4602,7 +4611,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -4634,7 +4643,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="7" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>412</v>
       </c>
@@ -4666,10 +4675,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" s="65"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" s="65"/>
     </row>
   </sheetData>
@@ -4693,33 +4702,33 @@
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.3984375" style="74" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="74" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="74" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="74" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="74" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="81" customWidth="1"/>
-    <col min="11" max="11" width="11.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" customWidth="1"/>
-    <col min="13" max="13" width="12.59765625" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" customWidth="1"/>
-    <col min="15" max="15" width="17.09765625" customWidth="1"/>
-    <col min="16" max="16" width="13.19921875" style="74" customWidth="1"/>
-    <col min="17" max="17" width="17.09765625" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="17.125" customWidth="1"/>
+    <col min="16" max="16" width="13.25" style="74" customWidth="1"/>
+    <col min="17" max="17" width="17.125" customWidth="1"/>
     <col min="23" max="23" width="9" style="74"/>
     <col min="24" max="24" width="9" style="81"/>
     <col min="26" max="26" width="9" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="65" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="75" customFormat="1" ht="203.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="75" customFormat="1" ht="174" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
         <v>641</v>
       </c>
@@ -4799,7 +4808,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="65" customFormat="1" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="65" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>129</v>
       </c>
@@ -4873,7 +4882,7 @@
       </c>
       <c r="Z3" s="89"/>
     </row>
-    <row r="4" spans="1:26" s="70" customFormat="1" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="70" customFormat="1" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
         <v>1005</v>
       </c>
@@ -4953,7 +4962,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="95"/>
       <c r="E5" s="95"/>
       <c r="I5" s="95"/>
@@ -4998,14 +5007,14 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="20" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="20" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -5040,7 +5049,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5075,7 +5084,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>401</v>
       </c>
@@ -5110,13 +5119,13 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
   </sheetData>
@@ -5155,23 +5164,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -5203,7 +5212,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="109.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>580</v>
       </c>
@@ -5235,7 +5244,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>582</v>
       </c>
@@ -5295,11 +5304,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="12" customWidth="1"/>
-    <col min="4" max="5" width="23.19921875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="12" customWidth="1"/>
+    <col min="4" max="5" width="23.25" style="12" customWidth="1"/>
     <col min="6" max="6" width="11" style="18" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11" style="18" customWidth="1"/>
@@ -5328,7 +5337,7 @@
     <col min="72" max="72" width="11" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="83" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:74" s="83" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>895</v>
       </c>
@@ -5346,7 +5355,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="2" spans="1:74" s="16" customFormat="1" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:74" s="16" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>820</v>
       </c>
@@ -5385,7 +5394,7 @@
       </c>
       <c r="BT2" s="17"/>
     </row>
-    <row r="3" spans="1:74" s="33" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:74" s="33" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>641</v>
       </c>
@@ -5609,7 +5618,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="4" spans="1:74" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:74" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>829</v>
       </c>
@@ -5833,7 +5842,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B5" s="56"/>
       <c r="G5" s="65"/>
       <c r="J5" s="56"/>
@@ -5894,7 +5903,7 @@
       <c r="BS5" s="5"/>
       <c r="BU5" s="43"/>
     </row>
-    <row r="6" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="56"/>
       <c r="C6" s="71"/>
       <c r="D6" s="71"/>
@@ -5961,7 +5970,7 @@
       <c r="BT6" s="74"/>
       <c r="BU6" s="78"/>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B7" s="56"/>
       <c r="E7" s="71"/>
       <c r="G7" s="65"/>
@@ -6024,7 +6033,7 @@
       <c r="BS7" s="5"/>
       <c r="BU7" s="43"/>
     </row>
-    <row r="8" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="56"/>
       <c r="C8" s="71"/>
       <c r="D8" s="71"/>
@@ -6091,7 +6100,7 @@
       <c r="BT8" s="74"/>
       <c r="BU8" s="78"/>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="B9" s="56"/>
       <c r="E9" s="71"/>
@@ -6157,7 +6166,7 @@
       <c r="BS9" s="5"/>
       <c r="BU9" s="43"/>
     </row>
-    <row r="10" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="56"/>
       <c r="C10" s="71"/>
       <c r="D10" s="71"/>
@@ -6227,7 +6236,7 @@
       <c r="BT10" s="74"/>
       <c r="BU10" s="78"/>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="B11" s="56"/>
       <c r="E11" s="71"/>
@@ -6256,7 +6265,7 @@
       <c r="BP11" s="5"/>
       <c r="BU11" s="43"/>
     </row>
-    <row r="12" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="56"/>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
@@ -6289,7 +6298,7 @@
       <c r="BT12" s="74"/>
       <c r="BU12" s="78"/>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="56"/>
       <c r="E13" s="71"/>
@@ -6318,7 +6327,7 @@
       <c r="BP13" s="5"/>
       <c r="BU13" s="43"/>
     </row>
-    <row r="14" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="56"/>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -6351,7 +6360,7 @@
       <c r="BT14" s="74"/>
       <c r="BU14" s="78"/>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="B15" s="56"/>
       <c r="E15" s="71"/>
@@ -6380,7 +6389,7 @@
       <c r="BP15" s="5"/>
       <c r="BU15" s="43"/>
     </row>
-    <row r="16" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="56"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
@@ -6413,7 +6422,7 @@
       <c r="BT16" s="74"/>
       <c r="BU16" s="78"/>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
       <c r="B17" s="56"/>
       <c r="E17" s="71"/>
@@ -6442,7 +6451,7 @@
       <c r="BP17" s="5"/>
       <c r="BU17" s="43"/>
     </row>
-    <row r="18" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="56"/>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
@@ -6475,7 +6484,7 @@
       <c r="BT18" s="74"/>
       <c r="BU18" s="78"/>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A19" s="65"/>
       <c r="B19" s="56"/>
       <c r="E19" s="71"/>
@@ -6504,7 +6513,7 @@
       <c r="BP19" s="5"/>
       <c r="BU19" s="43"/>
     </row>
-    <row r="20" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="56"/>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
@@ -6537,7 +6546,7 @@
       <c r="BT20" s="74"/>
       <c r="BU20" s="78"/>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
       <c r="B21" s="56"/>
       <c r="E21" s="71"/>
@@ -6566,7 +6575,7 @@
       <c r="BP21" s="5"/>
       <c r="BU21" s="43"/>
     </row>
-    <row r="22" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="56"/>
       <c r="C22" s="71"/>
       <c r="D22" s="71"/>
@@ -6599,7 +6608,7 @@
       <c r="BT22" s="74"/>
       <c r="BU22" s="78"/>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
       <c r="B23" s="56"/>
       <c r="C23"/>
@@ -6629,7 +6638,7 @@
       <c r="BP23" s="5"/>
       <c r="BU23" s="43"/>
     </row>
-    <row r="24" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="56"/>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
@@ -6661,7 +6670,7 @@
       <c r="BT24" s="74"/>
       <c r="BU24" s="78"/>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A25" s="65"/>
       <c r="B25" s="56"/>
       <c r="C25"/>
@@ -6691,7 +6700,7 @@
       <c r="BP25" s="5"/>
       <c r="BU25" s="43"/>
     </row>
-    <row r="26" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="56"/>
       <c r="D26" s="71"/>
       <c r="E26" s="71"/>
@@ -6723,7 +6732,7 @@
       <c r="BT26" s="74"/>
       <c r="BU26" s="78"/>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A27" s="65"/>
       <c r="B27" s="56"/>
       <c r="C27"/>
@@ -6753,7 +6762,7 @@
       <c r="BP27" s="5"/>
       <c r="BU27" s="43"/>
     </row>
-    <row r="28" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="56"/>
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
@@ -6785,7 +6794,7 @@
       <c r="BT28" s="74"/>
       <c r="BU28" s="78"/>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A29" s="65"/>
       <c r="B29" s="56"/>
       <c r="C29"/>
@@ -6815,7 +6824,7 @@
       <c r="BP29" s="5"/>
       <c r="BU29" s="43"/>
     </row>
-    <row r="30" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="56"/>
       <c r="D30" s="71"/>
       <c r="E30" s="71"/>
@@ -6847,7 +6856,7 @@
       <c r="BT30" s="74"/>
       <c r="BU30" s="78"/>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A31" s="65"/>
       <c r="B31" s="56"/>
       <c r="C31"/>
@@ -6877,7 +6886,7 @@
       <c r="BP31" s="5"/>
       <c r="BU31" s="43"/>
     </row>
-    <row r="32" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="56"/>
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
@@ -6909,7 +6918,7 @@
       <c r="BT32" s="74"/>
       <c r="BU32" s="78"/>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A33" s="65"/>
       <c r="B33" s="56"/>
       <c r="C33"/>
@@ -6939,7 +6948,7 @@
       <c r="BP33" s="5"/>
       <c r="BU33" s="43"/>
     </row>
-    <row r="34" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="56"/>
       <c r="D34" s="71"/>
       <c r="E34" s="71"/>
@@ -6971,7 +6980,7 @@
       <c r="BT34" s="74"/>
       <c r="BU34" s="78"/>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A35" s="65"/>
       <c r="B35" s="56"/>
       <c r="C35"/>
@@ -7001,7 +7010,7 @@
       <c r="BP35" s="5"/>
       <c r="BU35" s="43"/>
     </row>
-    <row r="36" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="56"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
@@ -7033,7 +7042,7 @@
       <c r="BT36" s="74"/>
       <c r="BU36" s="78"/>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A37" s="65"/>
       <c r="B37" s="56"/>
       <c r="C37"/>
@@ -7063,7 +7072,7 @@
       <c r="BP37" s="5"/>
       <c r="BU37" s="43"/>
     </row>
-    <row r="38" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="56"/>
       <c r="D38" s="71"/>
       <c r="E38" s="71"/>
@@ -7095,7 +7104,7 @@
       <c r="BT38" s="74"/>
       <c r="BU38" s="78"/>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A39" s="65"/>
       <c r="B39" s="56"/>
       <c r="C39"/>
@@ -7125,7 +7134,7 @@
       <c r="BP39" s="5"/>
       <c r="BU39" s="43"/>
     </row>
-    <row r="40" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="56"/>
       <c r="D40" s="71"/>
       <c r="E40" s="71"/>
@@ -7157,7 +7166,7 @@
       <c r="BT40" s="74"/>
       <c r="BU40" s="78"/>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A41" s="65"/>
       <c r="B41" s="56"/>
       <c r="C41"/>
@@ -7187,7 +7196,7 @@
       <c r="BP41" s="5"/>
       <c r="BU41" s="43"/>
     </row>
-    <row r="42" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="56"/>
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
@@ -7219,7 +7228,7 @@
       <c r="BT42" s="74"/>
       <c r="BU42" s="78"/>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A43" s="65"/>
       <c r="B43" s="56"/>
       <c r="C43"/>
@@ -7249,7 +7258,7 @@
       <c r="BP43" s="5"/>
       <c r="BU43" s="43"/>
     </row>
-    <row r="44" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="56"/>
       <c r="D44" s="71"/>
       <c r="E44" s="71"/>
@@ -7281,7 +7290,7 @@
       <c r="BT44" s="74"/>
       <c r="BU44" s="78"/>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A45" s="65"/>
       <c r="B45" s="56"/>
       <c r="C45"/>
@@ -7311,7 +7320,7 @@
       <c r="BP45" s="5"/>
       <c r="BU45" s="43"/>
     </row>
-    <row r="46" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="56"/>
       <c r="D46" s="71"/>
       <c r="E46" s="71"/>
@@ -7343,7 +7352,7 @@
       <c r="BT46" s="74"/>
       <c r="BU46" s="78"/>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A47" s="65"/>
       <c r="B47" s="56"/>
       <c r="C47"/>
@@ -7373,7 +7382,7 @@
       <c r="BP47" s="5"/>
       <c r="BU47" s="43"/>
     </row>
-    <row r="48" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="56"/>
       <c r="D48" s="71"/>
       <c r="E48" s="71"/>
@@ -7405,7 +7414,7 @@
       <c r="BT48" s="74"/>
       <c r="BU48" s="78"/>
     </row>
-    <row r="49" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A49" s="65"/>
       <c r="B49" s="56"/>
       <c r="C49"/>
@@ -7435,7 +7444,7 @@
       <c r="BP49" s="5"/>
       <c r="BU49" s="43"/>
     </row>
-    <row r="50" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="56"/>
       <c r="D50" s="71"/>
       <c r="E50" s="71"/>
@@ -7467,7 +7476,7 @@
       <c r="BT50" s="74"/>
       <c r="BU50" s="78"/>
     </row>
-    <row r="51" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A51" s="65"/>
       <c r="B51" s="56"/>
       <c r="C51"/>
@@ -7497,7 +7506,7 @@
       <c r="BP51" s="5"/>
       <c r="BU51" s="43"/>
     </row>
-    <row r="52" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="56"/>
       <c r="D52" s="71"/>
       <c r="E52" s="71"/>
@@ -7529,7 +7538,7 @@
       <c r="BT52" s="74"/>
       <c r="BU52" s="78"/>
     </row>
-    <row r="53" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A53" s="65"/>
       <c r="B53" s="56"/>
       <c r="C53"/>
@@ -7559,7 +7568,7 @@
       <c r="BP53" s="5"/>
       <c r="BU53" s="43"/>
     </row>
-    <row r="54" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="56"/>
       <c r="D54" s="71"/>
       <c r="E54" s="71"/>
@@ -7591,7 +7600,7 @@
       <c r="BT54" s="74"/>
       <c r="BU54" s="78"/>
     </row>
-    <row r="55" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A55" s="65"/>
       <c r="B55" s="56"/>
       <c r="C55"/>
@@ -7621,7 +7630,7 @@
       <c r="BP55" s="5"/>
       <c r="BU55" s="43"/>
     </row>
-    <row r="56" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="56"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
@@ -7653,7 +7662,7 @@
       <c r="BT56" s="74"/>
       <c r="BU56" s="78"/>
     </row>
-    <row r="57" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A57" s="65"/>
       <c r="B57" s="56"/>
       <c r="C57"/>
@@ -7683,7 +7692,7 @@
       <c r="BP57" s="5"/>
       <c r="BU57" s="43"/>
     </row>
-    <row r="58" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="56"/>
       <c r="D58" s="71"/>
       <c r="E58" s="71"/>
@@ -7715,7 +7724,7 @@
       <c r="BT58" s="74"/>
       <c r="BU58" s="78"/>
     </row>
-    <row r="59" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A59" s="65"/>
       <c r="B59" s="56"/>
       <c r="C59"/>
@@ -7745,7 +7754,7 @@
       <c r="BP59" s="5"/>
       <c r="BU59" s="43"/>
     </row>
-    <row r="60" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="56"/>
       <c r="D60" s="71"/>
       <c r="E60" s="71"/>
@@ -7777,7 +7786,7 @@
       <c r="BT60" s="74"/>
       <c r="BU60" s="78"/>
     </row>
-    <row r="61" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A61" s="65"/>
       <c r="B61" s="56"/>
       <c r="C61"/>
@@ -7807,7 +7816,7 @@
       <c r="BP61" s="5"/>
       <c r="BU61" s="43"/>
     </row>
-    <row r="62" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="56"/>
       <c r="D62" s="71"/>
       <c r="E62" s="71"/>
@@ -7839,7 +7848,7 @@
       <c r="BT62" s="74"/>
       <c r="BU62" s="78"/>
     </row>
-    <row r="63" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A63" s="65"/>
       <c r="B63" s="56"/>
       <c r="C63"/>
@@ -7869,7 +7878,7 @@
       <c r="BP63" s="5"/>
       <c r="BU63" s="43"/>
     </row>
-    <row r="64" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="56"/>
       <c r="D64" s="71"/>
       <c r="E64" s="71"/>
@@ -7901,7 +7910,7 @@
       <c r="BT64" s="74"/>
       <c r="BU64" s="78"/>
     </row>
-    <row r="65" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A65" s="65"/>
       <c r="B65" s="56"/>
       <c r="C65"/>
@@ -7931,7 +7940,7 @@
       <c r="BP65" s="5"/>
       <c r="BU65" s="43"/>
     </row>
-    <row r="66" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="56"/>
       <c r="D66" s="71"/>
       <c r="E66" s="71"/>
@@ -7963,7 +7972,7 @@
       <c r="BT66" s="74"/>
       <c r="BU66" s="78"/>
     </row>
-    <row r="67" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A67" s="65"/>
       <c r="B67" s="56"/>
       <c r="C67"/>
@@ -7993,7 +8002,7 @@
       <c r="BP67" s="5"/>
       <c r="BU67" s="43"/>
     </row>
-    <row r="68" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="56"/>
       <c r="D68" s="71"/>
       <c r="E68" s="71"/>
@@ -8025,7 +8034,7 @@
       <c r="BT68" s="74"/>
       <c r="BU68" s="78"/>
     </row>
-    <row r="69" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A69" s="65"/>
       <c r="B69" s="56"/>
       <c r="C69"/>
@@ -8055,7 +8064,7 @@
       <c r="BP69" s="5"/>
       <c r="BU69" s="43"/>
     </row>
-    <row r="70" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="56"/>
       <c r="D70" s="71"/>
       <c r="E70" s="71"/>
@@ -8087,42 +8096,42 @@
       <c r="BT70" s="74"/>
       <c r="BU70" s="78"/>
     </row>
-    <row r="71" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y71" s="69"/>
       <c r="BK71" s="63"/>
     </row>
-    <row r="72" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y72" s="69"/>
       <c r="BK72" s="64"/>
     </row>
-    <row r="73" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y73" s="69"/>
     </row>
-    <row r="74" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y74" s="69"/>
     </row>
-    <row r="75" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y75" s="69"/>
     </row>
-    <row r="76" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y76" s="69"/>
     </row>
-    <row r="77" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y77" s="69"/>
     </row>
-    <row r="78" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y78" s="69"/>
     </row>
-    <row r="79" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y79" s="69"/>
     </row>
-    <row r="80" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y80" s="69"/>
     </row>
-    <row r="81" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y81" s="69"/>
     </row>
-    <row r="82" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y82" s="69"/>
     </row>
   </sheetData>
@@ -8167,14 +8176,14 @@
       <selection activeCell="BR4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="11" style="18"/>
     <col min="3" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="11" style="18" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.8984375" style="57" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="57" customWidth="1"/>
     <col min="8" max="10" width="11" customWidth="1"/>
     <col min="11" max="12" width="11" style="32" customWidth="1"/>
     <col min="13" max="13" width="11" style="18" customWidth="1"/>
@@ -8220,7 +8229,7 @@
     <col min="128" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:127" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>791</v>
       </c>
@@ -8259,7 +8268,7 @@
       <c r="DO1" s="24"/>
       <c r="DW1" s="24"/>
     </row>
-    <row r="2" spans="1:127" s="7" customFormat="1" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:127" s="7" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>775</v>
       </c>
@@ -8425,7 +8434,7 @@
       </c>
       <c r="DW2" s="19"/>
     </row>
-    <row r="3" spans="1:127" s="21" customFormat="1" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:127" s="21" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>641</v>
       </c>
@@ -8799,7 +8808,7 @@
       </c>
       <c r="DW3" s="24"/>
     </row>
-    <row r="4" spans="1:127" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:127" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>245</v>
       </c>
@@ -9175,7 +9184,7 @@
       </c>
       <c r="DW4" s="19"/>
     </row>
-    <row r="5" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -9291,7 +9300,7 @@
       <c r="DM5" s="5"/>
       <c r="DN5" s="5"/>
     </row>
-    <row r="6" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -9408,7 +9417,7 @@
       <c r="DM6" s="5"/>
       <c r="DN6" s="5"/>
     </row>
-    <row r="7" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -9525,7 +9534,7 @@
       <c r="DM7" s="5"/>
       <c r="DN7" s="5"/>
     </row>
-    <row r="8" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -9642,7 +9651,7 @@
       <c r="DM8" s="5"/>
       <c r="DN8" s="5"/>
     </row>
-    <row r="9" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -9759,7 +9768,7 @@
       <c r="DM9" s="5"/>
       <c r="DN9" s="5"/>
     </row>
-    <row r="10" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -9876,7 +9885,7 @@
       <c r="DM10" s="5"/>
       <c r="DN10" s="5"/>
     </row>
-    <row r="11" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -9993,7 +10002,7 @@
       <c r="DM11" s="5"/>
       <c r="DN11" s="5"/>
     </row>
-    <row r="12" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -10110,7 +10119,7 @@
       <c r="DM12" s="5"/>
       <c r="DN12" s="5"/>
     </row>
-    <row r="13" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -10227,7 +10236,7 @@
       <c r="DM13" s="5"/>
       <c r="DN13" s="5"/>
     </row>
-    <row r="14" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -10344,7 +10353,7 @@
       <c r="DM14" s="5"/>
       <c r="DN14" s="5"/>
     </row>
-    <row r="15" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -10461,7 +10470,7 @@
       <c r="DM15" s="5"/>
       <c r="DN15" s="5"/>
     </row>
-    <row r="16" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -10578,7 +10587,7 @@
       <c r="DM16" s="5"/>
       <c r="DN16" s="5"/>
     </row>
-    <row r="17" spans="1:118" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:118" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -10695,7 +10704,7 @@
       <c r="DM17" s="5"/>
       <c r="DN17" s="5"/>
     </row>
-    <row r="18" spans="1:118" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:118" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -10812,7 +10821,7 @@
       <c r="DM18" s="5"/>
       <c r="DN18" s="5"/>
     </row>
-    <row r="19" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -10929,7 +10938,7 @@
       <c r="DM19" s="5"/>
       <c r="DN19" s="5"/>
     </row>
-    <row r="20" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -11046,7 +11055,7 @@
       <c r="DM20" s="5"/>
       <c r="DN20" s="5"/>
     </row>
-    <row r="21" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -11163,7 +11172,7 @@
       <c r="DM21" s="5"/>
       <c r="DN21" s="5"/>
     </row>
-    <row r="22" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -11280,7 +11289,7 @@
       <c r="DM22" s="5"/>
       <c r="DN22" s="5"/>
     </row>
-    <row r="23" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -11397,7 +11406,7 @@
       <c r="DM23" s="5"/>
       <c r="DN23" s="5"/>
     </row>
-    <row r="24" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -11514,7 +11523,7 @@
       <c r="DM24" s="5"/>
       <c r="DN24" s="5"/>
     </row>
-    <row r="25" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -11631,7 +11640,7 @@
       <c r="DM25" s="5"/>
       <c r="DN25" s="5"/>
     </row>
-    <row r="26" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -11748,7 +11757,7 @@
       <c r="DM26" s="5"/>
       <c r="DN26" s="5"/>
     </row>
-    <row r="27" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -11865,7 +11874,7 @@
       <c r="DM27" s="5"/>
       <c r="DN27" s="5"/>
     </row>
-    <row r="28" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -11982,7 +11991,7 @@
       <c r="DM28" s="5"/>
       <c r="DN28" s="5"/>
     </row>
-    <row r="29" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -12099,7 +12108,7 @@
       <c r="DM29" s="5"/>
       <c r="DN29" s="5"/>
     </row>
-    <row r="30" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -12216,7 +12225,7 @@
       <c r="DM30" s="5"/>
       <c r="DN30" s="5"/>
     </row>
-    <row r="31" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -12333,7 +12342,7 @@
       <c r="DM31" s="5"/>
       <c r="DN31" s="5"/>
     </row>
-    <row r="32" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -12450,7 +12459,7 @@
       <c r="DM32" s="5"/>
       <c r="DN32" s="5"/>
     </row>
-    <row r="33" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -12567,7 +12576,7 @@
       <c r="DM33" s="5"/>
       <c r="DN33" s="5"/>
     </row>
-    <row r="34" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -12684,7 +12693,7 @@
       <c r="DM34" s="5"/>
       <c r="DN34" s="5"/>
     </row>
-    <row r="35" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -12801,7 +12810,7 @@
       <c r="DM35" s="5"/>
       <c r="DN35" s="5"/>
     </row>
-    <row r="36" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -12918,7 +12927,7 @@
       <c r="DM36" s="5"/>
       <c r="DN36" s="5"/>
     </row>
-    <row r="37" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -13035,7 +13044,7 @@
       <c r="DM37" s="5"/>
       <c r="DN37" s="5"/>
     </row>
-    <row r="38" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -13152,7 +13161,7 @@
       <c r="DM38" s="5"/>
       <c r="DN38" s="5"/>
     </row>
-    <row r="39" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -13269,7 +13278,7 @@
       <c r="DM39" s="5"/>
       <c r="DN39" s="5"/>
     </row>
-    <row r="40" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -13386,7 +13395,7 @@
       <c r="DM40" s="5"/>
       <c r="DN40" s="5"/>
     </row>
-    <row r="41" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -13503,7 +13512,7 @@
       <c r="DM41" s="5"/>
       <c r="DN41" s="5"/>
     </row>
-    <row r="42" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -13620,7 +13629,7 @@
       <c r="DM42" s="5"/>
       <c r="DN42" s="5"/>
     </row>
-    <row r="43" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -13737,7 +13746,7 @@
       <c r="DM43" s="5"/>
       <c r="DN43" s="5"/>
     </row>
-    <row r="44" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -13854,7 +13863,7 @@
       <c r="DM44" s="5"/>
       <c r="DN44" s="5"/>
     </row>
-    <row r="45" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -13971,7 +13980,7 @@
       <c r="DM45" s="5"/>
       <c r="DN45" s="5"/>
     </row>
-    <row r="46" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -14088,7 +14097,7 @@
       <c r="DM46" s="5"/>
       <c r="DN46" s="5"/>
     </row>
-    <row r="47" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -14205,7 +14214,7 @@
       <c r="DM47" s="5"/>
       <c r="DN47" s="5"/>
     </row>
-    <row r="48" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -14322,7 +14331,7 @@
       <c r="DM48" s="5"/>
       <c r="DN48" s="5"/>
     </row>
-    <row r="49" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -14439,7 +14448,7 @@
       <c r="DM49" s="5"/>
       <c r="DN49" s="5"/>
     </row>
-    <row r="50" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -14556,7 +14565,7 @@
       <c r="DM50" s="5"/>
       <c r="DN50" s="5"/>
     </row>
-    <row r="51" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -14673,7 +14682,7 @@
       <c r="DM51" s="5"/>
       <c r="DN51" s="5"/>
     </row>
-    <row r="52" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -14790,7 +14799,7 @@
       <c r="DM52" s="5"/>
       <c r="DN52" s="5"/>
     </row>
-    <row r="53" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -14907,7 +14916,7 @@
       <c r="DM53" s="5"/>
       <c r="DN53" s="5"/>
     </row>
-    <row r="54" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
@@ -15024,7 +15033,7 @@
       <c r="DM54" s="5"/>
       <c r="DN54" s="5"/>
     </row>
-    <row r="55" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -15141,7 +15150,7 @@
       <c r="DM55" s="5"/>
       <c r="DN55" s="5"/>
     </row>
-    <row r="56" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
@@ -15258,7 +15267,7 @@
       <c r="DM56" s="5"/>
       <c r="DN56" s="5"/>
     </row>
-    <row r="57" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -15375,7 +15384,7 @@
       <c r="DM57" s="5"/>
       <c r="DN57" s="5"/>
     </row>
-    <row r="58" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
@@ -15492,7 +15501,7 @@
       <c r="DM58" s="5"/>
       <c r="DN58" s="5"/>
     </row>
-    <row r="59" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
@@ -15609,7 +15618,7 @@
       <c r="DM59" s="5"/>
       <c r="DN59" s="5"/>
     </row>
-    <row r="60" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
@@ -15726,7 +15735,7 @@
       <c r="DM60" s="5"/>
       <c r="DN60" s="5"/>
     </row>
-    <row r="61" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
@@ -15843,7 +15852,7 @@
       <c r="DM61" s="5"/>
       <c r="DN61" s="5"/>
     </row>
-    <row r="62" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
@@ -15960,7 +15969,7 @@
       <c r="DM62" s="5"/>
       <c r="DN62" s="5"/>
     </row>
-    <row r="63" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
@@ -16077,7 +16086,7 @@
       <c r="DM63" s="5"/>
       <c r="DN63" s="5"/>
     </row>
-    <row r="64" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
@@ -16194,7 +16203,7 @@
       <c r="DM64" s="5"/>
       <c r="DN64" s="5"/>
     </row>
-    <row r="65" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -16311,7 +16320,7 @@
       <c r="DM65" s="5"/>
       <c r="DN65" s="5"/>
     </row>
-    <row r="66" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
@@ -16428,7 +16437,7 @@
       <c r="DM66" s="5"/>
       <c r="DN66" s="5"/>
     </row>
-    <row r="67" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -16545,7 +16554,7 @@
       <c r="DM67" s="5"/>
       <c r="DN67" s="5"/>
     </row>
-    <row r="68" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -16662,7 +16671,7 @@
       <c r="DM68" s="5"/>
       <c r="DN68" s="5"/>
     </row>
-    <row r="69" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -16779,7 +16788,7 @@
       <c r="DM69" s="5"/>
       <c r="DN69" s="5"/>
     </row>
-    <row r="70" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -16896,7 +16905,7 @@
       <c r="DM70" s="5"/>
       <c r="DN70" s="5"/>
     </row>
-    <row r="71" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -17013,7 +17022,7 @@
       <c r="DM71" s="5"/>
       <c r="DN71" s="5"/>
     </row>
-    <row r="72" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
@@ -17130,7 +17139,7 @@
       <c r="DM72" s="5"/>
       <c r="DN72" s="5"/>
     </row>
-    <row r="73" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -17247,7 +17256,7 @@
       <c r="DM73" s="5"/>
       <c r="DN73" s="5"/>
     </row>
-    <row r="74" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -17364,7 +17373,7 @@
       <c r="DM74" s="5"/>
       <c r="DN74" s="5"/>
     </row>
-    <row r="75" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -17481,7 +17490,7 @@
       <c r="DM75" s="5"/>
       <c r="DN75" s="5"/>
     </row>
-    <row r="76" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -17598,7 +17607,7 @@
       <c r="DM76" s="5"/>
       <c r="DN76" s="5"/>
     </row>
-    <row r="77" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -17715,7 +17724,7 @@
       <c r="DM77" s="5"/>
       <c r="DN77" s="5"/>
     </row>
-    <row r="78" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -17832,7 +17841,7 @@
       <c r="DM78" s="5"/>
       <c r="DN78" s="5"/>
     </row>
-    <row r="79" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
@@ -17949,7 +17958,7 @@
       <c r="DM79" s="5"/>
       <c r="DN79" s="5"/>
     </row>
-    <row r="80" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
@@ -18066,7 +18075,7 @@
       <c r="DM80" s="5"/>
       <c r="DN80" s="5"/>
     </row>
-    <row r="81" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -18183,7 +18192,7 @@
       <c r="DM81" s="5"/>
       <c r="DN81" s="5"/>
     </row>
-    <row r="82" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
@@ -18300,7 +18309,7 @@
       <c r="DM82" s="5"/>
       <c r="DN82" s="5"/>
     </row>
-    <row r="83" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
@@ -18417,7 +18426,7 @@
       <c r="DM83" s="5"/>
       <c r="DN83" s="5"/>
     </row>
-    <row r="84" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
@@ -18534,7 +18543,7 @@
       <c r="DM84" s="5"/>
       <c r="DN84" s="5"/>
     </row>
-    <row r="85" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
@@ -18651,7 +18660,7 @@
       <c r="DM85" s="5"/>
       <c r="DN85" s="5"/>
     </row>
-    <row r="86" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
@@ -18768,7 +18777,7 @@
       <c r="DM86" s="5"/>
       <c r="DN86" s="5"/>
     </row>
-    <row r="87" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
@@ -18885,7 +18894,7 @@
       <c r="DM87" s="5"/>
       <c r="DN87" s="5"/>
     </row>
-    <row r="88" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
@@ -19002,7 +19011,7 @@
       <c r="DM88" s="5"/>
       <c r="DN88" s="5"/>
     </row>
-    <row r="89" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
@@ -19119,7 +19128,7 @@
       <c r="DM89" s="5"/>
       <c r="DN89" s="5"/>
     </row>
-    <row r="90" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
@@ -19236,7 +19245,7 @@
       <c r="DM90" s="5"/>
       <c r="DN90" s="5"/>
     </row>
-    <row r="91" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="4"/>
       <c r="C91" s="5"/>
@@ -19353,7 +19362,7 @@
       <c r="DM91" s="5"/>
       <c r="DN91" s="5"/>
     </row>
-    <row r="92" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="4"/>
       <c r="C92" s="5"/>
@@ -19470,7 +19479,7 @@
       <c r="DM92" s="5"/>
       <c r="DN92" s="5"/>
     </row>
-    <row r="93" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="4"/>
       <c r="C93" s="5"/>
@@ -19587,7 +19596,7 @@
       <c r="DM93" s="5"/>
       <c r="DN93" s="5"/>
     </row>
-    <row r="94" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
@@ -19704,7 +19713,7 @@
       <c r="DM94" s="5"/>
       <c r="DN94" s="5"/>
     </row>
-    <row r="95" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="4"/>
       <c r="C95" s="5"/>
@@ -19821,7 +19830,7 @@
       <c r="DM95" s="5"/>
       <c r="DN95" s="5"/>
     </row>
-    <row r="96" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="4"/>
       <c r="C96" s="5"/>
@@ -19938,7 +19947,7 @@
       <c r="DM96" s="5"/>
       <c r="DN96" s="5"/>
     </row>
-    <row r="97" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="4"/>
       <c r="C97" s="5"/>
@@ -20055,7 +20064,7 @@
       <c r="DM97" s="5"/>
       <c r="DN97" s="5"/>
     </row>
-    <row r="98" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="4"/>
       <c r="C98" s="5"/>
@@ -20172,7 +20181,7 @@
       <c r="DM98" s="5"/>
       <c r="DN98" s="5"/>
     </row>
-    <row r="99" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="4"/>
       <c r="C99" s="5"/>
@@ -20289,7 +20298,7 @@
       <c r="DM99" s="5"/>
       <c r="DN99" s="5"/>
     </row>
-    <row r="100" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="4"/>
       <c r="C100" s="5"/>
@@ -20406,7 +20415,7 @@
       <c r="DM100" s="5"/>
       <c r="DN100" s="5"/>
     </row>
-    <row r="101" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
@@ -20523,7 +20532,7 @@
       <c r="DM101" s="5"/>
       <c r="DN101" s="5"/>
     </row>
-    <row r="102" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
@@ -20640,7 +20649,7 @@
       <c r="DM102" s="5"/>
       <c r="DN102" s="5"/>
     </row>
-    <row r="103" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
@@ -20757,7 +20766,7 @@
       <c r="DM103" s="5"/>
       <c r="DN103" s="5"/>
     </row>
-    <row r="104" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
@@ -20874,7 +20883,7 @@
       <c r="DM104" s="5"/>
       <c r="DN104" s="5"/>
     </row>
-    <row r="105" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
@@ -20991,7 +21000,7 @@
       <c r="DM105" s="5"/>
       <c r="DN105" s="5"/>
     </row>
-    <row r="106" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
@@ -21108,7 +21117,7 @@
       <c r="DM106" s="5"/>
       <c r="DN106" s="5"/>
     </row>
-    <row r="107" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
@@ -21225,7 +21234,7 @@
       <c r="DM107" s="5"/>
       <c r="DN107" s="5"/>
     </row>
-    <row r="108" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
@@ -21342,7 +21351,7 @@
       <c r="DM108" s="5"/>
       <c r="DN108" s="5"/>
     </row>
-    <row r="109" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -21459,7 +21468,7 @@
       <c r="DM109" s="5"/>
       <c r="DN109" s="5"/>
     </row>
-    <row r="110" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
@@ -21576,7 +21585,7 @@
       <c r="DM110" s="5"/>
       <c r="DN110" s="5"/>
     </row>
-    <row r="111" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -21693,7 +21702,7 @@
       <c r="DM111" s="5"/>
       <c r="DN111" s="5"/>
     </row>
-    <row r="112" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -21810,7 +21819,7 @@
       <c r="DM112" s="5"/>
       <c r="DN112" s="5"/>
     </row>
-    <row r="113" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
@@ -21927,7 +21936,7 @@
       <c r="DM113" s="5"/>
       <c r="DN113" s="5"/>
     </row>
-    <row r="114" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
@@ -22044,7 +22053,7 @@
       <c r="DM114" s="5"/>
       <c r="DN114" s="5"/>
     </row>
-    <row r="115" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
@@ -22161,7 +22170,7 @@
       <c r="DM115" s="5"/>
       <c r="DN115" s="5"/>
     </row>
-    <row r="116" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
@@ -22278,7 +22287,7 @@
       <c r="DM116" s="5"/>
       <c r="DN116" s="5"/>
     </row>
-    <row r="117" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
@@ -22395,7 +22404,7 @@
       <c r="DM117" s="5"/>
       <c r="DN117" s="5"/>
     </row>
-    <row r="118" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="4"/>
       <c r="C118" s="5"/>
@@ -22512,7 +22521,7 @@
       <c r="DM118" s="5"/>
       <c r="DN118" s="5"/>
     </row>
-    <row r="119" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="4"/>
       <c r="C119" s="5"/>
@@ -22629,7 +22638,7 @@
       <c r="DM119" s="5"/>
       <c r="DN119" s="5"/>
     </row>
-    <row r="120" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="4"/>
       <c r="C120" s="5"/>
@@ -22746,7 +22755,7 @@
       <c r="DM120" s="5"/>
       <c r="DN120" s="5"/>
     </row>
-    <row r="121" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="4"/>
       <c r="C121" s="5"/>
@@ -22863,7 +22872,7 @@
       <c r="DM121" s="5"/>
       <c r="DN121" s="5"/>
     </row>
-    <row r="122" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="4"/>
       <c r="C122" s="5"/>
@@ -22980,7 +22989,7 @@
       <c r="DM122" s="5"/>
       <c r="DN122" s="5"/>
     </row>
-    <row r="123" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="4"/>
       <c r="C123" s="5"/>
@@ -23097,7 +23106,7 @@
       <c r="DM123" s="5"/>
       <c r="DN123" s="5"/>
     </row>
-    <row r="124" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="4"/>
       <c r="C124" s="5"/>
@@ -23214,7 +23223,7 @@
       <c r="DM124" s="5"/>
       <c r="DN124" s="5"/>
     </row>
-    <row r="125" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
@@ -23331,7 +23340,7 @@
       <c r="DM125" s="5"/>
       <c r="DN125" s="5"/>
     </row>
-    <row r="126" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
@@ -23448,7 +23457,7 @@
       <c r="DM126" s="5"/>
       <c r="DN126" s="5"/>
     </row>
-    <row r="127" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
@@ -23565,7 +23574,7 @@
       <c r="DM127" s="5"/>
       <c r="DN127" s="5"/>
     </row>
-    <row r="128" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="4"/>
       <c r="C128" s="5"/>
@@ -23682,7 +23691,7 @@
       <c r="DM128" s="5"/>
       <c r="DN128" s="5"/>
     </row>
-    <row r="129" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
@@ -23799,7 +23808,7 @@
       <c r="DM129" s="5"/>
       <c r="DN129" s="5"/>
     </row>
-    <row r="130" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="4"/>
       <c r="C130" s="5"/>
@@ -23916,7 +23925,7 @@
       <c r="DM130" s="5"/>
       <c r="DN130" s="5"/>
     </row>
-    <row r="131" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
@@ -24033,7 +24042,7 @@
       <c r="DM131" s="5"/>
       <c r="DN131" s="5"/>
     </row>
-    <row r="132" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="4"/>
       <c r="C132" s="5"/>
@@ -24150,7 +24159,7 @@
       <c r="DM132" s="5"/>
       <c r="DN132" s="5"/>
     </row>
-    <row r="133" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
@@ -24267,7 +24276,7 @@
       <c r="DM133" s="5"/>
       <c r="DN133" s="5"/>
     </row>
-    <row r="134" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="4"/>
       <c r="C134" s="5"/>
@@ -24384,7 +24393,7 @@
       <c r="DM134" s="5"/>
       <c r="DN134" s="5"/>
     </row>
-    <row r="135" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="4"/>
       <c r="C135" s="5"/>
@@ -24501,7 +24510,7 @@
       <c r="DM135" s="5"/>
       <c r="DN135" s="5"/>
     </row>
-    <row r="136" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="4"/>
       <c r="C136" s="5"/>
@@ -24618,7 +24627,7 @@
       <c r="DM136" s="5"/>
       <c r="DN136" s="5"/>
     </row>
-    <row r="137" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="4"/>
       <c r="C137" s="5"/>
@@ -24735,7 +24744,7 @@
       <c r="DM137" s="5"/>
       <c r="DN137" s="5"/>
     </row>
-    <row r="138" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="4"/>
       <c r="C138" s="5"/>
@@ -24852,7 +24861,7 @@
       <c r="DM138" s="5"/>
       <c r="DN138" s="5"/>
     </row>
-    <row r="139" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="4"/>
       <c r="C139" s="5"/>
@@ -24969,7 +24978,7 @@
       <c r="DM139" s="5"/>
       <c r="DN139" s="5"/>
     </row>
-    <row r="140" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="4"/>
       <c r="C140" s="5"/>
@@ -25086,7 +25095,7 @@
       <c r="DM140" s="5"/>
       <c r="DN140" s="5"/>
     </row>
-    <row r="141" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="4"/>
       <c r="C141" s="5"/>
@@ -25203,7 +25212,7 @@
       <c r="DM141" s="5"/>
       <c r="DN141" s="5"/>
     </row>
-    <row r="142" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="4"/>
       <c r="C142" s="5"/>
@@ -25320,7 +25329,7 @@
       <c r="DM142" s="5"/>
       <c r="DN142" s="5"/>
     </row>
-    <row r="143" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="4"/>
       <c r="C143" s="5"/>
@@ -25437,7 +25446,7 @@
       <c r="DM143" s="5"/>
       <c r="DN143" s="5"/>
     </row>
-    <row r="144" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="4"/>
       <c r="C144" s="5"/>
@@ -25554,7 +25563,7 @@
       <c r="DM144" s="5"/>
       <c r="DN144" s="5"/>
     </row>
-    <row r="145" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
@@ -25671,7 +25680,7 @@
       <c r="DM145" s="5"/>
       <c r="DN145" s="5"/>
     </row>
-    <row r="146" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="4"/>
       <c r="C146" s="5"/>
@@ -25788,7 +25797,7 @@
       <c r="DM146" s="5"/>
       <c r="DN146" s="5"/>
     </row>
-    <row r="147" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="4"/>
       <c r="C147" s="5"/>
@@ -25905,7 +25914,7 @@
       <c r="DM147" s="5"/>
       <c r="DN147" s="5"/>
     </row>
-    <row r="148" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="4"/>
       <c r="C148" s="5"/>
@@ -26022,7 +26031,7 @@
       <c r="DM148" s="5"/>
       <c r="DN148" s="5"/>
     </row>
-    <row r="149" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5"/>
@@ -26139,7 +26148,7 @@
       <c r="DM149" s="5"/>
       <c r="DN149" s="5"/>
     </row>
-    <row r="150" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="4"/>
       <c r="C150" s="5"/>
@@ -26256,7 +26265,7 @@
       <c r="DM150" s="5"/>
       <c r="DN150" s="5"/>
     </row>
-    <row r="151" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="4"/>
       <c r="C151" s="5"/>
@@ -26373,7 +26382,7 @@
       <c r="DM151" s="5"/>
       <c r="DN151" s="5"/>
     </row>
-    <row r="152" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="4"/>
       <c r="C152" s="5"/>
@@ -26490,7 +26499,7 @@
       <c r="DM152" s="5"/>
       <c r="DN152" s="5"/>
     </row>
-    <row r="153" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="4"/>
       <c r="C153" s="5"/>
@@ -26607,7 +26616,7 @@
       <c r="DM153" s="5"/>
       <c r="DN153" s="5"/>
     </row>
-    <row r="154" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="4"/>
       <c r="C154" s="5"/>
@@ -26724,7 +26733,7 @@
       <c r="DM154" s="5"/>
       <c r="DN154" s="5"/>
     </row>
-    <row r="155" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="4"/>
       <c r="C155" s="5"/>
@@ -26841,7 +26850,7 @@
       <c r="DM155" s="5"/>
       <c r="DN155" s="5"/>
     </row>
-    <row r="156" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="4"/>
       <c r="C156" s="5"/>
@@ -26958,7 +26967,7 @@
       <c r="DM156" s="5"/>
       <c r="DN156" s="5"/>
     </row>
-    <row r="157" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="4"/>
       <c r="C157" s="5"/>
@@ -27075,7 +27084,7 @@
       <c r="DM157" s="5"/>
       <c r="DN157" s="5"/>
     </row>
-    <row r="158" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="4"/>
       <c r="C158" s="5"/>
@@ -27192,7 +27201,7 @@
       <c r="DM158" s="5"/>
       <c r="DN158" s="5"/>
     </row>
-    <row r="159" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="4"/>
       <c r="C159" s="5"/>
@@ -27309,7 +27318,7 @@
       <c r="DM159" s="5"/>
       <c r="DN159" s="5"/>
     </row>
-    <row r="160" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="4"/>
       <c r="C160" s="5"/>
@@ -27426,7 +27435,7 @@
       <c r="DM160" s="5"/>
       <c r="DN160" s="5"/>
     </row>
-    <row r="161" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="4"/>
       <c r="C161" s="5"/>
@@ -27543,7 +27552,7 @@
       <c r="DM161" s="5"/>
       <c r="DN161" s="5"/>
     </row>
-    <row r="162" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="4"/>
       <c r="C162" s="5"/>
@@ -27660,7 +27669,7 @@
       <c r="DM162" s="5"/>
       <c r="DN162" s="5"/>
     </row>
-    <row r="163" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="4"/>
       <c r="C163" s="5"/>
@@ -27777,7 +27786,7 @@
       <c r="DM163" s="5"/>
       <c r="DN163" s="5"/>
     </row>
-    <row r="164" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="4"/>
       <c r="C164" s="5"/>
@@ -27894,7 +27903,7 @@
       <c r="DM164" s="5"/>
       <c r="DN164" s="5"/>
     </row>
-    <row r="165" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="4"/>
       <c r="C165" s="5"/>
@@ -28011,7 +28020,7 @@
       <c r="DM165" s="5"/>
       <c r="DN165" s="5"/>
     </row>
-    <row r="166" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="4"/>
       <c r="C166" s="5"/>
@@ -28128,7 +28137,7 @@
       <c r="DM166" s="5"/>
       <c r="DN166" s="5"/>
     </row>
-    <row r="167" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="4"/>
       <c r="C167" s="5"/>
@@ -28245,7 +28254,7 @@
       <c r="DM167" s="5"/>
       <c r="DN167" s="5"/>
     </row>
-    <row r="168" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="4"/>
       <c r="C168" s="5"/>
@@ -28362,7 +28371,7 @@
       <c r="DM168" s="5"/>
       <c r="DN168" s="5"/>
     </row>
-    <row r="169" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="4"/>
       <c r="C169" s="5"/>
@@ -28479,7 +28488,7 @@
       <c r="DM169" s="5"/>
       <c r="DN169" s="5"/>
     </row>
-    <row r="170" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="4"/>
       <c r="C170" s="5"/>
@@ -28596,7 +28605,7 @@
       <c r="DM170" s="5"/>
       <c r="DN170" s="5"/>
     </row>
-    <row r="171" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="4"/>
       <c r="C171" s="5"/>
@@ -28713,7 +28722,7 @@
       <c r="DM171" s="5"/>
       <c r="DN171" s="5"/>
     </row>
-    <row r="172" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="4"/>
       <c r="C172" s="5"/>
@@ -28830,7 +28839,7 @@
       <c r="DM172" s="5"/>
       <c r="DN172" s="5"/>
     </row>
-    <row r="173" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="4"/>
       <c r="C173" s="5"/>
@@ -28947,7 +28956,7 @@
       <c r="DM173" s="5"/>
       <c r="DN173" s="5"/>
     </row>
-    <row r="174" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="4"/>
       <c r="C174" s="5"/>
@@ -29064,7 +29073,7 @@
       <c r="DM174" s="5"/>
       <c r="DN174" s="5"/>
     </row>
-    <row r="175" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="4"/>
       <c r="C175" s="5"/>
@@ -29181,7 +29190,7 @@
       <c r="DM175" s="5"/>
       <c r="DN175" s="5"/>
     </row>
-    <row r="176" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="4"/>
       <c r="C176" s="5"/>
@@ -29298,7 +29307,7 @@
       <c r="DM176" s="5"/>
       <c r="DN176" s="5"/>
     </row>
-    <row r="177" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="4"/>
       <c r="C177" s="5"/>
@@ -29415,7 +29424,7 @@
       <c r="DM177" s="5"/>
       <c r="DN177" s="5"/>
     </row>
-    <row r="178" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="4"/>
       <c r="C178" s="5"/>
@@ -29532,7 +29541,7 @@
       <c r="DM178" s="5"/>
       <c r="DN178" s="5"/>
     </row>
-    <row r="179" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="4"/>
       <c r="C179" s="5"/>
@@ -29649,7 +29658,7 @@
       <c r="DM179" s="5"/>
       <c r="DN179" s="5"/>
     </row>
-    <row r="180" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="4"/>
       <c r="C180" s="5"/>
@@ -29766,7 +29775,7 @@
       <c r="DM180" s="5"/>
       <c r="DN180" s="5"/>
     </row>
-    <row r="181" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="4"/>
       <c r="C181" s="5"/>
@@ -29883,7 +29892,7 @@
       <c r="DM181" s="5"/>
       <c r="DN181" s="5"/>
     </row>
-    <row r="182" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="4"/>
       <c r="C182" s="5"/>
@@ -30000,7 +30009,7 @@
       <c r="DM182" s="5"/>
       <c r="DN182" s="5"/>
     </row>
-    <row r="183" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="4"/>
       <c r="C183" s="5"/>
@@ -30117,7 +30126,7 @@
       <c r="DM183" s="5"/>
       <c r="DN183" s="5"/>
     </row>
-    <row r="184" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="4"/>
       <c r="C184" s="5"/>
@@ -30234,7 +30243,7 @@
       <c r="DM184" s="5"/>
       <c r="DN184" s="5"/>
     </row>
-    <row r="185" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="4"/>
       <c r="C185" s="5"/>
@@ -30351,7 +30360,7 @@
       <c r="DM185" s="5"/>
       <c r="DN185" s="5"/>
     </row>
-    <row r="186" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="4"/>
       <c r="C186" s="5"/>
@@ -30468,7 +30477,7 @@
       <c r="DM186" s="5"/>
       <c r="DN186" s="5"/>
     </row>
-    <row r="187" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="4"/>
       <c r="C187" s="5"/>
@@ -30585,7 +30594,7 @@
       <c r="DM187" s="5"/>
       <c r="DN187" s="5"/>
     </row>
-    <row r="188" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="4"/>
       <c r="C188" s="5"/>
@@ -30702,7 +30711,7 @@
       <c r="DM188" s="5"/>
       <c r="DN188" s="5"/>
     </row>
-    <row r="189" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="4"/>
       <c r="C189" s="5"/>
@@ -30819,7 +30828,7 @@
       <c r="DM189" s="5"/>
       <c r="DN189" s="5"/>
     </row>
-    <row r="190" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="4"/>
       <c r="C190" s="5"/>
@@ -30936,7 +30945,7 @@
       <c r="DM190" s="5"/>
       <c r="DN190" s="5"/>
     </row>
-    <row r="191" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="4"/>
       <c r="C191" s="5"/>
@@ -31053,7 +31062,7 @@
       <c r="DM191" s="5"/>
       <c r="DN191" s="5"/>
     </row>
-    <row r="192" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="4"/>
       <c r="C192" s="5"/>
@@ -31170,7 +31179,7 @@
       <c r="DM192" s="5"/>
       <c r="DN192" s="5"/>
     </row>
-    <row r="193" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="4"/>
       <c r="C193" s="5"/>
@@ -31287,7 +31296,7 @@
       <c r="DM193" s="5"/>
       <c r="DN193" s="5"/>
     </row>
-    <row r="194" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="4"/>
       <c r="C194" s="5"/>
@@ -31404,7 +31413,7 @@
       <c r="DM194" s="5"/>
       <c r="DN194" s="5"/>
     </row>
-    <row r="195" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="4"/>
       <c r="C195" s="5"/>
@@ -31521,7 +31530,7 @@
       <c r="DM195" s="5"/>
       <c r="DN195" s="5"/>
     </row>
-    <row r="196" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="4"/>
       <c r="C196" s="5"/>
@@ -31638,7 +31647,7 @@
       <c r="DM196" s="5"/>
       <c r="DN196" s="5"/>
     </row>
-    <row r="197" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="4"/>
       <c r="C197" s="5"/>
@@ -31755,7 +31764,7 @@
       <c r="DM197" s="5"/>
       <c r="DN197" s="5"/>
     </row>
-    <row r="198" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="4"/>
       <c r="C198" s="5"/>
@@ -31872,7 +31881,7 @@
       <c r="DM198" s="5"/>
       <c r="DN198" s="5"/>
     </row>
-    <row r="199" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="4"/>
       <c r="C199" s="5"/>
@@ -31989,7 +31998,7 @@
       <c r="DM199" s="5"/>
       <c r="DN199" s="5"/>
     </row>
-    <row r="200" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="4"/>
       <c r="C200" s="5"/>
@@ -32106,7 +32115,7 @@
       <c r="DM200" s="5"/>
       <c r="DN200" s="5"/>
     </row>
-    <row r="201" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="4"/>
       <c r="C201" s="5"/>
@@ -32223,7 +32232,7 @@
       <c r="DM201" s="5"/>
       <c r="DN201" s="5"/>
     </row>
-    <row r="202" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="4"/>
       <c r="C202" s="5"/>
@@ -32340,10 +32349,10 @@
       <c r="DM202" s="5"/>
       <c r="DN202" s="5"/>
     </row>
-    <row r="203" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:118" x14ac:dyDescent="0.25">
       <c r="M203" s="67"/>
     </row>
-    <row r="204" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:118" x14ac:dyDescent="0.25">
       <c r="M204" s="67"/>
     </row>
   </sheetData>
@@ -32419,14 +32428,14 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>21</v>
       </c>
@@ -32458,8 +32467,8 @@
         <v>594</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>595</v>
       </c>
@@ -32509,14 +32518,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="20" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="20" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -32530,7 +32539,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>421</v>
       </c>
@@ -32598,7 +32607,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>443</v>
       </c>
@@ -32666,7 +32675,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="65"/>
       <c r="C5" s="65"/>
@@ -32690,7 +32699,7 @@
       <c r="U5" s="65"/>
       <c r="V5" s="65"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -32709,7 +32718,7 @@
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -32741,15 +32750,15 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>922</v>
       </c>
       <c r="B1" s="65"/>
     </row>
-    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>641</v>
       </c>
@@ -32757,13 +32766,13 @@
         <v>923</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="65" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>924</v>
       </c>
@@ -32771,7 +32780,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="65"/>
     </row>
@@ -32788,14 +32797,14 @@
       <selection activeCell="A5" sqref="A5:XFD71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="20" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -32809,7 +32818,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>421</v>
       </c>
@@ -32823,7 +32832,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>435</v>
       </c>
@@ -32858,14 +32867,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -32885,7 +32894,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>421</v>
       </c>
@@ -32905,7 +32914,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>429</v>
       </c>
@@ -32925,77 +32934,77 @@
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -33015,18 +33024,18 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
+      <selection activeCell="L2" sqref="L2:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="20" max="21" width="11" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -33040,7 +33049,10 @@
         <v>377</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>1053</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1052</v>
       </c>
       <c r="N1" t="s">
         <v>383</v>
@@ -33058,7 +33070,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -33071,6 +33083,15 @@
       <c r="G2" t="s">
         <v>89</v>
       </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
       <c r="Q2" t="s">
         <v>7</v>
       </c>
@@ -33084,7 +33105,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -33098,13 +33119,13 @@
         <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q3" t="s">
         <v>519</v>
@@ -33119,7 +33140,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>146</v>
       </c>
@@ -33130,13 +33151,13 @@
         <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q4" t="s">
         <v>520</v>
@@ -33148,231 +33169,221 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q7" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s">
-        <v>62</v>
+        <v>45</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>64</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q9" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>97</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>98</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N11" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="Q11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>1048</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
-        <v>1048</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" t="s">
         <v>56</v>
       </c>
-      <c r="N13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" t="s">
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" t="s">
         <v>85</v>
       </c>
-      <c r="N14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="K15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="K16" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K17" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K18" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K19" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K21" t="s">
-        <v>54</v>
-      </c>
-      <c r="N21" t="s">
+    </row>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K23" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -33386,17 +33397,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -33428,7 +33439,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>499</v>
       </c>
@@ -33460,7 +33471,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>507</v>
       </c>
@@ -33492,7 +33503,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="J5" s="1"/>
     </row>
@@ -33509,31 +33520,31 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
     <col min="8" max="8" width="28.5" style="65" customWidth="1"/>
-    <col min="9" max="9" width="19.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
     <col min="10" max="11" width="16.5" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="21.5" customWidth="1"/>
-    <col min="14" max="14" width="19.19921875" customWidth="1"/>
+    <col min="14" max="14" width="19.25" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="19" max="19" width="5.8984375" customWidth="1"/>
+    <col min="19" max="19" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="20" customFormat="1" ht="312" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="20" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -33577,7 +33588,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -33621,7 +33632,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>330</v>
       </c>
@@ -33666,181 +33677,181 @@
       </c>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G5" s="2"/>
       <c r="H5" s="66"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="66"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G6" s="2"/>
       <c r="H6" s="66"/>
       <c r="I6" s="2"/>
       <c r="K6" s="65"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G7" s="2"/>
       <c r="H7" s="66"/>
       <c r="I7" s="2"/>
       <c r="K7" s="65"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
       <c r="H8" s="66"/>
       <c r="I8" s="2"/>
       <c r="K8" s="65"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G9" s="2"/>
       <c r="H9" s="66"/>
       <c r="I9" s="2"/>
       <c r="K9" s="65"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
       <c r="H10" s="66"/>
       <c r="I10" s="2"/>
       <c r="K10" s="65"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" s="2"/>
       <c r="H11" s="66"/>
       <c r="I11" s="2"/>
       <c r="K11" s="65"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" s="2"/>
       <c r="H12" s="66"/>
       <c r="I12" s="2"/>
       <c r="K12" s="65"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
       <c r="H13" s="66"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G14" s="2"/>
       <c r="H14" s="66"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G15" s="2"/>
       <c r="H15" s="66"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G16" s="2"/>
       <c r="H16" s="66"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G17" s="2"/>
       <c r="H17" s="66"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G18" s="2"/>
       <c r="H18" s="66"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G19" s="2"/>
       <c r="H19" s="66"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G20" s="2"/>
       <c r="H20" s="66"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G21" s="2"/>
       <c r="H21" s="66"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G22" s="2"/>
       <c r="H22" s="66"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G23" s="2"/>
       <c r="H23" s="66"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G24" s="2"/>
       <c r="H24" s="66"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G25" s="2"/>
       <c r="H25" s="66"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G26" s="2"/>
       <c r="H26" s="66"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G27" s="2"/>
       <c r="H27" s="66"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G28" s="2"/>
       <c r="H28" s="66"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G29" s="2"/>
       <c r="H29" s="66"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G30" s="2"/>
       <c r="H30" s="66"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G31" s="2"/>
       <c r="H31" s="66"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G32" s="2"/>
       <c r="H32" s="66"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G33" s="2"/>
       <c r="H33" s="66"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
       <c r="H34" s="66"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G35" s="2"/>
       <c r="H35" s="66"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G36" s="2"/>
       <c r="H36" s="66"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G37" s="2"/>
       <c r="H37" s="66"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G38" s="2"/>
       <c r="H38" s="66"/>
       <c r="I38" s="2"/>
@@ -33868,28 +33879,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="17" customWidth="1"/>
     <col min="4" max="5" width="17" style="65" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="17" max="17" width="11" style="65"/>
-    <col min="18" max="18" width="82.19921875" customWidth="1"/>
-    <col min="22" max="22" width="10.69921875" customWidth="1"/>
-    <col min="23" max="23" width="56.69921875" customWidth="1"/>
-    <col min="24" max="25" width="10.69921875" customWidth="1"/>
+    <col min="18" max="18" width="82.25" customWidth="1"/>
+    <col min="22" max="22" width="10.75" customWidth="1"/>
+    <col min="23" max="23" width="56.75" customWidth="1"/>
+    <col min="24" max="25" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="20" customFormat="1" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" s="20" customFormat="1" ht="174" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -33945,7 +33956,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -33996,7 +34007,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="7" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>517</v>
       </c>
@@ -34052,25 +34063,25 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N5" s="8"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="82"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:21" s="65" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N6" s="8"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="82"/>
       <c r="R6" s="66"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Zenodo, Figshare, Crossref"</formula1>
     </dataValidation>
@@ -34083,33 +34094,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1048576" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0400-000004000000}">
+      <formula1>Dataset_enumeration</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1048576" xr:uid="{654EBC65-EA39-4081-831B-2FFF30F95E5E}">
+      <formula1>Database_enumeration</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
-          <x14:formula1>
-            <xm:f>for_internal_use_only!$L$3:$L$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>H5:H6 H8:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
-          <x14:formula1>
-            <xm:f>'G:\20191031_excel2mmcif_addition_of_lifetime_based_analysis\example\[excel_example.xlsx]for_internal_use_only'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
-          <x14:formula1>
-            <xm:f>for_internal_use_only!$K$3:$K$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>F5:F1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -34118,24 +34111,24 @@
   <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D5" sqref="D5:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.69921875" customWidth="1"/>
-    <col min="3" max="3" width="39.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="39.75" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="73.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="73.25" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="20" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="20" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -34158,7 +34151,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -34181,7 +34174,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>352</v>
       </c>
@@ -34204,596 +34197,587 @@
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="E5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="56"/>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="E6" s="1"/>
       <c r="G6" s="56"/>
     </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="E7" s="1"/>
       <c r="G7" s="56"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="E8" s="1"/>
       <c r="G8" s="56"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="E9" s="1"/>
       <c r="G9" s="56"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="E10" s="1"/>
       <c r="G10" s="56"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="E11" s="1"/>
       <c r="G11" s="56"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="E12" s="1"/>
       <c r="G12" s="56"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="E13" s="1"/>
       <c r="G13" s="56"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="E14" s="1"/>
       <c r="G14" s="56"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="E15" s="1"/>
       <c r="G15" s="56"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="E16" s="1"/>
       <c r="G16" s="56"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="E17" s="1"/>
       <c r="G17" s="56"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="E18" s="1"/>
       <c r="G18" s="56"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="E19" s="1"/>
       <c r="G19" s="56"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="E20" s="1"/>
       <c r="G20" s="56"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="E21" s="1"/>
       <c r="G21" s="56"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="E22" s="1"/>
       <c r="G22" s="56"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="E23" s="1"/>
       <c r="G23" s="56"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="E24" s="1"/>
       <c r="G24" s="56"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="E25" s="1"/>
       <c r="G25" s="56"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="E26" s="1"/>
       <c r="G26" s="56"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="E27" s="1"/>
       <c r="G27" s="56"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="E28" s="1"/>
       <c r="G28" s="56"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="E29" s="1"/>
       <c r="G29" s="56"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="E30" s="1"/>
       <c r="G30" s="56"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="E31" s="1"/>
       <c r="G31" s="56"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="E32" s="1"/>
       <c r="G32" s="56"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="E33" s="1"/>
       <c r="G33" s="56"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="E34" s="1"/>
       <c r="G34" s="56"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="E35" s="1"/>
       <c r="G35" s="56"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="E36" s="1"/>
       <c r="G36" s="56"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="E37" s="1"/>
       <c r="G37" s="56"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H39" s="56"/>
     </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H55" s="56"/>
     </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H57" s="56"/>
     </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H59" s="56"/>
     </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H61" s="56"/>
     </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H63" s="56"/>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H65" s="56"/>
     </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H71" s="56"/>
     </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H73" s="56"/>
     </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H75" s="56"/>
     </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H77" s="56"/>
     </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H79" s="56"/>
     </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H80" s="56"/>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H81" s="56"/>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H82" s="56"/>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H83" s="56"/>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H84" s="56"/>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H85" s="56"/>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H86" s="56"/>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H88" s="56"/>
     </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H89" s="56"/>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H90" s="56"/>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H91" s="56"/>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H92" s="56"/>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H93" s="56"/>
     </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H94" s="56"/>
     </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H95" s="56"/>
     </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H96" s="56"/>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H97" s="56"/>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H98" s="56"/>
     </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H99" s="56"/>
     </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H100" s="56"/>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H101" s="56"/>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H102" s="56"/>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H103" s="56"/>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H104" s="56"/>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H105" s="56"/>
     </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H106" s="56"/>
     </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H107" s="56"/>
     </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H108" s="56"/>
     </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H109" s="56"/>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H110" s="56"/>
     </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H111" s="56"/>
     </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H112" s="56"/>
     </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H113" s="56"/>
     </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H114" s="56"/>
     </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H115" s="56"/>
     </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H116" s="56"/>
     </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H117" s="56"/>
     </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H118" s="56"/>
     </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H119" s="56"/>
     </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H120" s="56"/>
     </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H121" s="56"/>
     </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H122" s="56"/>
     </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H123" s="56"/>
     </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H124" s="56"/>
     </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H125" s="56"/>
     </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H126" s="56"/>
     </row>
-    <row r="127" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H127" s="56"/>
     </row>
-    <row r="128" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H128" s="56"/>
     </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H129" s="56"/>
     </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H130" s="56"/>
     </row>
-    <row r="131" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H131" s="56"/>
     </row>
-    <row r="132" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H132" s="56"/>
     </row>
-    <row r="133" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H133" s="56"/>
     </row>
-    <row r="134" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H134" s="56"/>
     </row>
-    <row r="135" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H135" s="56"/>
     </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H136" s="56"/>
     </row>
-    <row r="137" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H137" s="56"/>
     </row>
-    <row r="138" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H138" s="56"/>
     </row>
-    <row r="139" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H139" s="56"/>
     </row>
-    <row r="140" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H140" s="56"/>
     </row>
-    <row r="141" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H141" s="56"/>
     </row>
-    <row r="142" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H142" s="56"/>
     </row>
-    <row r="143" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H143" s="56"/>
     </row>
-    <row r="144" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H144" s="56"/>
     </row>
-    <row r="145" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H145" s="56"/>
     </row>
-    <row r="146" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H146" s="56"/>
     </row>
-    <row r="147" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H147" s="56"/>
     </row>
-    <row r="148" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H148" s="56"/>
     </row>
-    <row r="149" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H149" s="56"/>
     </row>
-    <row r="150" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H150" s="56"/>
     </row>
-    <row r="151" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H151" s="56"/>
     </row>
-    <row r="152" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H152" s="56"/>
     </row>
-    <row r="153" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H153" s="56"/>
     </row>
-    <row r="154" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H154" s="56"/>
     </row>
-    <row r="155" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H155" s="56"/>
     </row>
-    <row r="156" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H156" s="56"/>
     </row>
-    <row r="157" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H157" s="56"/>
     </row>
-    <row r="158" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H158" s="56"/>
     </row>
-    <row r="159" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H159" s="56"/>
     </row>
-    <row r="160" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H160" s="56"/>
     </row>
-    <row r="161" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H161" s="56"/>
     </row>
-    <row r="162" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H162" s="56"/>
     </row>
-    <row r="163" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H163" s="56"/>
     </row>
-    <row r="164" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H164" s="56"/>
     </row>
-    <row r="165" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H165" s="56"/>
     </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H166" s="56"/>
     </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H167" s="56"/>
     </row>
-    <row r="168" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H168" s="56"/>
     </row>
-    <row r="169" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H169" s="56"/>
     </row>
-    <row r="170" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H170" s="56"/>
     </row>
-    <row r="171" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H171" s="56"/>
     </row>
-    <row r="172" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H172" s="56"/>
     </row>
-    <row r="173" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H173" s="56"/>
     </row>
-    <row r="174" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H174" s="56"/>
     </row>
-    <row r="175" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H175" s="56"/>
     </row>
-    <row r="176" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H176" s="56"/>
     </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H177" s="56"/>
     </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H178" s="56"/>
     </row>
-    <row r="179" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H179" s="56"/>
     </row>
-    <row r="180" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H180" s="56"/>
     </row>
-    <row r="181" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H181" s="56"/>
     </row>
-    <row r="182" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H182" s="56"/>
     </row>
-    <row r="183" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H183" s="56"/>
     </row>
-    <row r="184" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H184" s="56"/>
     </row>
-    <row r="185" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H185" s="56"/>
     </row>
-    <row r="186" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H186" s="56"/>
     </row>
-    <row r="187" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H187" s="56"/>
     </row>
-    <row r="188" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H188" s="56"/>
     </row>
-    <row r="189" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H189" s="56"/>
     </row>
-    <row r="190" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H190" s="56"/>
     </row>
-    <row r="191" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H191" s="56"/>
     </row>
-    <row r="192" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H192" s="56"/>
     </row>
-    <row r="193" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H193" s="56"/>
     </row>
-    <row r="194" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H194" s="56"/>
     </row>
-    <row r="195" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H195" s="56"/>
     </row>
-    <row r="196" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H196" s="56"/>
     </row>
-    <row r="197" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H197" s="56"/>
     </row>
-    <row r="198" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H198" s="56"/>
     </row>
-    <row r="199" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H199" s="56"/>
     </row>
-    <row r="200" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H200" s="56"/>
     </row>
-    <row r="201" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H201" s="56"/>
     </row>
-    <row r="202" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H202" s="56"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Input data or restraints, Modeling or post-processing output, Modeling workflow or script, Visualization script, Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>external_reference_id</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{00000000-0002-0000-0500-000002000000}">
+      <formula1>External_file_format_enumeration</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
-          <x14:formula1>
-            <xm:f>for_internal_use_only!$N$3:$N$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>D5:D1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -34805,19 +34789,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>484</v>
       </c>
@@ -34840,8 +34824,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>491</v>
       </c>
@@ -34864,100 +34848,100 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G6" s="60"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G7" s="60"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8" s="60"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G9" s="60"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G10" s="60"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" s="60"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G12" s="60"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G13" s="60"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G14" s="60"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G15" s="60"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G16" s="60"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="60"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="60"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" s="60"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" s="60"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" s="60"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" s="60"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" s="60"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24" s="60"/>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G25" s="60"/>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G26" s="60"/>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G27" s="60"/>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G28" s="60"/>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G29" s="60"/>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G31" s="60"/>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G32" s="60"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="60"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="60"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="60"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="60"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="60"/>
     </row>
   </sheetData>
@@ -34976,20 +34960,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="15.69921875" customWidth="1"/>
-    <col min="10" max="10" width="18.69921875" customWidth="1"/>
-    <col min="11" max="15" width="12.19921875" customWidth="1"/>
-    <col min="16" max="16" width="18.69921875" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
+    <col min="11" max="15" width="12.25" customWidth="1"/>
+    <col min="16" max="16" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="20" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -35051,7 +35035,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -35121,7 +35105,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>359</v>
       </c>
@@ -35183,53 +35167,53 @@
         <v>921</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D5" s="66"/>
       <c r="H5" s="2"/>
       <c r="I5" s="66"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D6" s="66"/>
       <c r="H6" s="2"/>
       <c r="I6" s="66"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" s="65"/>
       <c r="D7" s="66"/>
       <c r="H7" s="2"/>
       <c r="I7" s="66"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" s="65"/>
       <c r="D8" s="66"/>
       <c r="H8" s="2"/>
       <c r="I8" s="66"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" s="65"/>
       <c r="D9" s="66"/>
       <c r="H9" s="2"/>
       <c r="I9" s="66"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="65"/>
       <c r="D10" s="66"/>
       <c r="H10" s="2"/>
       <c r="I10" s="66"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="65"/>
       <c r="D11" s="66"/>
       <c r="H11" s="2"/>
       <c r="I11" s="66"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="65"/>
       <c r="D12" s="66"/>
       <c r="H12" s="2"/>
       <c r="I12" s="66"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="65"/>
     </row>
   </sheetData>
@@ -35268,14 +35252,14 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="20" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -35313,7 +35297,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>551</v>
       </c>
@@ -35351,7 +35335,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>553</v>
       </c>
